--- a/JupyterNotebooks/AvgHW/CubeA-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
+    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,68 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -630,130 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -761,40 +653,40 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9992551170757772</v>
+        <v>1.001117321718006</v>
       </c>
       <c r="D3">
+        <v>1.000223462215686</v>
+      </c>
+      <c r="E3">
+        <v>0.999255117075777</v>
+      </c>
+      <c r="F3">
+        <v>0.9997206721860171</v>
+      </c>
+      <c r="G3">
         <v>1.001117321718006</v>
       </c>
-      <c r="E3">
+      <c r="H3">
+        <v>1.000240083892152</v>
+      </c>
+      <c r="I3">
+        <v>0.9995852627758958</v>
+      </c>
+      <c r="J3">
+        <v>0.999255117075777</v>
+      </c>
+      <c r="K3">
+        <v>0.999255117075777</v>
+      </c>
+      <c r="L3">
+        <v>1.000726488455172</v>
+      </c>
+      <c r="M3">
         <v>0.9997206721860171</v>
       </c>
-      <c r="F3">
-        <v>0.9992551170757772</v>
-      </c>
-      <c r="G3">
-        <v>1.000240083892152</v>
-      </c>
-      <c r="H3">
-        <v>0.9995852627758958</v>
-      </c>
-      <c r="I3">
-        <v>0.9992551170757772</v>
-      </c>
-      <c r="J3">
-        <v>1.001117321718006</v>
-      </c>
-      <c r="K3">
-        <v>1.000223462215686</v>
-      </c>
-      <c r="L3">
-        <v>0.9997206721860171</v>
-      </c>
-      <c r="M3">
-        <v>1.000726488455172</v>
-      </c>
       <c r="N3">
-        <v>0.9992551170757772</v>
+        <v>0.999255117075777</v>
       </c>
       <c r="O3">
         <v>0.9997206721860171</v>
@@ -824,7 +716,7 @@
         <v>1.000073635063091</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -832,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.002156976731692</v>
+      </c>
+      <c r="D4">
+        <v>1.000431392782545</v>
+      </c>
+      <c r="E4">
         <v>0.9985620138899624</v>
       </c>
-      <c r="D4">
+      <c r="F4">
+        <v>0.99946075864978</v>
+      </c>
+      <c r="G4">
         <v>1.002156976731692</v>
       </c>
-      <c r="E4">
+      <c r="H4">
+        <v>1.000463479947358</v>
+      </c>
+      <c r="I4">
+        <v>0.999199352759446</v>
+      </c>
+      <c r="J4">
+        <v>0.9985620138899624</v>
+      </c>
+      <c r="K4">
+        <v>0.9985620138899624</v>
+      </c>
+      <c r="L4">
+        <v>1.001402478836755</v>
+      </c>
+      <c r="M4">
         <v>0.99946075864978</v>
-      </c>
-      <c r="F4">
-        <v>0.9985620138899624</v>
-      </c>
-      <c r="G4">
-        <v>1.000463479947358</v>
-      </c>
-      <c r="H4">
-        <v>0.999199352759446</v>
-      </c>
-      <c r="I4">
-        <v>0.9985620138899624</v>
-      </c>
-      <c r="J4">
-        <v>1.002156976731692</v>
-      </c>
-      <c r="K4">
-        <v>1.000431392782545</v>
-      </c>
-      <c r="L4">
-        <v>0.99946075864978</v>
-      </c>
-      <c r="M4">
-        <v>1.001402478836755</v>
       </c>
       <c r="N4">
         <v>0.9985620138899624</v>
@@ -895,7 +787,7 @@
         <v>1.000142151530915</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -903,37 +795,37 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>1.004133580638831</v>
+      </c>
+      <c r="D5">
+        <v>1.000826711880725</v>
+      </c>
+      <c r="E5">
         <v>0.9972442792868245</v>
       </c>
-      <c r="D5">
+      <c r="F5">
+        <v>0.9989666033177789</v>
+      </c>
+      <c r="G5">
         <v>1.004133580638831</v>
       </c>
-      <c r="E5">
+      <c r="H5">
+        <v>1.000888203998017</v>
+      </c>
+      <c r="I5">
+        <v>0.9984656575024055</v>
+      </c>
+      <c r="J5">
+        <v>0.9972442792868245</v>
+      </c>
+      <c r="K5">
+        <v>0.9972442792868245</v>
+      </c>
+      <c r="L5">
+        <v>1.002687676676538</v>
+      </c>
+      <c r="M5">
         <v>0.9989666033177789</v>
-      </c>
-      <c r="F5">
-        <v>0.9972442792868245</v>
-      </c>
-      <c r="G5">
-        <v>1.000888203998017</v>
-      </c>
-      <c r="H5">
-        <v>0.9984656575024055</v>
-      </c>
-      <c r="I5">
-        <v>0.9972442792868245</v>
-      </c>
-      <c r="J5">
-        <v>1.004133580638831</v>
-      </c>
-      <c r="K5">
-        <v>1.000826711880725</v>
-      </c>
-      <c r="L5">
-        <v>0.9989666033177789</v>
-      </c>
-      <c r="M5">
-        <v>1.002687676676538</v>
       </c>
       <c r="N5">
         <v>0.9972442792868245</v>
@@ -966,7 +858,7 @@
         <v>1.000272414577362</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -974,37 +866,37 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>1.006062649648248</v>
+      </c>
+      <c r="D6">
+        <v>1.001212534769567</v>
+      </c>
+      <c r="E6">
         <v>0.9959582374119113</v>
       </c>
-      <c r="D6">
+      <c r="F6">
+        <v>0.9984843412647687</v>
+      </c>
+      <c r="G6">
         <v>1.006062649648248</v>
       </c>
-      <c r="E6">
+      <c r="H6">
+        <v>1.001302716923629</v>
+      </c>
+      <c r="I6">
+        <v>0.9977496102961667</v>
+      </c>
+      <c r="J6">
+        <v>0.9959582374119113</v>
+      </c>
+      <c r="K6">
+        <v>0.9959582374119113</v>
+      </c>
+      <c r="L6">
+        <v>1.00394196094719</v>
+      </c>
+      <c r="M6">
         <v>0.9984843412647687</v>
-      </c>
-      <c r="F6">
-        <v>0.9959582374119113</v>
-      </c>
-      <c r="G6">
-        <v>1.001302716923629</v>
-      </c>
-      <c r="H6">
-        <v>0.9977496102961667</v>
-      </c>
-      <c r="I6">
-        <v>0.9959582374119113</v>
-      </c>
-      <c r="J6">
-        <v>1.006062649648248</v>
-      </c>
-      <c r="K6">
-        <v>1.001212534769567</v>
-      </c>
-      <c r="L6">
-        <v>0.9984843412647687</v>
-      </c>
-      <c r="M6">
-        <v>1.00394196094719</v>
       </c>
       <c r="N6">
         <v>0.9959582374119113</v>
@@ -1037,7 +929,7 @@
         <v>1.000399549065781</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1045,49 +937,49 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999426059878634</v>
+        <v>1.000086087980513</v>
       </c>
       <c r="D7">
+        <v>1.000017215973837</v>
+      </c>
+      <c r="E7">
+        <v>0.9999426059878632</v>
+      </c>
+      <c r="F7">
+        <v>0.9999784808365894</v>
+      </c>
+      <c r="G7">
         <v>1.000086087980513</v>
       </c>
-      <c r="E7">
-        <v>0.9999784808365889</v>
-      </c>
-      <c r="F7">
-        <v>0.9999426059878634</v>
-      </c>
-      <c r="G7">
+      <c r="H7">
         <v>1.000018497015002</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.9999680472671939</v>
       </c>
-      <c r="I7">
-        <v>0.9999426059878634</v>
-      </c>
       <c r="J7">
-        <v>1.000086087980513</v>
+        <v>0.9999426059878632</v>
       </c>
       <c r="K7">
-        <v>1.000017215973837</v>
+        <v>0.9999426059878632</v>
       </c>
       <c r="L7">
-        <v>0.9999784808365889</v>
+        <v>1.000055973997928</v>
       </c>
       <c r="M7">
-        <v>1.000055973997928</v>
+        <v>0.9999784808365894</v>
       </c>
       <c r="N7">
-        <v>0.9999426059878634</v>
+        <v>0.9999426059878632</v>
       </c>
       <c r="O7">
-        <v>0.9999784808365889</v>
+        <v>0.9999784808365894</v>
       </c>
       <c r="P7">
         <v>1.000032284408551</v>
       </c>
       <c r="Q7">
-        <v>0.9999984889257956</v>
+        <v>0.9999984889257958</v>
       </c>
       <c r="R7">
         <v>1.000002391601655</v>
@@ -1105,10 +997,10 @@
         <v>0.9999936555615662</v>
       </c>
       <c r="W7">
-        <v>1.000005673736939</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43">
+        <v>1.00000567373694</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1116,55 +1008,55 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9998429356855687</v>
+        <v>1.000235593567386</v>
       </c>
       <c r="D8">
+        <v>1.000047117093066</v>
+      </c>
+      <c r="E8">
+        <v>0.9998429356855685</v>
+      </c>
+      <c r="F8">
+        <v>0.9999411043453706</v>
+      </c>
+      <c r="G8">
         <v>1.000235593567386</v>
       </c>
-      <c r="E8">
-        <v>0.999941104345371</v>
-      </c>
-      <c r="F8">
-        <v>0.9998429356855687</v>
-      </c>
-      <c r="G8">
+      <c r="H8">
         <v>1.0000506222586</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.9999125520926494</v>
       </c>
-      <c r="I8">
-        <v>0.9998429356855687</v>
-      </c>
       <c r="J8">
-        <v>1.000235593567386</v>
+        <v>0.9998429356855685</v>
       </c>
       <c r="K8">
-        <v>1.000047117093066</v>
+        <v>0.9998429356855685</v>
       </c>
       <c r="L8">
-        <v>0.999941104345371</v>
+        <v>1.000153183675628</v>
       </c>
       <c r="M8">
-        <v>1.000153183675628</v>
+        <v>0.9999411043453706</v>
       </c>
       <c r="N8">
-        <v>0.9998429356855687</v>
+        <v>0.9998429356855685</v>
       </c>
       <c r="O8">
-        <v>0.999941104345371</v>
+        <v>0.9999411043453706</v>
       </c>
       <c r="P8">
         <v>1.000088348956379</v>
       </c>
       <c r="Q8">
-        <v>0.9999958633019855</v>
+        <v>0.9999958633019854</v>
       </c>
       <c r="R8">
         <v>1.000006544532775</v>
       </c>
       <c r="S8">
-        <v>1.000075773390452</v>
+        <v>1.000075773390453</v>
       </c>
       <c r="T8">
         <v>1.000006544532775</v>
@@ -1173,13 +1065,13 @@
         <v>1.000017563964231</v>
       </c>
       <c r="V8">
-        <v>0.999982638308499</v>
+        <v>0.9999826383084989</v>
       </c>
       <c r="W8">
         <v>1.000015526632955</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1187,37 +1079,37 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.000341481559302</v>
+      </c>
+      <c r="D9">
+        <v>1.000068295223176</v>
+      </c>
+      <c r="E9">
         <v>0.9997723436489776</v>
       </c>
-      <c r="D9">
+      <c r="F9">
+        <v>0.9999146325184409</v>
+      </c>
+      <c r="G9">
         <v>1.000341481559302</v>
       </c>
-      <c r="E9">
+      <c r="H9">
+        <v>1.000073374901485</v>
+      </c>
+      <c r="I9">
+        <v>0.9998732473554761</v>
+      </c>
+      <c r="J9">
+        <v>0.9997723436489776</v>
+      </c>
+      <c r="K9">
+        <v>0.9997723436489776</v>
+      </c>
+      <c r="L9">
+        <v>1.000222032422982</v>
+      </c>
+      <c r="M9">
         <v>0.9999146325184409</v>
-      </c>
-      <c r="F9">
-        <v>0.9997723436489776</v>
-      </c>
-      <c r="G9">
-        <v>1.000073374901485</v>
-      </c>
-      <c r="H9">
-        <v>0.9998732473554761</v>
-      </c>
-      <c r="I9">
-        <v>0.9997723436489776</v>
-      </c>
-      <c r="J9">
-        <v>1.000341481559302</v>
-      </c>
-      <c r="K9">
-        <v>1.000068295223176</v>
-      </c>
-      <c r="L9">
-        <v>0.9999146325184409</v>
-      </c>
-      <c r="M9">
-        <v>1.000222032422982</v>
       </c>
       <c r="N9">
         <v>0.9997723436489776</v>
@@ -1250,7 +1142,7 @@
         <v>1.000022505018535</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1258,40 +1150,40 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9995166996116464</v>
+        <v>1.000724947124803</v>
       </c>
       <c r="D10">
+        <v>1.000144988460501</v>
+      </c>
+      <c r="E10">
+        <v>0.9995166996116465</v>
+      </c>
+      <c r="F10">
+        <v>0.9998187662600204</v>
+      </c>
+      <c r="G10">
         <v>1.000724947124803</v>
       </c>
-      <c r="E10">
+      <c r="H10">
+        <v>1.000155771425269</v>
+      </c>
+      <c r="I10">
+        <v>0.9997309074414664</v>
+      </c>
+      <c r="J10">
+        <v>0.9995166996116465</v>
+      </c>
+      <c r="K10">
+        <v>0.9995166996116465</v>
+      </c>
+      <c r="L10">
+        <v>1.000471362883419</v>
+      </c>
+      <c r="M10">
         <v>0.9998187662600204</v>
       </c>
-      <c r="F10">
-        <v>0.9995166996116464</v>
-      </c>
-      <c r="G10">
-        <v>1.000155771425269</v>
-      </c>
-      <c r="H10">
-        <v>0.9997309074414664</v>
-      </c>
-      <c r="I10">
-        <v>0.9995166996116464</v>
-      </c>
-      <c r="J10">
-        <v>1.000724947124803</v>
-      </c>
-      <c r="K10">
-        <v>1.000144988460501</v>
-      </c>
-      <c r="L10">
-        <v>0.9998187662600204</v>
-      </c>
-      <c r="M10">
-        <v>1.000471362883419</v>
-      </c>
       <c r="N10">
-        <v>0.9995166996116464</v>
+        <v>0.9995166996116465</v>
       </c>
       <c r="O10">
         <v>0.9998187662600204</v>
@@ -1321,7 +1213,7 @@
         <v>1.000047776183393</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1329,37 +1221,37 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>1.001235954736644</v>
+      </c>
+      <c r="D11">
+        <v>1.00024718993476</v>
+      </c>
+      <c r="E11">
         <v>0.9991760273710237</v>
       </c>
-      <c r="D11">
+      <c r="F11">
+        <v>0.9996910144593807</v>
+      </c>
+      <c r="G11">
         <v>1.001235954736644</v>
       </c>
-      <c r="E11">
+      <c r="H11">
+        <v>1.000265574663741</v>
+      </c>
+      <c r="I11">
+        <v>0.9995412273058324</v>
+      </c>
+      <c r="J11">
+        <v>0.9991760273710237</v>
+      </c>
+      <c r="K11">
+        <v>0.9991760273710237</v>
+      </c>
+      <c r="L11">
+        <v>1.000803623153731</v>
+      </c>
+      <c r="M11">
         <v>0.9996910144593807</v>
-      </c>
-      <c r="F11">
-        <v>0.9991760273710237</v>
-      </c>
-      <c r="G11">
-        <v>1.000265574663741</v>
-      </c>
-      <c r="H11">
-        <v>0.9995412273058324</v>
-      </c>
-      <c r="I11">
-        <v>0.9991760273710237</v>
-      </c>
-      <c r="J11">
-        <v>1.001235954736644</v>
-      </c>
-      <c r="K11">
-        <v>1.00024718993476</v>
-      </c>
-      <c r="L11">
-        <v>0.9996910144593807</v>
-      </c>
-      <c r="M11">
-        <v>1.000803623153731</v>
       </c>
       <c r="N11">
         <v>0.9991760273710237</v>
@@ -1392,7 +1284,7 @@
         <v>1.000081453260562</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1400,37 +1292,37 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.9873439627911561</v>
+      </c>
+      <c r="D12">
+        <v>0.9974687961789362</v>
+      </c>
+      <c r="E12">
         <v>1.00843735622691</v>
       </c>
-      <c r="D12">
-        <v>0.9873439627911564</v>
-      </c>
-      <c r="E12">
+      <c r="F12">
         <v>1.003164008499625</v>
       </c>
-      <c r="F12">
+      <c r="G12">
+        <v>0.9873439627911561</v>
+      </c>
+      <c r="H12">
+        <v>0.9972805176581907</v>
+      </c>
+      <c r="I12">
+        <v>1.004697815197374</v>
+      </c>
+      <c r="J12">
         <v>1.00843735622691</v>
       </c>
-      <c r="G12">
-        <v>0.9972805176581907</v>
-      </c>
-      <c r="H12">
-        <v>1.004697815197374</v>
-      </c>
-      <c r="I12">
+      <c r="K12">
         <v>1.00843735622691</v>
       </c>
-      <c r="J12">
-        <v>0.9873439627911564</v>
-      </c>
-      <c r="K12">
-        <v>0.9974687961789362</v>
-      </c>
       <c r="L12">
+        <v>0.9917709682328282</v>
+      </c>
+      <c r="M12">
         <v>1.003164008499625</v>
-      </c>
-      <c r="M12">
-        <v>0.9917709682328282</v>
       </c>
       <c r="N12">
         <v>1.00843735622691</v>
@@ -1439,22 +1331,22 @@
         <v>1.003164008499625</v>
       </c>
       <c r="P12">
-        <v>0.9952539856453909</v>
+        <v>0.9952539856453908</v>
       </c>
       <c r="Q12">
         <v>1.000222263078908</v>
       </c>
       <c r="R12">
-        <v>0.9996484425058973</v>
+        <v>0.9996484425058972</v>
       </c>
       <c r="S12">
-        <v>0.9959294963163242</v>
+        <v>0.995929496316324</v>
       </c>
       <c r="T12">
-        <v>0.9996484425058973</v>
+        <v>0.9996484425058972</v>
       </c>
       <c r="U12">
-        <v>0.9990564612939707</v>
+        <v>0.9990564612939705</v>
       </c>
       <c r="V12">
         <v>1.000932640280559</v>
@@ -1463,7 +1355,7 @@
         <v>0.9991659291605808</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1471,37 +1363,37 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>0.9967239804633086</v>
+      </c>
+      <c r="D13">
+        <v>0.9993447955034405</v>
+      </c>
+      <c r="E13">
         <v>1.002184013118497</v>
       </c>
-      <c r="D13">
+      <c r="F13">
+        <v>1.000819011752151</v>
+      </c>
+      <c r="G13">
         <v>0.9967239804633086</v>
       </c>
-      <c r="E13">
+      <c r="H13">
+        <v>0.9992960646984418</v>
+      </c>
+      <c r="I13">
+        <v>1.00121603445019</v>
+      </c>
+      <c r="J13">
+        <v>1.002184013118497</v>
+      </c>
+      <c r="K13">
+        <v>1.002184013118497</v>
+      </c>
+      <c r="L13">
+        <v>0.9978699118088455</v>
+      </c>
+      <c r="M13">
         <v>1.000819011752151</v>
-      </c>
-      <c r="F13">
-        <v>1.002184013118497</v>
-      </c>
-      <c r="G13">
-        <v>0.9992960646984418</v>
-      </c>
-      <c r="H13">
-        <v>1.00121603445019</v>
-      </c>
-      <c r="I13">
-        <v>1.002184013118497</v>
-      </c>
-      <c r="J13">
-        <v>0.9967239804633086</v>
-      </c>
-      <c r="K13">
-        <v>0.9993447955034405</v>
-      </c>
-      <c r="L13">
-        <v>1.000819011752151</v>
-      </c>
-      <c r="M13">
-        <v>0.9978699118088455</v>
       </c>
       <c r="N13">
         <v>1.002184013118497</v>
@@ -1534,7 +1426,7 @@
         <v>0.9997841029433781</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1542,37 +1434,37 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>0.9946327119583072</v>
+      </c>
+      <c r="D14">
+        <v>0.9989265358908339</v>
+      </c>
+      <c r="E14">
         <v>1.0035781878889</v>
       </c>
-      <c r="D14">
+      <c r="F14">
+        <v>1.00134182536628</v>
+      </c>
+      <c r="G14">
         <v>0.9946327119583072</v>
       </c>
-      <c r="E14">
+      <c r="H14">
+        <v>0.9988466944165735</v>
+      </c>
+      <c r="I14">
+        <v>1.001992287703666</v>
+      </c>
+      <c r="J14">
+        <v>1.0035781878889</v>
+      </c>
+      <c r="K14">
+        <v>1.0035781878889</v>
+      </c>
+      <c r="L14">
+        <v>0.9965101501423791</v>
+      </c>
+      <c r="M14">
         <v>1.00134182536628</v>
-      </c>
-      <c r="F14">
-        <v>1.0035781878889</v>
-      </c>
-      <c r="G14">
-        <v>0.9988466944165735</v>
-      </c>
-      <c r="H14">
-        <v>1.001992287703666</v>
-      </c>
-      <c r="I14">
-        <v>1.0035781878889</v>
-      </c>
-      <c r="J14">
-        <v>0.9946327119583072</v>
-      </c>
-      <c r="K14">
-        <v>0.9989265358908339</v>
-      </c>
-      <c r="L14">
-        <v>1.00134182536628</v>
-      </c>
-      <c r="M14">
-        <v>0.9965101501423791</v>
       </c>
       <c r="N14">
         <v>1.0035781878889</v>
@@ -1587,25 +1479,25 @@
         <v>1.000094259891427</v>
       </c>
       <c r="R14">
-        <v>0.9998509084044959</v>
+        <v>0.9998509084044956</v>
       </c>
       <c r="S14">
         <v>0.9982737439137201</v>
       </c>
       <c r="T14">
-        <v>0.9998509084044959</v>
+        <v>0.9998509084044956</v>
       </c>
       <c r="U14">
-        <v>0.9995998549075152</v>
+        <v>0.9995998549075151</v>
       </c>
       <c r="V14">
         <v>1.000395521503792</v>
       </c>
       <c r="W14">
-        <v>0.9996462773416526</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43">
+        <v>0.9996462773416525</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1613,37 +1505,37 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>0.9986226192190829</v>
+      </c>
+      <c r="D15">
+        <v>0.9997245284344218</v>
+      </c>
+      <c r="E15">
         <v>1.000918247480899</v>
       </c>
-      <c r="D15">
+      <c r="F15">
+        <v>1.000344344972705</v>
+      </c>
+      <c r="G15">
         <v>0.9986226192190829</v>
       </c>
-      <c r="E15">
+      <c r="H15">
+        <v>0.9997040311847858</v>
+      </c>
+      <c r="I15">
+        <v>1.000511271096169</v>
+      </c>
+      <c r="J15">
+        <v>1.000918247480899</v>
+      </c>
+      <c r="K15">
+        <v>1.000918247480899</v>
+      </c>
+      <c r="L15">
+        <v>0.9991044140848516</v>
+      </c>
+      <c r="M15">
         <v>1.000344344972705</v>
-      </c>
-      <c r="F15">
-        <v>1.000918247480899</v>
-      </c>
-      <c r="G15">
-        <v>0.9997040311847858</v>
-      </c>
-      <c r="H15">
-        <v>1.000511271096169</v>
-      </c>
-      <c r="I15">
-        <v>1.000918247480899</v>
-      </c>
-      <c r="J15">
-        <v>0.9986226192190829</v>
-      </c>
-      <c r="K15">
-        <v>0.9997245284344218</v>
-      </c>
-      <c r="L15">
-        <v>1.000344344972705</v>
-      </c>
-      <c r="M15">
-        <v>0.9991044140848517</v>
       </c>
       <c r="N15">
         <v>1.000918247480899</v>
@@ -1676,7 +1568,7 @@
         <v>0.9999092251807025</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1684,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999969220982911</v>
+        <v>1.021797348903969</v>
       </c>
       <c r="D16">
-        <v>1.000004613886372</v>
+        <v>1.004359467373855</v>
       </c>
       <c r="E16">
-        <v>0.9999988494603973</v>
+        <v>0.9854684375369823</v>
       </c>
       <c r="F16">
-        <v>0.9999969220982911</v>
+        <v>0.9945506643026586</v>
       </c>
       <c r="G16">
-        <v>1.000000990030841</v>
+        <v>1.021797348903969</v>
       </c>
       <c r="H16">
-        <v>0.9999982897816313</v>
+        <v>1.00468372517172</v>
       </c>
       <c r="I16">
-        <v>0.9999969220982911</v>
+        <v>0.9919090268159468</v>
       </c>
       <c r="J16">
-        <v>1.000004613886372</v>
+        <v>0.9854684375369823</v>
       </c>
       <c r="K16">
-        <v>1.000000921008864</v>
+        <v>0.9854684375369823</v>
       </c>
       <c r="L16">
-        <v>0.9999988494603973</v>
+        <v>1.014172761209618</v>
       </c>
       <c r="M16">
-        <v>1.000002999217713</v>
+        <v>0.9945506643026586</v>
       </c>
       <c r="N16">
-        <v>0.9999969220982911</v>
+        <v>0.9854684375369823</v>
       </c>
       <c r="O16">
-        <v>0.9999988494603973</v>
+        <v>0.9945506643026586</v>
       </c>
       <c r="P16">
-        <v>1.000001731673385</v>
+        <v>1.008174006603314</v>
       </c>
       <c r="Q16">
-        <v>0.9999999197456192</v>
+        <v>0.9996171947371895</v>
       </c>
       <c r="R16">
-        <v>1.000000128481687</v>
+        <v>1.000605483581203</v>
       </c>
       <c r="S16">
-        <v>1.000001484459204</v>
+        <v>1.007010579459449</v>
       </c>
       <c r="T16">
-        <v>1.000000128481687</v>
+        <v>1.000605483581203</v>
       </c>
       <c r="U16">
-        <v>1.000000343868975</v>
+        <v>1.001625043978832</v>
       </c>
       <c r="V16">
-        <v>0.9999996595148385</v>
+        <v>0.9983937226904624</v>
       </c>
       <c r="W16">
-        <v>1.000000304368063</v>
+        <v>1.001436511952176</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1755,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9999348569032939</v>
+        <v>1.017849638696293</v>
       </c>
       <c r="D17">
-        <v>1.000097711816528</v>
+        <v>1.003569926163604</v>
       </c>
       <c r="E17">
-        <v>0.9999755749687521</v>
+        <v>0.9881002430201163</v>
       </c>
       <c r="F17">
-        <v>0.9999348569032939</v>
+        <v>0.9955375921393864</v>
       </c>
       <c r="G17">
-        <v>1.000020994524105</v>
+        <v>1.017849638696293</v>
       </c>
       <c r="H17">
-        <v>0.9999637325669929</v>
+        <v>1.003835457034628</v>
       </c>
       <c r="I17">
-        <v>0.9999348569032939</v>
+        <v>0.9933743793484079</v>
       </c>
       <c r="J17">
-        <v>1.000097711816528</v>
+        <v>0.9881002430201163</v>
       </c>
       <c r="K17">
-        <v>1.000019540491773</v>
+        <v>0.9881002430201163</v>
       </c>
       <c r="L17">
-        <v>0.9999755749687521</v>
+        <v>1.011605937062292</v>
       </c>
       <c r="M17">
-        <v>1.000063532211507</v>
+        <v>0.9955375921393864</v>
       </c>
       <c r="N17">
-        <v>0.9999348569032939</v>
+        <v>0.9881002430201163</v>
       </c>
       <c r="O17">
-        <v>0.9999755749687521</v>
+        <v>0.9955375921393864</v>
       </c>
       <c r="P17">
-        <v>1.00003664339264</v>
+        <v>1.006693615417839</v>
       </c>
       <c r="Q17">
-        <v>0.9999982847464286</v>
+        <v>0.9996865245870072</v>
       </c>
       <c r="R17">
-        <v>1.000002714562858</v>
+        <v>1.000495824618598</v>
       </c>
       <c r="S17">
-        <v>1.000031427103129</v>
+        <v>1.005740895956769</v>
       </c>
       <c r="T17">
-        <v>1.000002714562858</v>
+        <v>1.000495824618598</v>
       </c>
       <c r="U17">
-        <v>1.00000728455317</v>
+        <v>1.001330732722606</v>
       </c>
       <c r="V17">
-        <v>0.9999927990231946</v>
+        <v>0.998684634782108</v>
       </c>
       <c r="W17">
-        <v>1.000006439806463</v>
+        <v>1.001176345700514</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1826,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9997706555826523</v>
+        <v>1.009936219400748</v>
       </c>
       <c r="D18">
-        <v>1.000344012999799</v>
+        <v>1.001987244076141</v>
       </c>
       <c r="E18">
-        <v>0.9999139965417267</v>
+        <v>0.9933758546060397</v>
       </c>
       <c r="F18">
-        <v>0.9997706555826523</v>
+        <v>0.9975159485937937</v>
       </c>
       <c r="G18">
-        <v>1.000073919242542</v>
+        <v>1.009936219400748</v>
       </c>
       <c r="H18">
-        <v>0.9998723063523839</v>
+        <v>1.002135053697203</v>
       </c>
       <c r="I18">
-        <v>0.9997706555826523</v>
+        <v>0.9963117643880964</v>
       </c>
       <c r="J18">
-        <v>1.000344012999799</v>
+        <v>0.9933758546060397</v>
       </c>
       <c r="K18">
-        <v>1.000068800474582</v>
+        <v>0.9933758546060397</v>
       </c>
       <c r="L18">
-        <v>0.9999139965417267</v>
+        <v>1.006460586354045</v>
       </c>
       <c r="M18">
-        <v>1.000223676240592</v>
+        <v>0.9975159485937937</v>
       </c>
       <c r="N18">
-        <v>0.9997706555826523</v>
+        <v>0.9933758546060397</v>
       </c>
       <c r="O18">
-        <v>0.9999139965417267</v>
+        <v>0.9975159485937937</v>
       </c>
       <c r="P18">
-        <v>1.000129004770763</v>
+        <v>1.003726083997271</v>
       </c>
       <c r="Q18">
-        <v>0.9999939578921344</v>
+        <v>0.9998255011454985</v>
       </c>
       <c r="R18">
-        <v>1.000009555041393</v>
+        <v>1.000276007533527</v>
       </c>
       <c r="S18">
-        <v>1.000110642928023</v>
+        <v>1.003195740563915</v>
       </c>
       <c r="T18">
-        <v>1.000009555041393</v>
+        <v>1.000276007533527</v>
       </c>
       <c r="U18">
-        <v>1.00002564609168</v>
+        <v>1.000740769074446</v>
       </c>
       <c r="V18">
-        <v>0.9999746479898745</v>
+        <v>0.9992677861807649</v>
       </c>
       <c r="W18">
-        <v>1.000022670497001</v>
+        <v>1.000654827463733</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1897,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.010860125534002</v>
+      </c>
+      <c r="D19">
+        <v>1.002172021586459</v>
+      </c>
+      <c r="E19">
+        <v>0.9927599115134711</v>
+      </c>
+      <c r="F19">
+        <v>0.9972849695701758</v>
+      </c>
+      <c r="G19">
+        <v>1.010860125534002</v>
+      </c>
+      <c r="H19">
+        <v>1.002333572385476</v>
+      </c>
+      <c r="I19">
+        <v>0.9959688186583521</v>
+      </c>
+      <c r="J19">
+        <v>0.9927599115134711</v>
+      </c>
+      <c r="K19">
+        <v>0.9927599115134711</v>
+      </c>
+      <c r="L19">
+        <v>1.007061315124034</v>
+      </c>
+      <c r="M19">
+        <v>0.9972849695701758</v>
+      </c>
+      <c r="N19">
+        <v>0.9927599115134711</v>
+      </c>
+      <c r="O19">
+        <v>0.9972849695701758</v>
+      </c>
+      <c r="P19">
+        <v>1.004072547552089</v>
+      </c>
+      <c r="Q19">
+        <v>0.9998092709778259</v>
+      </c>
+      <c r="R19">
+        <v>1.00030166887255</v>
+      </c>
+      <c r="S19">
+        <v>1.003492889163218</v>
+      </c>
+      <c r="T19">
+        <v>1.00030166887255</v>
+      </c>
+      <c r="U19">
+        <v>1.000809644750781</v>
+      </c>
+      <c r="V19">
+        <v>0.9991996981033193</v>
+      </c>
+      <c r="W19">
+        <v>1.000715712992768</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000004613886372</v>
+      </c>
+      <c r="D20">
+        <v>1.000000921008864</v>
+      </c>
+      <c r="E20">
+        <v>0.9999969220982911</v>
+      </c>
+      <c r="F20">
+        <v>0.9999988494603973</v>
+      </c>
+      <c r="G20">
+        <v>1.000004613886372</v>
+      </c>
+      <c r="H20">
+        <v>1.000000990030841</v>
+      </c>
+      <c r="I20">
+        <v>0.9999982897816313</v>
+      </c>
+      <c r="J20">
+        <v>0.9999969220982911</v>
+      </c>
+      <c r="K20">
+        <v>0.9999969220982911</v>
+      </c>
+      <c r="L20">
+        <v>1.000002999217713</v>
+      </c>
+      <c r="M20">
+        <v>0.9999988494603973</v>
+      </c>
+      <c r="N20">
+        <v>0.9999969220982911</v>
+      </c>
+      <c r="O20">
+        <v>0.9999988494603973</v>
+      </c>
+      <c r="P20">
+        <v>1.000001731673385</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999999197456192</v>
+      </c>
+      <c r="R20">
+        <v>1.000000128481687</v>
+      </c>
+      <c r="S20">
+        <v>1.000001484459204</v>
+      </c>
+      <c r="T20">
+        <v>1.000000128481687</v>
+      </c>
+      <c r="U20">
+        <v>1.000000343868975</v>
+      </c>
+      <c r="V20">
+        <v>0.9999996595148385</v>
+      </c>
+      <c r="W20">
+        <v>1.000000304368063</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000097711816528</v>
+      </c>
+      <c r="D21">
+        <v>1.000019540491772</v>
+      </c>
+      <c r="E21">
+        <v>0.9999348569032939</v>
+      </c>
+      <c r="F21">
+        <v>0.9999755749687521</v>
+      </c>
+      <c r="G21">
+        <v>1.000097711816528</v>
+      </c>
+      <c r="H21">
+        <v>1.000020994524105</v>
+      </c>
+      <c r="I21">
+        <v>0.9999637325669929</v>
+      </c>
+      <c r="J21">
+        <v>0.9999348569032939</v>
+      </c>
+      <c r="K21">
+        <v>0.9999348569032939</v>
+      </c>
+      <c r="L21">
+        <v>1.000063532211507</v>
+      </c>
+      <c r="M21">
+        <v>0.9999755749687521</v>
+      </c>
+      <c r="N21">
+        <v>0.9999348569032939</v>
+      </c>
+      <c r="O21">
+        <v>0.9999755749687521</v>
+      </c>
+      <c r="P21">
+        <v>1.00003664339264</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999982847464286</v>
+      </c>
+      <c r="R21">
+        <v>1.000002714562858</v>
+      </c>
+      <c r="S21">
+        <v>1.000031427103129</v>
+      </c>
+      <c r="T21">
+        <v>1.000002714562858</v>
+      </c>
+      <c r="U21">
+        <v>1.00000728455317</v>
+      </c>
+      <c r="V21">
+        <v>0.9999927990231946</v>
+      </c>
+      <c r="W21">
+        <v>1.000006439806463</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000344012999799</v>
+      </c>
+      <c r="D22">
+        <v>1.000068800474582</v>
+      </c>
+      <c r="E22">
+        <v>0.9997706555826523</v>
+      </c>
+      <c r="F22">
+        <v>0.9999139965417267</v>
+      </c>
+      <c r="G22">
+        <v>1.000344012999799</v>
+      </c>
+      <c r="H22">
+        <v>1.000073919242542</v>
+      </c>
+      <c r="I22">
+        <v>0.9998723063523839</v>
+      </c>
+      <c r="J22">
+        <v>0.9997706555826523</v>
+      </c>
+      <c r="K22">
+        <v>0.9997706555826523</v>
+      </c>
+      <c r="L22">
+        <v>1.000223676240592</v>
+      </c>
+      <c r="M22">
+        <v>0.9999139965417267</v>
+      </c>
+      <c r="N22">
+        <v>0.9997706555826523</v>
+      </c>
+      <c r="O22">
+        <v>0.9999139965417267</v>
+      </c>
+      <c r="P22">
+        <v>1.000129004770763</v>
+      </c>
+      <c r="Q22">
+        <v>0.9999939578921344</v>
+      </c>
+      <c r="R22">
+        <v>1.000009555041393</v>
+      </c>
+      <c r="S22">
+        <v>1.000110642928023</v>
+      </c>
+      <c r="T22">
+        <v>1.000009555041393</v>
+      </c>
+      <c r="U22">
+        <v>1.00002564609168</v>
+      </c>
+      <c r="V22">
+        <v>0.9999746479898745</v>
+      </c>
+      <c r="W22">
+        <v>1.000022670497001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.000805921519318</v>
+      </c>
+      <c r="D23">
+        <v>1.000161179635682</v>
+      </c>
+      <c r="E23">
         <v>0.9994627166128837</v>
       </c>
-      <c r="D19">
+      <c r="F23">
+        <v>0.9997985223496175</v>
+      </c>
+      <c r="G23">
         <v>1.000805921519318</v>
       </c>
-      <c r="E19">
+      <c r="H23">
+        <v>1.000173171557616</v>
+      </c>
+      <c r="I23">
+        <v>0.9997008504952984</v>
+      </c>
+      <c r="J23">
+        <v>0.9994627166128837</v>
+      </c>
+      <c r="K23">
+        <v>0.9994627166128837</v>
+      </c>
+      <c r="L23">
+        <v>1.00052401507648</v>
+      </c>
+      <c r="M23">
         <v>0.9997985223496175</v>
       </c>
-      <c r="F19">
+      <c r="N23">
         <v>0.9994627166128837</v>
       </c>
-      <c r="G19">
-        <v>1.000173171557616</v>
-      </c>
-      <c r="H19">
-        <v>0.9997008504952984</v>
-      </c>
-      <c r="I19">
-        <v>0.9994627166128837</v>
-      </c>
-      <c r="J19">
-        <v>1.000805921519318</v>
-      </c>
-      <c r="K19">
-        <v>1.000161179635682</v>
-      </c>
-      <c r="L19">
+      <c r="O23">
         <v>0.9997985223496175</v>
       </c>
-      <c r="M19">
-        <v>1.00052401507648</v>
-      </c>
-      <c r="N19">
-        <v>0.9994627166128837</v>
-      </c>
-      <c r="O19">
-        <v>0.9997985223496175</v>
-      </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.000302221934468</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9999858469536167</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.000022386827273</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.000259205142184</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000022386827273</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>1.000060083009859</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>0.9999406097304639</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>1.000053112449564</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/CubeA-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW45.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.001117321718006</v>
+        <v>1.011915211909221</v>
       </c>
       <c r="D3">
-        <v>1.000223462215686</v>
+        <v>1.002383042824209</v>
       </c>
       <c r="E3">
-        <v>0.999255117075777</v>
+        <v>0.9920565257348735</v>
       </c>
       <c r="F3">
-        <v>0.9997206721860171</v>
+        <v>0.9970211995461081</v>
       </c>
       <c r="G3">
-        <v>1.001117321718006</v>
+        <v>1.011915211909221</v>
       </c>
       <c r="H3">
-        <v>1.000240083892152</v>
+        <v>1.002560290100867</v>
       </c>
       <c r="I3">
-        <v>0.9995852627758958</v>
+        <v>0.9955771817002884</v>
       </c>
       <c r="J3">
-        <v>0.999255117075777</v>
+        <v>0.9920565257348735</v>
       </c>
       <c r="K3">
-        <v>0.999255117075777</v>
+        <v>0.9920565257348735</v>
       </c>
       <c r="L3">
-        <v>1.000726488455172</v>
+        <v>1.007747337961099</v>
       </c>
       <c r="M3">
-        <v>0.9997206721860171</v>
+        <v>0.9970211995461081</v>
       </c>
       <c r="N3">
-        <v>0.999255117075777</v>
+        <v>0.9920565257348735</v>
       </c>
       <c r="O3">
-        <v>0.9997206721860171</v>
+        <v>0.9970211995461081</v>
       </c>
       <c r="P3">
-        <v>1.000418996952012</v>
+        <v>1.004468205727664</v>
       </c>
       <c r="Q3">
-        <v>0.9999803780390846</v>
+        <v>0.9997907448234873</v>
       </c>
       <c r="R3">
-        <v>1.000031036993267</v>
+        <v>1.000330979063401</v>
       </c>
       <c r="S3">
-        <v>1.000359359265392</v>
+        <v>1.003832233852065</v>
       </c>
       <c r="T3">
-        <v>1.000031036993267</v>
+        <v>1.000330979063401</v>
       </c>
       <c r="U3">
-        <v>1.000083298717988</v>
+        <v>1.000888306822767</v>
       </c>
       <c r="V3">
-        <v>0.999917662389546</v>
+        <v>0.9991219506051884</v>
       </c>
       <c r="W3">
-        <v>1.000073635063091</v>
+        <v>1.000785248665347</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.002156976731692</v>
+        <v>1.010809623328364</v>
       </c>
       <c r="D4">
-        <v>1.000431392782545</v>
+        <v>1.002161924897506</v>
       </c>
       <c r="E4">
-        <v>0.9985620138899624</v>
+        <v>0.9927935843160606</v>
       </c>
       <c r="F4">
-        <v>0.99946075864978</v>
+        <v>0.9972975966082797</v>
       </c>
       <c r="G4">
-        <v>1.002156976731692</v>
+        <v>1.010809623328364</v>
       </c>
       <c r="H4">
-        <v>1.000463479947358</v>
+        <v>1.002322726298919</v>
       </c>
       <c r="I4">
-        <v>0.999199352759446</v>
+        <v>0.9959875659709274</v>
       </c>
       <c r="J4">
-        <v>0.9985620138899624</v>
+        <v>0.9927935843160606</v>
       </c>
       <c r="K4">
-        <v>0.9985620138899624</v>
+        <v>0.9927935843160606</v>
       </c>
       <c r="L4">
-        <v>1.001402478836755</v>
+        <v>1.007028477991059</v>
       </c>
       <c r="M4">
-        <v>0.99946075864978</v>
+        <v>0.9972975966082797</v>
       </c>
       <c r="N4">
-        <v>0.9985620138899624</v>
+        <v>0.9927935843160606</v>
       </c>
       <c r="O4">
-        <v>0.99946075864978</v>
+        <v>0.9972975966082797</v>
       </c>
       <c r="P4">
-        <v>1.000808867690736</v>
+        <v>1.004053609968322</v>
       </c>
       <c r="Q4">
-        <v>0.9999621192985688</v>
+        <v>0.9998101614535995</v>
       </c>
       <c r="R4">
-        <v>1.000059916423812</v>
+        <v>1.000300268084235</v>
       </c>
       <c r="S4">
-        <v>1.000693738442943</v>
+        <v>1.003476648745188</v>
       </c>
       <c r="T4">
-        <v>1.000059916423812</v>
+        <v>1.000300268084235</v>
       </c>
       <c r="U4">
-        <v>1.000160807304698</v>
+        <v>1.000805882637906</v>
       </c>
       <c r="V4">
-        <v>0.999841048621751</v>
+        <v>0.9992034229735367</v>
       </c>
       <c r="W4">
-        <v>1.000142151530915</v>
+        <v>1.000712387002424</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.004133580638831</v>
+        <v>1.01402899051213</v>
       </c>
       <c r="D5">
-        <v>1.000826711880725</v>
+        <v>1.002805800107817</v>
       </c>
       <c r="E5">
-        <v>0.9972442792868245</v>
+        <v>0.9906473375741259</v>
       </c>
       <c r="F5">
-        <v>0.9989666033177789</v>
+        <v>0.9964927551212942</v>
       </c>
       <c r="G5">
-        <v>1.004133580638831</v>
+        <v>1.01402899051213</v>
       </c>
       <c r="H5">
-        <v>1.000888203998017</v>
+        <v>1.003014485013476</v>
       </c>
       <c r="I5">
-        <v>0.9984656575024055</v>
+        <v>0.9947925695417795</v>
       </c>
       <c r="J5">
-        <v>0.9972442792868245</v>
+        <v>0.9906473375741259</v>
       </c>
       <c r="K5">
-        <v>0.9972442792868245</v>
+        <v>0.9906473375741259</v>
       </c>
       <c r="L5">
-        <v>1.002687676676538</v>
+        <v>1.009121728948787</v>
       </c>
       <c r="M5">
-        <v>0.9989666033177789</v>
+        <v>0.9964927551212942</v>
       </c>
       <c r="N5">
-        <v>0.9972442792868245</v>
+        <v>0.9906473375741259</v>
       </c>
       <c r="O5">
-        <v>0.9989666033177789</v>
+        <v>0.9964927551212942</v>
       </c>
       <c r="P5">
-        <v>1.001550091978305</v>
+        <v>1.005260872816712</v>
       </c>
       <c r="Q5">
-        <v>0.9999274036578979</v>
+        <v>0.9997536200673851</v>
       </c>
       <c r="R5">
-        <v>1.000114821081145</v>
+        <v>1.000389694402517</v>
       </c>
       <c r="S5">
-        <v>1.001329462651542</v>
+        <v>1.0045120768823</v>
       </c>
       <c r="T5">
-        <v>1.000114821081145</v>
+        <v>1.000389694402517</v>
       </c>
       <c r="U5">
-        <v>1.000308166810363</v>
+        <v>1.001045892055257</v>
       </c>
       <c r="V5">
-        <v>0.999695389305655</v>
+        <v>0.9989661811590305</v>
       </c>
       <c r="W5">
-        <v>1.000272414577362</v>
+        <v>1.000924552742588</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.006062649648248</v>
+        <v>1.016019445056817</v>
       </c>
       <c r="D6">
-        <v>1.001212534769567</v>
+        <v>1.003203896704547</v>
       </c>
       <c r="E6">
-        <v>0.9959582374119113</v>
+        <v>0.9893203743181803</v>
       </c>
       <c r="F6">
-        <v>0.9984843412647687</v>
+        <v>0.9959951440340896</v>
       </c>
       <c r="G6">
-        <v>1.006062649648248</v>
+        <v>1.016019445056817</v>
       </c>
       <c r="H6">
-        <v>1.001302716923629</v>
+        <v>1.003442183522728</v>
       </c>
       <c r="I6">
-        <v>0.9977496102961667</v>
+        <v>0.9940537305681817</v>
       </c>
       <c r="J6">
-        <v>0.9959582374119113</v>
+        <v>0.9893203743181803</v>
       </c>
       <c r="K6">
-        <v>0.9959582374119113</v>
+        <v>0.9893203743181803</v>
       </c>
       <c r="L6">
-        <v>1.00394196094719</v>
+        <v>1.010415933124999</v>
       </c>
       <c r="M6">
-        <v>0.9984843412647687</v>
+        <v>0.9959951440340896</v>
       </c>
       <c r="N6">
-        <v>0.9959582374119113</v>
+        <v>0.9893203743181803</v>
       </c>
       <c r="O6">
-        <v>0.9984843412647687</v>
+        <v>0.9959951440340896</v>
       </c>
       <c r="P6">
-        <v>1.002273495456508</v>
+        <v>1.006007294545453</v>
       </c>
       <c r="Q6">
-        <v>0.999893529094199</v>
+        <v>0.9997186637784088</v>
       </c>
       <c r="R6">
-        <v>1.000168409441643</v>
+        <v>1.000444987803029</v>
       </c>
       <c r="S6">
-        <v>1.001949902612215</v>
+        <v>1.005152257537878</v>
       </c>
       <c r="T6">
-        <v>1.000168409441643</v>
+        <v>1.000444987803029</v>
       </c>
       <c r="U6">
-        <v>1.000451986312139</v>
+        <v>1.001194286732954</v>
       </c>
       <c r="V6">
-        <v>0.9995532365320937</v>
+        <v>0.998819504249999</v>
       </c>
       <c r="W6">
-        <v>1.000399549065781</v>
+        <v>1.001055731420454</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000086087980513</v>
+        <v>1.023589959437277</v>
       </c>
       <c r="D7">
-        <v>1.000017215973837</v>
+        <v>1.004717987458268</v>
       </c>
       <c r="E7">
-        <v>0.9999426059878632</v>
+        <v>0.9842733651448174</v>
       </c>
       <c r="F7">
-        <v>0.9999784808365894</v>
+        <v>0.9941025112063039</v>
       </c>
       <c r="G7">
-        <v>1.000086087980513</v>
+        <v>1.023589959437277</v>
       </c>
       <c r="H7">
-        <v>1.000018497015002</v>
+        <v>1.005068914924957</v>
       </c>
       <c r="I7">
-        <v>0.9999680472671939</v>
+        <v>0.9912436286290349</v>
       </c>
       <c r="J7">
-        <v>0.9999426059878632</v>
+        <v>0.9842733651448174</v>
       </c>
       <c r="K7">
-        <v>0.9999426059878632</v>
+        <v>0.9842733651448174</v>
       </c>
       <c r="L7">
-        <v>1.000055973997928</v>
+        <v>1.015338326675754</v>
       </c>
       <c r="M7">
-        <v>0.9999784808365894</v>
+        <v>0.9941025112063039</v>
       </c>
       <c r="N7">
-        <v>0.9999426059878632</v>
+        <v>0.9842733651448174</v>
       </c>
       <c r="O7">
-        <v>0.9999784808365894</v>
+        <v>0.9941025112063039</v>
       </c>
       <c r="P7">
-        <v>1.000032284408551</v>
+        <v>1.008846235321791</v>
       </c>
       <c r="Q7">
-        <v>0.9999984889257958</v>
+        <v>0.9995857130656303</v>
       </c>
       <c r="R7">
-        <v>1.000002391601655</v>
+        <v>1.000655278596133</v>
       </c>
       <c r="S7">
-        <v>1.000027688610701</v>
+        <v>1.007587128522846</v>
       </c>
       <c r="T7">
-        <v>1.000002391601655</v>
+        <v>1.000655278596133</v>
       </c>
       <c r="U7">
-        <v>1.000006417954992</v>
+        <v>1.001758687678339</v>
       </c>
       <c r="V7">
-        <v>0.9999936555615662</v>
+        <v>0.9982616231716346</v>
       </c>
       <c r="W7">
-        <v>1.00000567373694</v>
+        <v>1.001554650585339</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000235593567386</v>
+        <v>1.023842959247761</v>
       </c>
       <c r="D8">
-        <v>1.000047117093066</v>
+        <v>1.004768587579409</v>
       </c>
       <c r="E8">
-        <v>0.9998429356855685</v>
+        <v>0.9841046986416804</v>
       </c>
       <c r="F8">
-        <v>0.9999411043453706</v>
+        <v>0.9940392612833668</v>
       </c>
       <c r="G8">
-        <v>1.000235593567386</v>
+        <v>1.023842959247761</v>
       </c>
       <c r="H8">
-        <v>1.0000506222586</v>
+        <v>1.005123278364535</v>
       </c>
       <c r="I8">
-        <v>0.9999125520926494</v>
+        <v>0.9911497173144447</v>
       </c>
       <c r="J8">
-        <v>0.9998429356855685</v>
+        <v>0.9841046986416804</v>
       </c>
       <c r="K8">
-        <v>0.9998429356855685</v>
+        <v>0.9841046986416804</v>
       </c>
       <c r="L8">
-        <v>1.000153183675628</v>
+        <v>1.015502828629463</v>
       </c>
       <c r="M8">
-        <v>0.9999411043453706</v>
+        <v>0.9940392612833668</v>
       </c>
       <c r="N8">
-        <v>0.9998429356855685</v>
+        <v>0.9841046986416804</v>
       </c>
       <c r="O8">
-        <v>0.9999411043453706</v>
+        <v>0.9940392612833668</v>
       </c>
       <c r="P8">
-        <v>1.000088348956379</v>
+        <v>1.008941110265564</v>
       </c>
       <c r="Q8">
-        <v>0.9999958633019854</v>
+        <v>0.9995812698239511</v>
       </c>
       <c r="R8">
-        <v>1.000006544532775</v>
+        <v>1.000662306390936</v>
       </c>
       <c r="S8">
-        <v>1.000075773390453</v>
+        <v>1.007668499631888</v>
       </c>
       <c r="T8">
-        <v>1.000006544532775</v>
+        <v>1.000662306390936</v>
       </c>
       <c r="U8">
-        <v>1.000017563964231</v>
+        <v>1.001777549384336</v>
       </c>
       <c r="V8">
-        <v>0.9999826383084989</v>
+        <v>0.9982429792358047</v>
       </c>
       <c r="W8">
-        <v>1.000015526632955</v>
+        <v>1.001571324043003</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000341481559302</v>
+        <v>1.024031255753298</v>
       </c>
       <c r="D9">
-        <v>1.000068295223176</v>
+        <v>1.004806247012189</v>
       </c>
       <c r="E9">
-        <v>0.9997723436489776</v>
+        <v>0.9839791677069372</v>
       </c>
       <c r="F9">
-        <v>0.9999146325184409</v>
+        <v>0.9939921871890949</v>
       </c>
       <c r="G9">
-        <v>1.000341481559302</v>
+        <v>1.024031255753298</v>
       </c>
       <c r="H9">
-        <v>1.000073374901485</v>
+        <v>1.005163738584709</v>
       </c>
       <c r="I9">
-        <v>0.9998732473554761</v>
+        <v>0.9910798233319769</v>
       </c>
       <c r="J9">
-        <v>0.9997723436489776</v>
+        <v>0.9839791677069372</v>
       </c>
       <c r="K9">
-        <v>0.9997723436489776</v>
+        <v>0.9839791677069372</v>
       </c>
       <c r="L9">
-        <v>1.000222032422982</v>
+        <v>1.015625260081536</v>
       </c>
       <c r="M9">
-        <v>0.9999146325184409</v>
+        <v>0.9939921871890949</v>
       </c>
       <c r="N9">
-        <v>0.9997723436489776</v>
+        <v>0.9839791677069372</v>
       </c>
       <c r="O9">
-        <v>0.9999146325184409</v>
+        <v>0.9939921871890949</v>
       </c>
       <c r="P9">
-        <v>1.000128057038871</v>
+        <v>1.009011721471197</v>
       </c>
       <c r="Q9">
-        <v>0.9999940037099628</v>
+        <v>0.9995779628869021</v>
       </c>
       <c r="R9">
-        <v>1.000009485908907</v>
+        <v>1.00066753688311</v>
       </c>
       <c r="S9">
-        <v>1.000109829659743</v>
+        <v>1.007729060509034</v>
       </c>
       <c r="T9">
-        <v>1.000009485908907</v>
+        <v>1.00066753688311</v>
       </c>
       <c r="U9">
-        <v>1.000025458157051</v>
+        <v>1.00179158730851</v>
       </c>
       <c r="V9">
-        <v>0.9999748352554365</v>
+        <v>0.9982291033881954</v>
       </c>
       <c r="W9">
-        <v>1.000022505018535</v>
+        <v>1.001583733356104</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000724947124803</v>
+        <v>1.024729203032394</v>
       </c>
       <c r="D10">
-        <v>1.000144988460501</v>
+        <v>1.004945836955827</v>
       </c>
       <c r="E10">
-        <v>0.9995166996116465</v>
+        <v>0.9835138698566077</v>
       </c>
       <c r="F10">
-        <v>0.9998187662600204</v>
+        <v>0.9938177005087416</v>
       </c>
       <c r="G10">
-        <v>1.000724947124803</v>
+        <v>1.024729203032394</v>
       </c>
       <c r="H10">
-        <v>1.000155771425269</v>
+        <v>1.005313709955324</v>
       </c>
       <c r="I10">
-        <v>0.9997309074414664</v>
+        <v>0.990820751580586</v>
       </c>
       <c r="J10">
-        <v>0.9995166996116465</v>
+        <v>0.9835138698566077</v>
       </c>
       <c r="K10">
-        <v>0.9995166996116465</v>
+        <v>0.9835138698566077</v>
       </c>
       <c r="L10">
-        <v>1.000471362883419</v>
+        <v>1.01607906926323</v>
       </c>
       <c r="M10">
-        <v>0.9998187662600204</v>
+        <v>0.9938177005087416</v>
       </c>
       <c r="N10">
-        <v>0.9995166996116465</v>
+        <v>0.9835138698566077</v>
       </c>
       <c r="O10">
-        <v>0.9998187662600204</v>
+        <v>0.9938177005087416</v>
       </c>
       <c r="P10">
-        <v>1.000271856692412</v>
+        <v>1.009273451770568</v>
       </c>
       <c r="Q10">
-        <v>0.9999872688426445</v>
+        <v>0.9995657052320327</v>
       </c>
       <c r="R10">
-        <v>1.00002013766549</v>
+        <v>1.000686924465914</v>
       </c>
       <c r="S10">
-        <v>1.000233161603364</v>
+        <v>1.007953537832153</v>
       </c>
       <c r="T10">
-        <v>1.00002013766549</v>
+        <v>1.000686924465914</v>
       </c>
       <c r="U10">
-        <v>1.000054046105435</v>
+        <v>1.001843620838267</v>
       </c>
       <c r="V10">
-        <v>0.9999465768066772</v>
+        <v>0.998177670641935</v>
       </c>
       <c r="W10">
-        <v>1.000047776183393</v>
+        <v>1.001629730207682</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.001235954736644</v>
+        <v>1.001285646909956</v>
       </c>
       <c r="D11">
-        <v>1.00024718993476</v>
+        <v>1.000257126618411</v>
       </c>
       <c r="E11">
-        <v>0.9991760273710237</v>
+        <v>0.9991428999464292</v>
       </c>
       <c r="F11">
-        <v>0.9996910144593807</v>
+        <v>0.9996785910858943</v>
       </c>
       <c r="G11">
-        <v>1.001235954736644</v>
+        <v>1.001285646909956</v>
       </c>
       <c r="H11">
-        <v>1.000265574663741</v>
+        <v>1.000276252940215</v>
       </c>
       <c r="I11">
-        <v>0.9995412273058324</v>
+        <v>0.9995227818760649</v>
       </c>
       <c r="J11">
-        <v>0.9991760273710237</v>
+        <v>0.9991428999464292</v>
       </c>
       <c r="K11">
-        <v>0.9991760273710237</v>
+        <v>0.9991428999464292</v>
       </c>
       <c r="L11">
-        <v>1.000803623153731</v>
+        <v>1.000835934056134</v>
       </c>
       <c r="M11">
-        <v>0.9996910144593807</v>
+        <v>0.9996785910858943</v>
       </c>
       <c r="N11">
-        <v>0.9991760273710237</v>
+        <v>0.9991428999464292</v>
       </c>
       <c r="O11">
-        <v>0.9996910144593807</v>
+        <v>0.9996785910858943</v>
       </c>
       <c r="P11">
-        <v>1.000463484598012</v>
+        <v>1.000482118997925</v>
       </c>
       <c r="Q11">
-        <v>0.9999782945615606</v>
+        <v>0.9999774220130548</v>
       </c>
       <c r="R11">
-        <v>1.000034332189016</v>
+        <v>1.000035712647427</v>
       </c>
       <c r="S11">
-        <v>1.000397514619922</v>
+        <v>1.000413496978689</v>
       </c>
       <c r="T11">
-        <v>1.000034332189016</v>
+        <v>1.000035712647427</v>
       </c>
       <c r="U11">
-        <v>1.000092142807697</v>
+        <v>1.000095847720624</v>
       </c>
       <c r="V11">
-        <v>0.9999089197203626</v>
+        <v>0.999905258165785</v>
       </c>
       <c r="W11">
-        <v>1.000081453260562</v>
+        <v>1.000084728064875</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9873439627911561</v>
+        <v>1.000680111316053</v>
       </c>
       <c r="D12">
-        <v>0.9974687961789362</v>
+        <v>1.000136020565478</v>
       </c>
       <c r="E12">
-        <v>1.00843735622691</v>
+        <v>0.9995465906139605</v>
       </c>
       <c r="F12">
-        <v>1.003164008499625</v>
+        <v>0.9998299749876419</v>
       </c>
       <c r="G12">
-        <v>0.9873439627911561</v>
+        <v>1.000680111316053</v>
       </c>
       <c r="H12">
-        <v>0.9972805176581907</v>
+        <v>1.000146138348933</v>
       </c>
       <c r="I12">
-        <v>1.004697815197374</v>
+        <v>0.9997475513545796</v>
       </c>
       <c r="J12">
-        <v>1.00843735622691</v>
+        <v>0.9995465906139605</v>
       </c>
       <c r="K12">
-        <v>1.00843735622691</v>
+        <v>0.9995465906139605</v>
       </c>
       <c r="L12">
-        <v>0.9917709682328282</v>
+        <v>1.000442211526171</v>
       </c>
       <c r="M12">
-        <v>1.003164008499625</v>
+        <v>0.9998299749876419</v>
       </c>
       <c r="N12">
-        <v>1.00843735622691</v>
+        <v>0.9995465906139605</v>
       </c>
       <c r="O12">
-        <v>1.003164008499625</v>
+        <v>0.9998299749876419</v>
       </c>
       <c r="P12">
-        <v>0.9952539856453908</v>
+        <v>1.000255043151848</v>
       </c>
       <c r="Q12">
-        <v>1.000222263078908</v>
+        <v>0.9999880566682877</v>
       </c>
       <c r="R12">
-        <v>0.9996484425058972</v>
+        <v>1.000018892305885</v>
       </c>
       <c r="S12">
-        <v>0.995929496316324</v>
+        <v>1.000218741550876</v>
       </c>
       <c r="T12">
-        <v>0.9996484425058972</v>
+        <v>1.000018892305885</v>
       </c>
       <c r="U12">
-        <v>0.9990564612939705</v>
+        <v>1.000050703816647</v>
       </c>
       <c r="V12">
-        <v>1.000932640280559</v>
+        <v>0.9999498811761101</v>
       </c>
       <c r="W12">
-        <v>0.9991659291605808</v>
+        <v>1.000044821712557</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9967239804633086</v>
+        <v>1.002379621527178</v>
       </c>
       <c r="D13">
-        <v>0.9993447955034405</v>
+        <v>1.00047592110843</v>
       </c>
       <c r="E13">
-        <v>1.002184013118497</v>
+        <v>0.9984135834581539</v>
       </c>
       <c r="F13">
-        <v>1.000819011752151</v>
+        <v>0.9994050961552076</v>
       </c>
       <c r="G13">
-        <v>0.9967239804633086</v>
+        <v>1.002379621527178</v>
       </c>
       <c r="H13">
-        <v>0.9992960646984418</v>
+        <v>1.000511321313724</v>
       </c>
       <c r="I13">
-        <v>1.00121603445019</v>
+        <v>0.9991167126277298</v>
       </c>
       <c r="J13">
-        <v>1.002184013118497</v>
+        <v>0.9984135834581539</v>
       </c>
       <c r="K13">
-        <v>1.002184013118497</v>
+        <v>0.9984135834581539</v>
       </c>
       <c r="L13">
-        <v>0.9978699118088455</v>
+        <v>1.001547242985555</v>
       </c>
       <c r="M13">
-        <v>1.000819011752151</v>
+        <v>0.9994050961552076</v>
       </c>
       <c r="N13">
-        <v>1.002184013118497</v>
+        <v>0.9984135834581539</v>
       </c>
       <c r="O13">
-        <v>1.000819011752151</v>
+        <v>0.9994050961552076</v>
       </c>
       <c r="P13">
-        <v>0.9987714961077296</v>
+        <v>1.000892358841193</v>
       </c>
       <c r="Q13">
-        <v>1.000057538225296</v>
+        <v>0.9999582087344658</v>
       </c>
       <c r="R13">
-        <v>0.9999090017779855</v>
+        <v>1.00006610038018</v>
       </c>
       <c r="S13">
-        <v>0.9989463523046337</v>
+        <v>1.000765346332037</v>
       </c>
       <c r="T13">
-        <v>0.9999090017779855</v>
+        <v>1.00006610038018</v>
       </c>
       <c r="U13">
-        <v>0.9997557675080996</v>
+        <v>1.000177405613566</v>
       </c>
       <c r="V13">
-        <v>1.000241416630179</v>
+        <v>0.9998246411824834</v>
       </c>
       <c r="W13">
-        <v>0.9997841029433781</v>
+        <v>1.000156824416398</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9946327119583072</v>
+        <v>1.003122087560952</v>
       </c>
       <c r="D14">
-        <v>0.9989265358908339</v>
+        <v>1.000624420984304</v>
       </c>
       <c r="E14">
-        <v>1.0035781878889</v>
+        <v>0.9979186112102308</v>
       </c>
       <c r="F14">
-        <v>1.00134182536628</v>
+        <v>0.9992194815572213</v>
       </c>
       <c r="G14">
-        <v>0.9946327119583072</v>
+        <v>1.003122087560952</v>
       </c>
       <c r="H14">
-        <v>0.9988466944165735</v>
+        <v>1.000670857270102</v>
       </c>
       <c r="I14">
-        <v>1.001992287703666</v>
+        <v>0.9988411134061006</v>
       </c>
       <c r="J14">
-        <v>1.0035781878889</v>
+        <v>0.9979186112102308</v>
       </c>
       <c r="K14">
-        <v>1.0035781878889</v>
+        <v>0.9979186112102308</v>
       </c>
       <c r="L14">
-        <v>0.9965101501423791</v>
+        <v>1.002029997137341</v>
       </c>
       <c r="M14">
-        <v>1.00134182536628</v>
+        <v>0.9992194815572213</v>
       </c>
       <c r="N14">
-        <v>1.0035781878889</v>
+        <v>0.9979186112102308</v>
       </c>
       <c r="O14">
-        <v>1.00134182536628</v>
+        <v>0.9992194815572213</v>
       </c>
       <c r="P14">
-        <v>0.9979872686622936</v>
+        <v>1.001170784559087</v>
       </c>
       <c r="Q14">
-        <v>1.000094259891427</v>
+        <v>0.9999451694136616</v>
       </c>
       <c r="R14">
-        <v>0.9998509084044956</v>
+        <v>1.000086726776135</v>
       </c>
       <c r="S14">
-        <v>0.9982737439137201</v>
+        <v>1.001004142129425</v>
       </c>
       <c r="T14">
-        <v>0.9998509084044956</v>
+        <v>1.000086726776135</v>
       </c>
       <c r="U14">
-        <v>0.9995998549075151</v>
+        <v>1.000232759399627</v>
       </c>
       <c r="V14">
-        <v>1.000395521503792</v>
+        <v>0.9997699297617475</v>
       </c>
       <c r="W14">
-        <v>0.9996462773416525</v>
+        <v>1.000205756335434</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9986226192190829</v>
+        <v>1.001117321718006</v>
       </c>
       <c r="D15">
-        <v>0.9997245284344218</v>
+        <v>1.000223462215686</v>
       </c>
       <c r="E15">
-        <v>1.000918247480899</v>
+        <v>0.999255117075777</v>
       </c>
       <c r="F15">
-        <v>1.000344344972705</v>
+        <v>0.9997206721860171</v>
       </c>
       <c r="G15">
-        <v>0.9986226192190829</v>
+        <v>1.001117321718006</v>
       </c>
       <c r="H15">
-        <v>0.9997040311847858</v>
+        <v>1.000240083892152</v>
       </c>
       <c r="I15">
-        <v>1.000511271096169</v>
+        <v>0.9995852627758958</v>
       </c>
       <c r="J15">
-        <v>1.000918247480899</v>
+        <v>0.999255117075777</v>
       </c>
       <c r="K15">
-        <v>1.000918247480899</v>
+        <v>0.999255117075777</v>
       </c>
       <c r="L15">
-        <v>0.9991044140848516</v>
+        <v>1.000726488455172</v>
       </c>
       <c r="M15">
-        <v>1.000344344972705</v>
+        <v>0.9997206721860171</v>
       </c>
       <c r="N15">
-        <v>1.000918247480899</v>
+        <v>0.999255117075777</v>
       </c>
       <c r="O15">
-        <v>1.000344344972705</v>
+        <v>0.9997206721860171</v>
       </c>
       <c r="P15">
-        <v>0.9994834820958938</v>
+        <v>1.000418996952012</v>
       </c>
       <c r="Q15">
-        <v>1.000024188078745</v>
+        <v>0.9999803780390846</v>
       </c>
       <c r="R15">
-        <v>0.9999617372242288</v>
+        <v>1.000031036993267</v>
       </c>
       <c r="S15">
-        <v>0.9995569984588578</v>
+        <v>1.000359359265392</v>
       </c>
       <c r="T15">
-        <v>0.999961737224229</v>
+        <v>1.000031036993267</v>
       </c>
       <c r="U15">
-        <v>0.9998973107143682</v>
+        <v>1.000083298717988</v>
       </c>
       <c r="V15">
-        <v>1.000101498067674</v>
+        <v>0.999917662389546</v>
       </c>
       <c r="W15">
-        <v>0.9999092251807025</v>
+        <v>1.000073635063091</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.021797348903969</v>
+        <v>1.002156976731692</v>
       </c>
       <c r="D16">
-        <v>1.004359467373855</v>
+        <v>1.000431392782545</v>
       </c>
       <c r="E16">
-        <v>0.9854684375369823</v>
+        <v>0.9985620138899624</v>
       </c>
       <c r="F16">
-        <v>0.9945506643026586</v>
+        <v>0.99946075864978</v>
       </c>
       <c r="G16">
-        <v>1.021797348903969</v>
+        <v>1.002156976731692</v>
       </c>
       <c r="H16">
-        <v>1.00468372517172</v>
+        <v>1.000463479947358</v>
       </c>
       <c r="I16">
-        <v>0.9919090268159468</v>
+        <v>0.999199352759446</v>
       </c>
       <c r="J16">
-        <v>0.9854684375369823</v>
+        <v>0.9985620138899624</v>
       </c>
       <c r="K16">
-        <v>0.9854684375369823</v>
+        <v>0.9985620138899624</v>
       </c>
       <c r="L16">
-        <v>1.014172761209618</v>
+        <v>1.001402478836755</v>
       </c>
       <c r="M16">
-        <v>0.9945506643026586</v>
+        <v>0.99946075864978</v>
       </c>
       <c r="N16">
-        <v>0.9854684375369823</v>
+        <v>0.9985620138899624</v>
       </c>
       <c r="O16">
-        <v>0.9945506643026586</v>
+        <v>0.99946075864978</v>
       </c>
       <c r="P16">
-        <v>1.008174006603314</v>
+        <v>1.000808867690736</v>
       </c>
       <c r="Q16">
-        <v>0.9996171947371895</v>
+        <v>0.9999621192985688</v>
       </c>
       <c r="R16">
-        <v>1.000605483581203</v>
+        <v>1.000059916423812</v>
       </c>
       <c r="S16">
-        <v>1.007010579459449</v>
+        <v>1.000693738442943</v>
       </c>
       <c r="T16">
-        <v>1.000605483581203</v>
+        <v>1.000059916423812</v>
       </c>
       <c r="U16">
-        <v>1.001625043978832</v>
+        <v>1.000160807304698</v>
       </c>
       <c r="V16">
-        <v>0.9983937226904624</v>
+        <v>0.999841048621751</v>
       </c>
       <c r="W16">
-        <v>1.001436511952176</v>
+        <v>1.000142151530915</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.017849638696293</v>
+        <v>1.004133580638831</v>
       </c>
       <c r="D17">
-        <v>1.003569926163604</v>
+        <v>1.000826711880725</v>
       </c>
       <c r="E17">
-        <v>0.9881002430201163</v>
+        <v>0.9972442792868245</v>
       </c>
       <c r="F17">
-        <v>0.9955375921393864</v>
+        <v>0.9989666033177789</v>
       </c>
       <c r="G17">
-        <v>1.017849638696293</v>
+        <v>1.004133580638831</v>
       </c>
       <c r="H17">
-        <v>1.003835457034628</v>
+        <v>1.000888203998017</v>
       </c>
       <c r="I17">
-        <v>0.9933743793484079</v>
+        <v>0.9984656575024055</v>
       </c>
       <c r="J17">
-        <v>0.9881002430201163</v>
+        <v>0.9972442792868245</v>
       </c>
       <c r="K17">
-        <v>0.9881002430201163</v>
+        <v>0.9972442792868245</v>
       </c>
       <c r="L17">
-        <v>1.011605937062292</v>
+        <v>1.002687676676538</v>
       </c>
       <c r="M17">
-        <v>0.9955375921393864</v>
+        <v>0.9989666033177789</v>
       </c>
       <c r="N17">
-        <v>0.9881002430201163</v>
+        <v>0.9972442792868245</v>
       </c>
       <c r="O17">
-        <v>0.9955375921393864</v>
+        <v>0.9989666033177789</v>
       </c>
       <c r="P17">
-        <v>1.006693615417839</v>
+        <v>1.001550091978305</v>
       </c>
       <c r="Q17">
-        <v>0.9996865245870072</v>
+        <v>0.9999274036578979</v>
       </c>
       <c r="R17">
-        <v>1.000495824618598</v>
+        <v>1.000114821081145</v>
       </c>
       <c r="S17">
-        <v>1.005740895956769</v>
+        <v>1.001329462651542</v>
       </c>
       <c r="T17">
-        <v>1.000495824618598</v>
+        <v>1.000114821081145</v>
       </c>
       <c r="U17">
-        <v>1.001330732722606</v>
+        <v>1.000308166810363</v>
       </c>
       <c r="V17">
-        <v>0.998684634782108</v>
+        <v>0.999695389305655</v>
       </c>
       <c r="W17">
-        <v>1.001176345700514</v>
+        <v>1.000272414577362</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.009936219400748</v>
+        <v>1.006062649648248</v>
       </c>
       <c r="D18">
-        <v>1.001987244076141</v>
+        <v>1.001212534769567</v>
       </c>
       <c r="E18">
-        <v>0.9933758546060397</v>
+        <v>0.9959582374119113</v>
       </c>
       <c r="F18">
-        <v>0.9975159485937937</v>
+        <v>0.9984843412647687</v>
       </c>
       <c r="G18">
-        <v>1.009936219400748</v>
+        <v>1.006062649648248</v>
       </c>
       <c r="H18">
-        <v>1.002135053697203</v>
+        <v>1.001302716923629</v>
       </c>
       <c r="I18">
-        <v>0.9963117643880964</v>
+        <v>0.9977496102961667</v>
       </c>
       <c r="J18">
-        <v>0.9933758546060397</v>
+        <v>0.9959582374119113</v>
       </c>
       <c r="K18">
-        <v>0.9933758546060397</v>
+        <v>0.9959582374119113</v>
       </c>
       <c r="L18">
-        <v>1.006460586354045</v>
+        <v>1.00394196094719</v>
       </c>
       <c r="M18">
-        <v>0.9975159485937937</v>
+        <v>0.9984843412647687</v>
       </c>
       <c r="N18">
-        <v>0.9933758546060397</v>
+        <v>0.9959582374119113</v>
       </c>
       <c r="O18">
-        <v>0.9975159485937937</v>
+        <v>0.9984843412647687</v>
       </c>
       <c r="P18">
-        <v>1.003726083997271</v>
+        <v>1.002273495456508</v>
       </c>
       <c r="Q18">
-        <v>0.9998255011454985</v>
+        <v>0.999893529094199</v>
       </c>
       <c r="R18">
-        <v>1.000276007533527</v>
+        <v>1.000168409441643</v>
       </c>
       <c r="S18">
-        <v>1.003195740563915</v>
+        <v>1.001949902612215</v>
       </c>
       <c r="T18">
-        <v>1.000276007533527</v>
+        <v>1.000168409441643</v>
       </c>
       <c r="U18">
-        <v>1.000740769074446</v>
+        <v>1.000451986312139</v>
       </c>
       <c r="V18">
-        <v>0.9992677861807649</v>
+        <v>0.9995532365320937</v>
       </c>
       <c r="W18">
-        <v>1.000654827463733</v>
+        <v>1.000399549065781</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.010860125534002</v>
+        <v>1.000086087980513</v>
       </c>
       <c r="D19">
-        <v>1.002172021586459</v>
+        <v>1.000017215973837</v>
       </c>
       <c r="E19">
-        <v>0.9927599115134711</v>
+        <v>0.9999426059878632</v>
       </c>
       <c r="F19">
-        <v>0.9972849695701758</v>
+        <v>0.9999784808365894</v>
       </c>
       <c r="G19">
-        <v>1.010860125534002</v>
+        <v>1.000086087980513</v>
       </c>
       <c r="H19">
-        <v>1.002333572385476</v>
+        <v>1.000018497015002</v>
       </c>
       <c r="I19">
-        <v>0.9959688186583521</v>
+        <v>0.9999680472671939</v>
       </c>
       <c r="J19">
-        <v>0.9927599115134711</v>
+        <v>0.9999426059878632</v>
       </c>
       <c r="K19">
-        <v>0.9927599115134711</v>
+        <v>0.9999426059878632</v>
       </c>
       <c r="L19">
-        <v>1.007061315124034</v>
+        <v>1.000055973997928</v>
       </c>
       <c r="M19">
-        <v>0.9972849695701758</v>
+        <v>0.9999784808365894</v>
       </c>
       <c r="N19">
-        <v>0.9927599115134711</v>
+        <v>0.9999426059878632</v>
       </c>
       <c r="O19">
-        <v>0.9972849695701758</v>
+        <v>0.9999784808365894</v>
       </c>
       <c r="P19">
-        <v>1.004072547552089</v>
+        <v>1.000032284408551</v>
       </c>
       <c r="Q19">
-        <v>0.9998092709778259</v>
+        <v>0.9999984889257958</v>
       </c>
       <c r="R19">
-        <v>1.00030166887255</v>
+        <v>1.000002391601655</v>
       </c>
       <c r="S19">
-        <v>1.003492889163218</v>
+        <v>1.000027688610701</v>
       </c>
       <c r="T19">
-        <v>1.00030166887255</v>
+        <v>1.000002391601655</v>
       </c>
       <c r="U19">
-        <v>1.000809644750781</v>
+        <v>1.000006417954992</v>
       </c>
       <c r="V19">
-        <v>0.9991996981033193</v>
+        <v>0.9999936555615662</v>
       </c>
       <c r="W19">
-        <v>1.000715712992768</v>
+        <v>1.00000567373694</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000004613886372</v>
+        <v>1.000235593567386</v>
       </c>
       <c r="D20">
-        <v>1.000000921008864</v>
+        <v>1.000047117093066</v>
       </c>
       <c r="E20">
-        <v>0.9999969220982911</v>
+        <v>0.9998429356855685</v>
       </c>
       <c r="F20">
-        <v>0.9999988494603973</v>
+        <v>0.9999411043453706</v>
       </c>
       <c r="G20">
-        <v>1.000004613886372</v>
+        <v>1.000235593567386</v>
       </c>
       <c r="H20">
-        <v>1.000000990030841</v>
+        <v>1.0000506222586</v>
       </c>
       <c r="I20">
-        <v>0.9999982897816313</v>
+        <v>0.9999125520926494</v>
       </c>
       <c r="J20">
-        <v>0.9999969220982911</v>
+        <v>0.9998429356855685</v>
       </c>
       <c r="K20">
-        <v>0.9999969220982911</v>
+        <v>0.9998429356855685</v>
       </c>
       <c r="L20">
-        <v>1.000002999217713</v>
+        <v>1.000153183675628</v>
       </c>
       <c r="M20">
-        <v>0.9999988494603973</v>
+        <v>0.9999411043453706</v>
       </c>
       <c r="N20">
-        <v>0.9999969220982911</v>
+        <v>0.9998429356855685</v>
       </c>
       <c r="O20">
-        <v>0.9999988494603973</v>
+        <v>0.9999411043453706</v>
       </c>
       <c r="P20">
-        <v>1.000001731673385</v>
+        <v>1.000088348956379</v>
       </c>
       <c r="Q20">
-        <v>0.9999999197456192</v>
+        <v>0.9999958633019854</v>
       </c>
       <c r="R20">
-        <v>1.000000128481687</v>
+        <v>1.000006544532775</v>
       </c>
       <c r="S20">
-        <v>1.000001484459204</v>
+        <v>1.000075773390453</v>
       </c>
       <c r="T20">
-        <v>1.000000128481687</v>
+        <v>1.000006544532775</v>
       </c>
       <c r="U20">
-        <v>1.000000343868975</v>
+        <v>1.000017563964231</v>
       </c>
       <c r="V20">
-        <v>0.9999996595148385</v>
+        <v>0.9999826383084989</v>
       </c>
       <c r="W20">
-        <v>1.000000304368063</v>
+        <v>1.000015526632955</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000097711816528</v>
+        <v>1.000341481559302</v>
       </c>
       <c r="D21">
-        <v>1.000019540491772</v>
+        <v>1.000068295223176</v>
       </c>
       <c r="E21">
-        <v>0.9999348569032939</v>
+        <v>0.9997723436489776</v>
       </c>
       <c r="F21">
-        <v>0.9999755749687521</v>
+        <v>0.9999146325184409</v>
       </c>
       <c r="G21">
-        <v>1.000097711816528</v>
+        <v>1.000341481559302</v>
       </c>
       <c r="H21">
-        <v>1.000020994524105</v>
+        <v>1.000073374901485</v>
       </c>
       <c r="I21">
-        <v>0.9999637325669929</v>
+        <v>0.9998732473554761</v>
       </c>
       <c r="J21">
-        <v>0.9999348569032939</v>
+        <v>0.9997723436489776</v>
       </c>
       <c r="K21">
-        <v>0.9999348569032939</v>
+        <v>0.9997723436489776</v>
       </c>
       <c r="L21">
-        <v>1.000063532211507</v>
+        <v>1.000222032422982</v>
       </c>
       <c r="M21">
-        <v>0.9999755749687521</v>
+        <v>0.9999146325184409</v>
       </c>
       <c r="N21">
-        <v>0.9999348569032939</v>
+        <v>0.9997723436489776</v>
       </c>
       <c r="O21">
-        <v>0.9999755749687521</v>
+        <v>0.9999146325184409</v>
       </c>
       <c r="P21">
-        <v>1.00003664339264</v>
+        <v>1.000128057038871</v>
       </c>
       <c r="Q21">
-        <v>0.9999982847464286</v>
+        <v>0.9999940037099628</v>
       </c>
       <c r="R21">
-        <v>1.000002714562858</v>
+        <v>1.000009485908907</v>
       </c>
       <c r="S21">
-        <v>1.000031427103129</v>
+        <v>1.000109829659743</v>
       </c>
       <c r="T21">
-        <v>1.000002714562858</v>
+        <v>1.000009485908907</v>
       </c>
       <c r="U21">
-        <v>1.00000728455317</v>
+        <v>1.000025458157051</v>
       </c>
       <c r="V21">
-        <v>0.9999927990231946</v>
+        <v>0.9999748352554365</v>
       </c>
       <c r="W21">
-        <v>1.000006439806463</v>
+        <v>1.000022505018535</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000344012999799</v>
+        <v>1.000724947124803</v>
       </c>
       <c r="D22">
-        <v>1.000068800474582</v>
+        <v>1.000144988460501</v>
       </c>
       <c r="E22">
-        <v>0.9997706555826523</v>
+        <v>0.9995166996116465</v>
       </c>
       <c r="F22">
-        <v>0.9999139965417267</v>
+        <v>0.9998187662600204</v>
       </c>
       <c r="G22">
-        <v>1.000344012999799</v>
+        <v>1.000724947124803</v>
       </c>
       <c r="H22">
-        <v>1.000073919242542</v>
+        <v>1.000155771425269</v>
       </c>
       <c r="I22">
-        <v>0.9998723063523839</v>
+        <v>0.9997309074414664</v>
       </c>
       <c r="J22">
-        <v>0.9997706555826523</v>
+        <v>0.9995166996116465</v>
       </c>
       <c r="K22">
-        <v>0.9997706555826523</v>
+        <v>0.9995166996116465</v>
       </c>
       <c r="L22">
-        <v>1.000223676240592</v>
+        <v>1.000471362883419</v>
       </c>
       <c r="M22">
-        <v>0.9999139965417267</v>
+        <v>0.9998187662600204</v>
       </c>
       <c r="N22">
-        <v>0.9997706555826523</v>
+        <v>0.9995166996116465</v>
       </c>
       <c r="O22">
-        <v>0.9999139965417267</v>
+        <v>0.9998187662600204</v>
       </c>
       <c r="P22">
-        <v>1.000129004770763</v>
+        <v>1.000271856692412</v>
       </c>
       <c r="Q22">
-        <v>0.9999939578921344</v>
+        <v>0.9999872688426445</v>
       </c>
       <c r="R22">
-        <v>1.000009555041393</v>
+        <v>1.00002013766549</v>
       </c>
       <c r="S22">
-        <v>1.000110642928023</v>
+        <v>1.000233161603364</v>
       </c>
       <c r="T22">
-        <v>1.000009555041393</v>
+        <v>1.00002013766549</v>
       </c>
       <c r="U22">
-        <v>1.00002564609168</v>
+        <v>1.000054046105435</v>
       </c>
       <c r="V22">
-        <v>0.9999746479898745</v>
+        <v>0.9999465768066772</v>
       </c>
       <c r="W22">
-        <v>1.000022670497001</v>
+        <v>1.000047776183393</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.001235954736644</v>
+      </c>
+      <c r="D23">
+        <v>1.00024718993476</v>
+      </c>
+      <c r="E23">
+        <v>0.9991760273710237</v>
+      </c>
+      <c r="F23">
+        <v>0.9996910144593807</v>
+      </c>
+      <c r="G23">
+        <v>1.001235954736644</v>
+      </c>
+      <c r="H23">
+        <v>1.000265574663741</v>
+      </c>
+      <c r="I23">
+        <v>0.9995412273058324</v>
+      </c>
+      <c r="J23">
+        <v>0.9991760273710237</v>
+      </c>
+      <c r="K23">
+        <v>0.9991760273710237</v>
+      </c>
+      <c r="L23">
+        <v>1.000803623153731</v>
+      </c>
+      <c r="M23">
+        <v>0.9996910144593807</v>
+      </c>
+      <c r="N23">
+        <v>0.9991760273710237</v>
+      </c>
+      <c r="O23">
+        <v>0.9996910144593807</v>
+      </c>
+      <c r="P23">
+        <v>1.000463484598012</v>
+      </c>
+      <c r="Q23">
+        <v>0.9999782945615606</v>
+      </c>
+      <c r="R23">
+        <v>1.000034332189016</v>
+      </c>
+      <c r="S23">
+        <v>1.000397514619922</v>
+      </c>
+      <c r="T23">
+        <v>1.000034332189016</v>
+      </c>
+      <c r="U23">
+        <v>1.000092142807697</v>
+      </c>
+      <c r="V23">
+        <v>0.9999089197203626</v>
+      </c>
+      <c r="W23">
+        <v>1.000081453260562</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9873439627911561</v>
+      </c>
+      <c r="D24">
+        <v>0.9974687961789362</v>
+      </c>
+      <c r="E24">
+        <v>1.00843735622691</v>
+      </c>
+      <c r="F24">
+        <v>1.003164008499625</v>
+      </c>
+      <c r="G24">
+        <v>0.9873439627911561</v>
+      </c>
+      <c r="H24">
+        <v>0.9972805176581907</v>
+      </c>
+      <c r="I24">
+        <v>1.004697815197374</v>
+      </c>
+      <c r="J24">
+        <v>1.00843735622691</v>
+      </c>
+      <c r="K24">
+        <v>1.00843735622691</v>
+      </c>
+      <c r="L24">
+        <v>0.9917709682328282</v>
+      </c>
+      <c r="M24">
+        <v>1.003164008499625</v>
+      </c>
+      <c r="N24">
+        <v>1.00843735622691</v>
+      </c>
+      <c r="O24">
+        <v>1.003164008499625</v>
+      </c>
+      <c r="P24">
+        <v>0.9952539856453908</v>
+      </c>
+      <c r="Q24">
+        <v>1.000222263078908</v>
+      </c>
+      <c r="R24">
+        <v>0.9996484425058972</v>
+      </c>
+      <c r="S24">
+        <v>0.995929496316324</v>
+      </c>
+      <c r="T24">
+        <v>0.9996484425058972</v>
+      </c>
+      <c r="U24">
+        <v>0.9990564612939705</v>
+      </c>
+      <c r="V24">
+        <v>1.000932640280559</v>
+      </c>
+      <c r="W24">
+        <v>0.9991659291605808</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9967239804633086</v>
+      </c>
+      <c r="D25">
+        <v>0.9993447955034405</v>
+      </c>
+      <c r="E25">
+        <v>1.002184013118497</v>
+      </c>
+      <c r="F25">
+        <v>1.000819011752151</v>
+      </c>
+      <c r="G25">
+        <v>0.9967239804633086</v>
+      </c>
+      <c r="H25">
+        <v>0.9992960646984418</v>
+      </c>
+      <c r="I25">
+        <v>1.00121603445019</v>
+      </c>
+      <c r="J25">
+        <v>1.002184013118497</v>
+      </c>
+      <c r="K25">
+        <v>1.002184013118497</v>
+      </c>
+      <c r="L25">
+        <v>0.9978699118088455</v>
+      </c>
+      <c r="M25">
+        <v>1.000819011752151</v>
+      </c>
+      <c r="N25">
+        <v>1.002184013118497</v>
+      </c>
+      <c r="O25">
+        <v>1.000819011752151</v>
+      </c>
+      <c r="P25">
+        <v>0.9987714961077296</v>
+      </c>
+      <c r="Q25">
+        <v>1.000057538225296</v>
+      </c>
+      <c r="R25">
+        <v>0.9999090017779855</v>
+      </c>
+      <c r="S25">
+        <v>0.9989463523046337</v>
+      </c>
+      <c r="T25">
+        <v>0.9999090017779855</v>
+      </c>
+      <c r="U25">
+        <v>0.9997557675080996</v>
+      </c>
+      <c r="V25">
+        <v>1.000241416630179</v>
+      </c>
+      <c r="W25">
+        <v>0.9997841029433781</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9946327119583072</v>
+      </c>
+      <c r="D26">
+        <v>0.9989265358908339</v>
+      </c>
+      <c r="E26">
+        <v>1.0035781878889</v>
+      </c>
+      <c r="F26">
+        <v>1.00134182536628</v>
+      </c>
+      <c r="G26">
+        <v>0.9946327119583072</v>
+      </c>
+      <c r="H26">
+        <v>0.9988466944165735</v>
+      </c>
+      <c r="I26">
+        <v>1.001992287703666</v>
+      </c>
+      <c r="J26">
+        <v>1.0035781878889</v>
+      </c>
+      <c r="K26">
+        <v>1.0035781878889</v>
+      </c>
+      <c r="L26">
+        <v>0.9965101501423791</v>
+      </c>
+      <c r="M26">
+        <v>1.00134182536628</v>
+      </c>
+      <c r="N26">
+        <v>1.0035781878889</v>
+      </c>
+      <c r="O26">
+        <v>1.00134182536628</v>
+      </c>
+      <c r="P26">
+        <v>0.9979872686622936</v>
+      </c>
+      <c r="Q26">
+        <v>1.000094259891427</v>
+      </c>
+      <c r="R26">
+        <v>0.9998509084044956</v>
+      </c>
+      <c r="S26">
+        <v>0.9982737439137201</v>
+      </c>
+      <c r="T26">
+        <v>0.9998509084044956</v>
+      </c>
+      <c r="U26">
+        <v>0.9995998549075151</v>
+      </c>
+      <c r="V26">
+        <v>1.000395521503792</v>
+      </c>
+      <c r="W26">
+        <v>0.9996462773416525</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9986226192190829</v>
+      </c>
+      <c r="D27">
+        <v>0.9997245284344218</v>
+      </c>
+      <c r="E27">
+        <v>1.000918247480899</v>
+      </c>
+      <c r="F27">
+        <v>1.000344344972705</v>
+      </c>
+      <c r="G27">
+        <v>0.9986226192190829</v>
+      </c>
+      <c r="H27">
+        <v>0.9997040311847858</v>
+      </c>
+      <c r="I27">
+        <v>1.000511271096169</v>
+      </c>
+      <c r="J27">
+        <v>1.000918247480899</v>
+      </c>
+      <c r="K27">
+        <v>1.000918247480899</v>
+      </c>
+      <c r="L27">
+        <v>0.9991044140848516</v>
+      </c>
+      <c r="M27">
+        <v>1.000344344972705</v>
+      </c>
+      <c r="N27">
+        <v>1.000918247480899</v>
+      </c>
+      <c r="O27">
+        <v>1.000344344972705</v>
+      </c>
+      <c r="P27">
+        <v>0.9994834820958938</v>
+      </c>
+      <c r="Q27">
+        <v>1.000024188078745</v>
+      </c>
+      <c r="R27">
+        <v>0.9999617372242288</v>
+      </c>
+      <c r="S27">
+        <v>0.9995569984588578</v>
+      </c>
+      <c r="T27">
+        <v>0.999961737224229</v>
+      </c>
+      <c r="U27">
+        <v>0.9998973107143682</v>
+      </c>
+      <c r="V27">
+        <v>1.000101498067674</v>
+      </c>
+      <c r="W27">
+        <v>0.9999092251807025</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.021797348903969</v>
+      </c>
+      <c r="D28">
+        <v>1.004359467373855</v>
+      </c>
+      <c r="E28">
+        <v>0.9854684375369823</v>
+      </c>
+      <c r="F28">
+        <v>0.9945506643026586</v>
+      </c>
+      <c r="G28">
+        <v>1.021797348903969</v>
+      </c>
+      <c r="H28">
+        <v>1.00468372517172</v>
+      </c>
+      <c r="I28">
+        <v>0.9919090268159468</v>
+      </c>
+      <c r="J28">
+        <v>0.9854684375369823</v>
+      </c>
+      <c r="K28">
+        <v>0.9854684375369823</v>
+      </c>
+      <c r="L28">
+        <v>1.014172761209618</v>
+      </c>
+      <c r="M28">
+        <v>0.9945506643026586</v>
+      </c>
+      <c r="N28">
+        <v>0.9854684375369823</v>
+      </c>
+      <c r="O28">
+        <v>0.9945506643026586</v>
+      </c>
+      <c r="P28">
+        <v>1.008174006603314</v>
+      </c>
+      <c r="Q28">
+        <v>0.9996171947371895</v>
+      </c>
+      <c r="R28">
+        <v>1.000605483581203</v>
+      </c>
+      <c r="S28">
+        <v>1.007010579459449</v>
+      </c>
+      <c r="T28">
+        <v>1.000605483581203</v>
+      </c>
+      <c r="U28">
+        <v>1.001625043978832</v>
+      </c>
+      <c r="V28">
+        <v>0.9983937226904624</v>
+      </c>
+      <c r="W28">
+        <v>1.001436511952176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.017849638696293</v>
+      </c>
+      <c r="D29">
+        <v>1.003569926163604</v>
+      </c>
+      <c r="E29">
+        <v>0.9881002430201163</v>
+      </c>
+      <c r="F29">
+        <v>0.9955375921393864</v>
+      </c>
+      <c r="G29">
+        <v>1.017849638696293</v>
+      </c>
+      <c r="H29">
+        <v>1.003835457034628</v>
+      </c>
+      <c r="I29">
+        <v>0.9933743793484079</v>
+      </c>
+      <c r="J29">
+        <v>0.9881002430201163</v>
+      </c>
+      <c r="K29">
+        <v>0.9881002430201163</v>
+      </c>
+      <c r="L29">
+        <v>1.011605937062292</v>
+      </c>
+      <c r="M29">
+        <v>0.9955375921393864</v>
+      </c>
+      <c r="N29">
+        <v>0.9881002430201163</v>
+      </c>
+      <c r="O29">
+        <v>0.9955375921393864</v>
+      </c>
+      <c r="P29">
+        <v>1.006693615417839</v>
+      </c>
+      <c r="Q29">
+        <v>0.9996865245870072</v>
+      </c>
+      <c r="R29">
+        <v>1.000495824618598</v>
+      </c>
+      <c r="S29">
+        <v>1.005740895956769</v>
+      </c>
+      <c r="T29">
+        <v>1.000495824618598</v>
+      </c>
+      <c r="U29">
+        <v>1.001330732722606</v>
+      </c>
+      <c r="V29">
+        <v>0.998684634782108</v>
+      </c>
+      <c r="W29">
+        <v>1.001176345700514</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.009936219400748</v>
+      </c>
+      <c r="D30">
+        <v>1.001987244076141</v>
+      </c>
+      <c r="E30">
+        <v>0.9933758546060397</v>
+      </c>
+      <c r="F30">
+        <v>0.9975159485937937</v>
+      </c>
+      <c r="G30">
+        <v>1.009936219400748</v>
+      </c>
+      <c r="H30">
+        <v>1.002135053697203</v>
+      </c>
+      <c r="I30">
+        <v>0.9963117643880964</v>
+      </c>
+      <c r="J30">
+        <v>0.9933758546060397</v>
+      </c>
+      <c r="K30">
+        <v>0.9933758546060397</v>
+      </c>
+      <c r="L30">
+        <v>1.006460586354045</v>
+      </c>
+      <c r="M30">
+        <v>0.9975159485937937</v>
+      </c>
+      <c r="N30">
+        <v>0.9933758546060397</v>
+      </c>
+      <c r="O30">
+        <v>0.9975159485937937</v>
+      </c>
+      <c r="P30">
+        <v>1.003726083997271</v>
+      </c>
+      <c r="Q30">
+        <v>0.9998255011454985</v>
+      </c>
+      <c r="R30">
+        <v>1.000276007533527</v>
+      </c>
+      <c r="S30">
+        <v>1.003195740563915</v>
+      </c>
+      <c r="T30">
+        <v>1.000276007533527</v>
+      </c>
+      <c r="U30">
+        <v>1.000740769074446</v>
+      </c>
+      <c r="V30">
+        <v>0.9992677861807649</v>
+      </c>
+      <c r="W30">
+        <v>1.000654827463733</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.010860125534002</v>
+      </c>
+      <c r="D31">
+        <v>1.002172021586459</v>
+      </c>
+      <c r="E31">
+        <v>0.9927599115134711</v>
+      </c>
+      <c r="F31">
+        <v>0.9972849695701758</v>
+      </c>
+      <c r="G31">
+        <v>1.010860125534002</v>
+      </c>
+      <c r="H31">
+        <v>1.002333572385476</v>
+      </c>
+      <c r="I31">
+        <v>0.9959688186583521</v>
+      </c>
+      <c r="J31">
+        <v>0.9927599115134711</v>
+      </c>
+      <c r="K31">
+        <v>0.9927599115134711</v>
+      </c>
+      <c r="L31">
+        <v>1.007061315124034</v>
+      </c>
+      <c r="M31">
+        <v>0.9972849695701758</v>
+      </c>
+      <c r="N31">
+        <v>0.9927599115134711</v>
+      </c>
+      <c r="O31">
+        <v>0.9972849695701758</v>
+      </c>
+      <c r="P31">
+        <v>1.004072547552089</v>
+      </c>
+      <c r="Q31">
+        <v>0.9998092709778259</v>
+      </c>
+      <c r="R31">
+        <v>1.00030166887255</v>
+      </c>
+      <c r="S31">
+        <v>1.003492889163218</v>
+      </c>
+      <c r="T31">
+        <v>1.00030166887255</v>
+      </c>
+      <c r="U31">
+        <v>1.000809644750781</v>
+      </c>
+      <c r="V31">
+        <v>0.9991996981033193</v>
+      </c>
+      <c r="W31">
+        <v>1.000715712992768</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.02637614739726</v>
+      </c>
+      <c r="D32">
+        <v>1.005275226575343</v>
+      </c>
+      <c r="E32">
+        <v>0.9824159068493157</v>
+      </c>
+      <c r="F32">
+        <v>0.9934059645205481</v>
+      </c>
+      <c r="G32">
+        <v>1.02637614739726</v>
+      </c>
+      <c r="H32">
+        <v>1.005667598356165</v>
+      </c>
+      <c r="I32">
+        <v>0.9902094199999997</v>
+      </c>
+      <c r="J32">
+        <v>0.9824159068493157</v>
+      </c>
+      <c r="K32">
+        <v>0.9824159068493157</v>
+      </c>
+      <c r="L32">
+        <v>1.017149922465754</v>
+      </c>
+      <c r="M32">
+        <v>0.9934059645205481</v>
+      </c>
+      <c r="N32">
+        <v>0.9824159068493157</v>
+      </c>
+      <c r="O32">
+        <v>0.9934059645205481</v>
+      </c>
+      <c r="P32">
+        <v>1.009891055958904</v>
+      </c>
+      <c r="Q32">
+        <v>0.9995367814383564</v>
+      </c>
+      <c r="R32">
+        <v>1.000732672922375</v>
+      </c>
+      <c r="S32">
+        <v>1.008483236757991</v>
+      </c>
+      <c r="T32">
+        <v>1.000732672922375</v>
+      </c>
+      <c r="U32">
+        <v>1.001966404280822</v>
+      </c>
+      <c r="V32">
+        <v>0.9980563047945207</v>
+      </c>
+      <c r="W32">
+        <v>1.001738268835616</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.028049446842105</v>
+      </c>
+      <c r="D33">
+        <v>1.005609887368421</v>
+      </c>
+      <c r="E33">
+        <v>0.9813003747368423</v>
+      </c>
+      <c r="F33">
+        <v>0.9929876399999998</v>
+      </c>
+      <c r="G33">
+        <v>1.028049446842105</v>
+      </c>
+      <c r="H33">
+        <v>1.006027148421053</v>
+      </c>
+      <c r="I33">
+        <v>0.9895883063157895</v>
+      </c>
+      <c r="J33">
+        <v>0.9813003747368423</v>
+      </c>
+      <c r="K33">
+        <v>0.9813003747368423</v>
+      </c>
+      <c r="L33">
+        <v>1.018237911052632</v>
+      </c>
+      <c r="M33">
+        <v>0.9929876399999998</v>
+      </c>
+      <c r="N33">
+        <v>0.9813003747368423</v>
+      </c>
+      <c r="O33">
+        <v>0.9929876399999998</v>
+      </c>
+      <c r="P33">
+        <v>1.010518543421052</v>
+      </c>
+      <c r="Q33">
+        <v>0.9995073942105261</v>
+      </c>
+      <c r="R33">
+        <v>1.000779153859649</v>
+      </c>
+      <c r="S33">
+        <v>1.009021411754386</v>
+      </c>
+      <c r="T33">
+        <v>1.000779153859649</v>
+      </c>
+      <c r="U33">
+        <v>1.0020911525</v>
+      </c>
+      <c r="V33">
+        <v>0.9979329969473685</v>
+      </c>
+      <c r="W33">
+        <v>1.001848544342105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.028049446842105</v>
+      </c>
+      <c r="D34">
+        <v>1.005609887368421</v>
+      </c>
+      <c r="E34">
+        <v>0.9813003747368423</v>
+      </c>
+      <c r="F34">
+        <v>0.9929876399999998</v>
+      </c>
+      <c r="G34">
+        <v>1.028049446842105</v>
+      </c>
+      <c r="H34">
+        <v>1.006027148421053</v>
+      </c>
+      <c r="I34">
+        <v>0.9895883063157895</v>
+      </c>
+      <c r="J34">
+        <v>0.9813003747368423</v>
+      </c>
+      <c r="K34">
+        <v>0.9813003747368423</v>
+      </c>
+      <c r="L34">
+        <v>1.018237911052632</v>
+      </c>
+      <c r="M34">
+        <v>0.9929876399999998</v>
+      </c>
+      <c r="N34">
+        <v>0.9813003747368423</v>
+      </c>
+      <c r="O34">
+        <v>0.9929876399999998</v>
+      </c>
+      <c r="P34">
+        <v>1.010518543421052</v>
+      </c>
+      <c r="Q34">
+        <v>0.9995073942105261</v>
+      </c>
+      <c r="R34">
+        <v>1.000779153859649</v>
+      </c>
+      <c r="S34">
+        <v>1.009021411754386</v>
+      </c>
+      <c r="T34">
+        <v>1.000779153859649</v>
+      </c>
+      <c r="U34">
+        <v>1.0020911525</v>
+      </c>
+      <c r="V34">
+        <v>0.9979329969473685</v>
+      </c>
+      <c r="W34">
+        <v>1.001848544342105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.039218849714411</v>
+      </c>
+      <c r="D35">
+        <v>1.007843779964604</v>
+      </c>
+      <c r="E35">
+        <v>0.9738541131248407</v>
+      </c>
+      <c r="F35">
+        <v>0.9901952937104423</v>
+      </c>
+      <c r="G35">
+        <v>1.039218849714411</v>
+      </c>
+      <c r="H35">
+        <v>1.008427164265263</v>
+      </c>
+      <c r="I35">
+        <v>0.9854423205980047</v>
+      </c>
+      <c r="J35">
+        <v>0.9738541131248407</v>
+      </c>
+      <c r="K35">
+        <v>0.9738541131248407</v>
+      </c>
+      <c r="L35">
+        <v>1.025500316748198</v>
+      </c>
+      <c r="M35">
+        <v>0.9901952937104423</v>
+      </c>
+      <c r="N35">
+        <v>0.9738541131248407</v>
+      </c>
+      <c r="O35">
+        <v>0.9901952937104423</v>
+      </c>
+      <c r="P35">
+        <v>1.014707071712427</v>
+      </c>
+      <c r="Q35">
+        <v>0.9993112289878529</v>
+      </c>
+      <c r="R35">
+        <v>1.001089418849898</v>
+      </c>
+      <c r="S35">
+        <v>1.012613769230039</v>
+      </c>
+      <c r="T35">
+        <v>1.001089418849898</v>
+      </c>
+      <c r="U35">
+        <v>1.002923855203739</v>
+      </c>
+      <c r="V35">
+        <v>0.9971099067879596</v>
+      </c>
+      <c r="W35">
+        <v>1.002584641479526</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000004613886372</v>
+      </c>
+      <c r="D36">
+        <v>1.000000921008864</v>
+      </c>
+      <c r="E36">
+        <v>0.9999969220982911</v>
+      </c>
+      <c r="F36">
+        <v>0.9999988494603973</v>
+      </c>
+      <c r="G36">
+        <v>1.000004613886372</v>
+      </c>
+      <c r="H36">
+        <v>1.000000990030841</v>
+      </c>
+      <c r="I36">
+        <v>0.9999982897816313</v>
+      </c>
+      <c r="J36">
+        <v>0.9999969220982911</v>
+      </c>
+      <c r="K36">
+        <v>0.9999969220982911</v>
+      </c>
+      <c r="L36">
+        <v>1.000002999217713</v>
+      </c>
+      <c r="M36">
+        <v>0.9999988494603973</v>
+      </c>
+      <c r="N36">
+        <v>0.9999969220982911</v>
+      </c>
+      <c r="O36">
+        <v>0.9999988494603973</v>
+      </c>
+      <c r="P36">
+        <v>1.000001731673385</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999999197456192</v>
+      </c>
+      <c r="R36">
+        <v>1.000000128481687</v>
+      </c>
+      <c r="S36">
+        <v>1.000001484459204</v>
+      </c>
+      <c r="T36">
+        <v>1.000000128481687</v>
+      </c>
+      <c r="U36">
+        <v>1.000000343868975</v>
+      </c>
+      <c r="V36">
+        <v>0.9999996595148385</v>
+      </c>
+      <c r="W36">
+        <v>1.000000304368063</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000097711816528</v>
+      </c>
+      <c r="D37">
+        <v>1.000019540491772</v>
+      </c>
+      <c r="E37">
+        <v>0.9999348569032939</v>
+      </c>
+      <c r="F37">
+        <v>0.9999755749687521</v>
+      </c>
+      <c r="G37">
+        <v>1.000097711816528</v>
+      </c>
+      <c r="H37">
+        <v>1.000020994524105</v>
+      </c>
+      <c r="I37">
+        <v>0.9999637325669929</v>
+      </c>
+      <c r="J37">
+        <v>0.9999348569032939</v>
+      </c>
+      <c r="K37">
+        <v>0.9999348569032939</v>
+      </c>
+      <c r="L37">
+        <v>1.000063532211507</v>
+      </c>
+      <c r="M37">
+        <v>0.9999755749687521</v>
+      </c>
+      <c r="N37">
+        <v>0.9999348569032939</v>
+      </c>
+      <c r="O37">
+        <v>0.9999755749687521</v>
+      </c>
+      <c r="P37">
+        <v>1.00003664339264</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999982847464286</v>
+      </c>
+      <c r="R37">
+        <v>1.000002714562858</v>
+      </c>
+      <c r="S37">
+        <v>1.000031427103129</v>
+      </c>
+      <c r="T37">
+        <v>1.000002714562858</v>
+      </c>
+      <c r="U37">
+        <v>1.00000728455317</v>
+      </c>
+      <c r="V37">
+        <v>0.9999927990231946</v>
+      </c>
+      <c r="W37">
+        <v>1.000006439806463</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000344012999799</v>
+      </c>
+      <c r="D38">
+        <v>1.000068800474582</v>
+      </c>
+      <c r="E38">
+        <v>0.9997706555826523</v>
+      </c>
+      <c r="F38">
+        <v>0.9999139965417267</v>
+      </c>
+      <c r="G38">
+        <v>1.000344012999799</v>
+      </c>
+      <c r="H38">
+        <v>1.000073919242542</v>
+      </c>
+      <c r="I38">
+        <v>0.9998723063523839</v>
+      </c>
+      <c r="J38">
+        <v>0.9997706555826523</v>
+      </c>
+      <c r="K38">
+        <v>0.9997706555826523</v>
+      </c>
+      <c r="L38">
+        <v>1.000223676240592</v>
+      </c>
+      <c r="M38">
+        <v>0.9999139965417267</v>
+      </c>
+      <c r="N38">
+        <v>0.9997706555826523</v>
+      </c>
+      <c r="O38">
+        <v>0.9999139965417267</v>
+      </c>
+      <c r="P38">
+        <v>1.000129004770763</v>
+      </c>
+      <c r="Q38">
+        <v>0.9999939578921344</v>
+      </c>
+      <c r="R38">
+        <v>1.000009555041393</v>
+      </c>
+      <c r="S38">
+        <v>1.000110642928023</v>
+      </c>
+      <c r="T38">
+        <v>1.000009555041393</v>
+      </c>
+      <c r="U38">
+        <v>1.00002564609168</v>
+      </c>
+      <c r="V38">
+        <v>0.9999746479898745</v>
+      </c>
+      <c r="W38">
+        <v>1.000022670497001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.000805921519318</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.000161179635682</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9994627166128837</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9997985223496175</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000805921519318</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.000173171557616</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9997008504952984</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9994627166128837</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9994627166128837</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.00052401507648</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9997985223496175</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9994627166128837</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9997985223496175</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.000302221934468</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9999858469536167</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.000022386827273</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.000259205142184</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000022386827273</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>1.000060083009859</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>0.9999406097304639</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>1.000053112449564</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.009764912397486</v>
+      </c>
+      <c r="D40">
+        <v>1.001952979711264</v>
+      </c>
+      <c r="E40">
+        <v>0.9934900563986926</v>
+      </c>
+      <c r="F40">
+        <v>0.997558774477715</v>
+      </c>
+      <c r="G40">
+        <v>1.009764912397486</v>
+      </c>
+      <c r="H40">
+        <v>1.002098244865618</v>
+      </c>
+      <c r="I40">
+        <v>0.9963753533517995</v>
+      </c>
+      <c r="J40">
+        <v>0.9934900563986926</v>
+      </c>
+      <c r="K40">
+        <v>0.9934900563986926</v>
+      </c>
+      <c r="L40">
+        <v>1.006349204019797</v>
+      </c>
+      <c r="M40">
+        <v>0.997558774477715</v>
+      </c>
+      <c r="N40">
+        <v>0.9934900563986926</v>
+      </c>
+      <c r="O40">
+        <v>0.997558774477715</v>
+      </c>
+      <c r="P40">
+        <v>1.003661843437601</v>
+      </c>
+      <c r="Q40">
+        <v>0.9998285096716664</v>
+      </c>
+      <c r="R40">
+        <v>1.000271247757965</v>
+      </c>
+      <c r="S40">
+        <v>1.003140643913606</v>
+      </c>
+      <c r="T40">
+        <v>1.000271247757965</v>
+      </c>
+      <c r="U40">
+        <v>1.000727997034878</v>
+      </c>
+      <c r="V40">
+        <v>0.9992804089076408</v>
+      </c>
+      <c r="W40">
+        <v>1.000643537462511</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9951085586796503</v>
+      </c>
+      <c r="D41">
+        <v>0.9990217090995269</v>
+      </c>
+      <c r="E41">
+        <v>1.003260958626689</v>
+      </c>
+      <c r="F41">
+        <v>1.001222864195007</v>
+      </c>
+      <c r="G41">
+        <v>0.9951085586796503</v>
+      </c>
+      <c r="H41">
+        <v>0.9989489451957471</v>
+      </c>
+      <c r="I41">
+        <v>1.001815663677187</v>
+      </c>
+      <c r="J41">
+        <v>1.003260958626689</v>
+      </c>
+      <c r="K41">
+        <v>1.003260958626689</v>
+      </c>
+      <c r="L41">
+        <v>0.9968195570836272</v>
+      </c>
+      <c r="M41">
+        <v>1.001222864195007</v>
+      </c>
+      <c r="N41">
+        <v>1.003260958626689</v>
+      </c>
+      <c r="O41">
+        <v>1.001222864195007</v>
+      </c>
+      <c r="P41">
+        <v>0.9981657114373286</v>
+      </c>
+      <c r="Q41">
+        <v>1.000085904695377</v>
+      </c>
+      <c r="R41">
+        <v>0.9998641271671153</v>
+      </c>
+      <c r="S41">
+        <v>0.9984267893568014</v>
+      </c>
+      <c r="T41">
+        <v>0.9998641271671153</v>
+      </c>
+      <c r="U41">
+        <v>0.9996353316742732</v>
+      </c>
+      <c r="V41">
+        <v>1.000360457064756</v>
+      </c>
+      <c r="W41">
+        <v>0.9996776400940551</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.014574184692924</v>
+      </c>
+      <c r="D42">
+        <v>1.002914831366752</v>
+      </c>
+      <c r="E42">
+        <v>0.9902838747220392</v>
+      </c>
+      <c r="F42">
+        <v>0.9963564588716344</v>
+      </c>
+      <c r="G42">
+        <v>1.014574184692924</v>
+      </c>
+      <c r="H42">
+        <v>1.003131640503067</v>
+      </c>
+      <c r="I42">
+        <v>0.9945901954170189</v>
+      </c>
+      <c r="J42">
+        <v>0.9902838747220392</v>
+      </c>
+      <c r="K42">
+        <v>0.9902838747220392</v>
+      </c>
+      <c r="L42">
+        <v>1.009476222121212</v>
+      </c>
+      <c r="M42">
+        <v>0.9963564588716344</v>
+      </c>
+      <c r="N42">
+        <v>0.9902838747220392</v>
+      </c>
+      <c r="O42">
+        <v>0.9963564588716344</v>
+      </c>
+      <c r="P42">
+        <v>1.005465321782279</v>
+      </c>
+      <c r="Q42">
+        <v>0.9997440496873509</v>
+      </c>
+      <c r="R42">
+        <v>1.000404839428866</v>
+      </c>
+      <c r="S42">
+        <v>1.004687428022542</v>
+      </c>
+      <c r="T42">
+        <v>1.000404839428866</v>
+      </c>
+      <c r="U42">
+        <v>1.001086539697416</v>
+      </c>
+      <c r="V42">
+        <v>0.9989260067023409</v>
+      </c>
+      <c r="W42">
+        <v>1.000960483320785</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CubeA-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW45.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
+    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,68 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -630,130 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -761,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9992551170757772</v>
+        <v>1.000235593567386</v>
       </c>
       <c r="D3">
-        <v>1.001117321718006</v>
+        <v>1.000047117093066</v>
       </c>
       <c r="E3">
-        <v>0.9997206721860171</v>
+        <v>0.9998429356855685</v>
       </c>
       <c r="F3">
-        <v>0.9992551170757772</v>
+        <v>0.9999411043453706</v>
       </c>
       <c r="G3">
-        <v>1.000240083892152</v>
+        <v>1.000235593567386</v>
       </c>
       <c r="H3">
-        <v>0.9995852627758958</v>
+        <v>1.0000506222586</v>
       </c>
       <c r="I3">
-        <v>0.9992551170757772</v>
+        <v>0.9999125520926494</v>
       </c>
       <c r="J3">
-        <v>1.001117321718006</v>
+        <v>0.9998429356855685</v>
       </c>
       <c r="K3">
-        <v>1.000223462215686</v>
+        <v>0.9998429356855685</v>
       </c>
       <c r="L3">
-        <v>0.9997206721860171</v>
+        <v>1.000153183675628</v>
       </c>
       <c r="M3">
-        <v>1.000726488455172</v>
+        <v>0.9999411043453706</v>
       </c>
       <c r="N3">
-        <v>0.9992551170757772</v>
+        <v>0.9998429356855685</v>
       </c>
       <c r="O3">
-        <v>0.9997206721860171</v>
+        <v>0.9999411043453706</v>
       </c>
       <c r="P3">
-        <v>1.000418996952012</v>
+        <v>1.000088348956379</v>
       </c>
       <c r="Q3">
-        <v>0.9999803780390846</v>
+        <v>0.9999958633019854</v>
       </c>
       <c r="R3">
-        <v>1.000031036993267</v>
+        <v>1.000006544532775</v>
       </c>
       <c r="S3">
-        <v>1.000359359265392</v>
+        <v>1.000075773390453</v>
       </c>
       <c r="T3">
-        <v>1.000031036993267</v>
+        <v>1.000006544532775</v>
       </c>
       <c r="U3">
-        <v>1.000083298717988</v>
+        <v>1.000017563964231</v>
       </c>
       <c r="V3">
-        <v>0.999917662389546</v>
+        <v>0.9999826383084989</v>
       </c>
       <c r="W3">
-        <v>1.000073635063091</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43">
+        <v>1.000015526632955</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -832,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9985620138899624</v>
+        <v>1.009764912397486</v>
       </c>
       <c r="D4">
-        <v>1.002156976731692</v>
+        <v>1.001952979711264</v>
       </c>
       <c r="E4">
-        <v>0.99946075864978</v>
+        <v>0.9934900563986926</v>
       </c>
       <c r="F4">
-        <v>0.9985620138899624</v>
+        <v>0.997558774477715</v>
       </c>
       <c r="G4">
-        <v>1.000463479947358</v>
+        <v>1.009764912397486</v>
       </c>
       <c r="H4">
-        <v>0.999199352759446</v>
+        <v>1.002098244865618</v>
       </c>
       <c r="I4">
-        <v>0.9985620138899624</v>
+        <v>0.9963753533517995</v>
       </c>
       <c r="J4">
-        <v>1.002156976731692</v>
+        <v>0.9934900563986926</v>
       </c>
       <c r="K4">
-        <v>1.000431392782545</v>
+        <v>0.9934900563986926</v>
       </c>
       <c r="L4">
-        <v>0.99946075864978</v>
+        <v>1.006349204019797</v>
       </c>
       <c r="M4">
-        <v>1.001402478836755</v>
+        <v>0.997558774477715</v>
       </c>
       <c r="N4">
-        <v>0.9985620138899624</v>
+        <v>0.9934900563986926</v>
       </c>
       <c r="O4">
-        <v>0.99946075864978</v>
+        <v>0.997558774477715</v>
       </c>
       <c r="P4">
-        <v>1.000808867690736</v>
+        <v>1.003661843437601</v>
       </c>
       <c r="Q4">
-        <v>0.9999621192985688</v>
+        <v>0.9998285096716664</v>
       </c>
       <c r="R4">
-        <v>1.000059916423812</v>
+        <v>1.000271247757965</v>
       </c>
       <c r="S4">
-        <v>1.000693738442943</v>
+        <v>1.003140643913606</v>
       </c>
       <c r="T4">
-        <v>1.000059916423812</v>
+        <v>1.000271247757965</v>
       </c>
       <c r="U4">
-        <v>1.000160807304698</v>
+        <v>1.000727997034878</v>
       </c>
       <c r="V4">
-        <v>0.999841048621751</v>
+        <v>0.9992804089076408</v>
       </c>
       <c r="W4">
-        <v>1.000142151530915</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43">
+        <v>1.000643537462511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -903,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9972442792868245</v>
+        <v>1.011915211909221</v>
       </c>
       <c r="D5">
-        <v>1.004133580638831</v>
+        <v>1.002383042824209</v>
       </c>
       <c r="E5">
-        <v>0.9989666033177789</v>
+        <v>0.9920565257348735</v>
       </c>
       <c r="F5">
-        <v>0.9972442792868245</v>
+        <v>0.9970211995461081</v>
       </c>
       <c r="G5">
-        <v>1.000888203998017</v>
+        <v>1.011915211909221</v>
       </c>
       <c r="H5">
-        <v>0.9984656575024055</v>
+        <v>1.002560290100867</v>
       </c>
       <c r="I5">
-        <v>0.9972442792868245</v>
+        <v>0.9955771817002884</v>
       </c>
       <c r="J5">
-        <v>1.004133580638831</v>
+        <v>0.9920565257348735</v>
       </c>
       <c r="K5">
-        <v>1.000826711880725</v>
+        <v>0.9920565257348735</v>
       </c>
       <c r="L5">
-        <v>0.9989666033177789</v>
+        <v>1.007747337961099</v>
       </c>
       <c r="M5">
-        <v>1.002687676676538</v>
+        <v>0.9970211995461081</v>
       </c>
       <c r="N5">
-        <v>0.9972442792868245</v>
+        <v>0.9920565257348735</v>
       </c>
       <c r="O5">
-        <v>0.9989666033177789</v>
+        <v>0.9970211995461081</v>
       </c>
       <c r="P5">
-        <v>1.001550091978305</v>
+        <v>1.004468205727664</v>
       </c>
       <c r="Q5">
-        <v>0.9999274036578979</v>
+        <v>0.9997907448234873</v>
       </c>
       <c r="R5">
-        <v>1.000114821081145</v>
+        <v>1.000330979063401</v>
       </c>
       <c r="S5">
-        <v>1.001329462651542</v>
+        <v>1.003832233852065</v>
       </c>
       <c r="T5">
-        <v>1.000114821081145</v>
+        <v>1.000330979063401</v>
       </c>
       <c r="U5">
-        <v>1.000308166810363</v>
+        <v>1.000888306822767</v>
       </c>
       <c r="V5">
-        <v>0.999695389305655</v>
+        <v>0.9991219506051884</v>
       </c>
       <c r="W5">
-        <v>1.000272414577362</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43">
+        <v>1.000785248665347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -974,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9959582374119113</v>
+        <v>1.039218849714411</v>
       </c>
       <c r="D6">
-        <v>1.006062649648248</v>
+        <v>1.007843779964604</v>
       </c>
       <c r="E6">
-        <v>0.9984843412647687</v>
+        <v>0.9738541131248407</v>
       </c>
       <c r="F6">
-        <v>0.9959582374119113</v>
+        <v>0.9901952937104423</v>
       </c>
       <c r="G6">
-        <v>1.001302716923629</v>
+        <v>1.039218849714411</v>
       </c>
       <c r="H6">
-        <v>0.9977496102961667</v>
+        <v>1.008427164265263</v>
       </c>
       <c r="I6">
-        <v>0.9959582374119113</v>
+        <v>0.9854423205980047</v>
       </c>
       <c r="J6">
-        <v>1.006062649648248</v>
+        <v>0.9738541131248407</v>
       </c>
       <c r="K6">
-        <v>1.001212534769567</v>
+        <v>0.9738541131248407</v>
       </c>
       <c r="L6">
-        <v>0.9984843412647687</v>
+        <v>1.025500316748198</v>
       </c>
       <c r="M6">
-        <v>1.00394196094719</v>
+        <v>0.9901952937104423</v>
       </c>
       <c r="N6">
-        <v>0.9959582374119113</v>
+        <v>0.9738541131248407</v>
       </c>
       <c r="O6">
-        <v>0.9984843412647687</v>
+        <v>0.9901952937104423</v>
       </c>
       <c r="P6">
-        <v>1.002273495456508</v>
+        <v>1.014707071712427</v>
       </c>
       <c r="Q6">
-        <v>0.999893529094199</v>
+        <v>0.9993112289878529</v>
       </c>
       <c r="R6">
-        <v>1.000168409441643</v>
+        <v>1.001089418849898</v>
       </c>
       <c r="S6">
-        <v>1.001949902612215</v>
+        <v>1.012613769230039</v>
       </c>
       <c r="T6">
-        <v>1.000168409441643</v>
+        <v>1.001089418849898</v>
       </c>
       <c r="U6">
-        <v>1.000451986312139</v>
+        <v>1.002923855203739</v>
       </c>
       <c r="V6">
-        <v>0.9995532365320937</v>
+        <v>0.9971099067879596</v>
       </c>
       <c r="W6">
-        <v>1.000399549065781</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43">
+        <v>1.002584641479526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1045,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999426059878634</v>
+        <v>1.001285646909956</v>
       </c>
       <c r="D7">
-        <v>1.000086087980513</v>
+        <v>1.000257126618411</v>
       </c>
       <c r="E7">
-        <v>0.9999784808365889</v>
+        <v>0.9991428999464292</v>
       </c>
       <c r="F7">
-        <v>0.9999426059878634</v>
+        <v>0.9996785910858943</v>
       </c>
       <c r="G7">
-        <v>1.000018497015002</v>
+        <v>1.001285646909956</v>
       </c>
       <c r="H7">
-        <v>0.9999680472671939</v>
+        <v>1.000276252940215</v>
       </c>
       <c r="I7">
-        <v>0.9999426059878634</v>
+        <v>0.9995227818760649</v>
       </c>
       <c r="J7">
-        <v>1.000086087980513</v>
+        <v>0.9991428999464292</v>
       </c>
       <c r="K7">
-        <v>1.000017215973837</v>
+        <v>0.9991428999464292</v>
       </c>
       <c r="L7">
-        <v>0.9999784808365889</v>
+        <v>1.000835934056134</v>
       </c>
       <c r="M7">
-        <v>1.000055973997928</v>
+        <v>0.9996785910858943</v>
       </c>
       <c r="N7">
-        <v>0.9999426059878634</v>
+        <v>0.9991428999464292</v>
       </c>
       <c r="O7">
-        <v>0.9999784808365889</v>
+        <v>0.9996785910858943</v>
       </c>
       <c r="P7">
-        <v>1.000032284408551</v>
+        <v>1.000482118997925</v>
       </c>
       <c r="Q7">
-        <v>0.9999984889257956</v>
+        <v>0.9999774220130548</v>
       </c>
       <c r="R7">
-        <v>1.000002391601655</v>
+        <v>1.000035712647427</v>
       </c>
       <c r="S7">
-        <v>1.000027688610701</v>
+        <v>1.000413496978689</v>
       </c>
       <c r="T7">
-        <v>1.000002391601655</v>
+        <v>1.000035712647427</v>
       </c>
       <c r="U7">
-        <v>1.000006417954992</v>
+        <v>1.000095847720624</v>
       </c>
       <c r="V7">
-        <v>0.9999936555615662</v>
+        <v>0.999905258165785</v>
       </c>
       <c r="W7">
-        <v>1.000005673736939</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43">
+        <v>1.000084728064875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1116,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9998429356855687</v>
+        <v>1.000097711816528</v>
       </c>
       <c r="D8">
-        <v>1.000235593567386</v>
+        <v>1.000019540491772</v>
       </c>
       <c r="E8">
-        <v>0.999941104345371</v>
+        <v>0.9999348569032939</v>
       </c>
       <c r="F8">
-        <v>0.9998429356855687</v>
+        <v>0.9999755749687521</v>
       </c>
       <c r="G8">
-        <v>1.0000506222586</v>
+        <v>1.000097711816528</v>
       </c>
       <c r="H8">
-        <v>0.9999125520926494</v>
+        <v>1.000020994524105</v>
       </c>
       <c r="I8">
-        <v>0.9998429356855687</v>
+        <v>0.9999637325669929</v>
       </c>
       <c r="J8">
-        <v>1.000235593567386</v>
+        <v>0.9999348569032939</v>
       </c>
       <c r="K8">
-        <v>1.000047117093066</v>
+        <v>0.9999348569032939</v>
       </c>
       <c r="L8">
-        <v>0.999941104345371</v>
+        <v>1.000063532211507</v>
       </c>
       <c r="M8">
-        <v>1.000153183675628</v>
+        <v>0.9999755749687521</v>
       </c>
       <c r="N8">
-        <v>0.9998429356855687</v>
+        <v>0.9999348569032939</v>
       </c>
       <c r="O8">
-        <v>0.999941104345371</v>
+        <v>0.9999755749687521</v>
       </c>
       <c r="P8">
-        <v>1.000088348956379</v>
+        <v>1.00003664339264</v>
       </c>
       <c r="Q8">
-        <v>0.9999958633019855</v>
+        <v>0.9999982847464286</v>
       </c>
       <c r="R8">
-        <v>1.000006544532775</v>
+        <v>1.000002714562858</v>
       </c>
       <c r="S8">
-        <v>1.000075773390452</v>
+        <v>1.000031427103129</v>
       </c>
       <c r="T8">
-        <v>1.000006544532775</v>
+        <v>1.000002714562858</v>
       </c>
       <c r="U8">
-        <v>1.000017563964231</v>
+        <v>1.00000728455317</v>
       </c>
       <c r="V8">
-        <v>0.999982638308499</v>
+        <v>0.9999927990231946</v>
       </c>
       <c r="W8">
-        <v>1.000015526632955</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43">
+        <v>1.000006439806463</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1187,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9997723436489776</v>
+        <v>1.002156976731692</v>
       </c>
       <c r="D9">
-        <v>1.000341481559302</v>
+        <v>1.000431392782545</v>
       </c>
       <c r="E9">
-        <v>0.9999146325184409</v>
+        <v>0.9985620138899624</v>
       </c>
       <c r="F9">
-        <v>0.9997723436489776</v>
+        <v>0.99946075864978</v>
       </c>
       <c r="G9">
-        <v>1.000073374901485</v>
+        <v>1.002156976731692</v>
       </c>
       <c r="H9">
-        <v>0.9998732473554761</v>
+        <v>1.000463479947358</v>
       </c>
       <c r="I9">
-        <v>0.9997723436489776</v>
+        <v>0.999199352759446</v>
       </c>
       <c r="J9">
-        <v>1.000341481559302</v>
+        <v>0.9985620138899624</v>
       </c>
       <c r="K9">
-        <v>1.000068295223176</v>
+        <v>0.9985620138899624</v>
       </c>
       <c r="L9">
-        <v>0.9999146325184409</v>
+        <v>1.001402478836755</v>
       </c>
       <c r="M9">
-        <v>1.000222032422982</v>
+        <v>0.99946075864978</v>
       </c>
       <c r="N9">
-        <v>0.9997723436489776</v>
+        <v>0.9985620138899624</v>
       </c>
       <c r="O9">
-        <v>0.9999146325184409</v>
+        <v>0.99946075864978</v>
       </c>
       <c r="P9">
-        <v>1.000128057038871</v>
+        <v>1.000808867690736</v>
       </c>
       <c r="Q9">
-        <v>0.9999940037099628</v>
+        <v>0.9999621192985688</v>
       </c>
       <c r="R9">
-        <v>1.000009485908907</v>
+        <v>1.000059916423812</v>
       </c>
       <c r="S9">
-        <v>1.000109829659743</v>
+        <v>1.000693738442943</v>
       </c>
       <c r="T9">
-        <v>1.000009485908907</v>
+        <v>1.000059916423812</v>
       </c>
       <c r="U9">
-        <v>1.000025458157051</v>
+        <v>1.000160807304698</v>
       </c>
       <c r="V9">
-        <v>0.9999748352554365</v>
+        <v>0.999841048621751</v>
       </c>
       <c r="W9">
-        <v>1.000022505018535</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43">
+        <v>1.000142151530915</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1258,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9995166996116464</v>
+        <v>1.039802002935248</v>
       </c>
       <c r="D10">
-        <v>1.000724947124803</v>
+        <v>1.007960411582449</v>
       </c>
       <c r="E10">
-        <v>0.9998187662600204</v>
+        <v>0.973465344839459</v>
       </c>
       <c r="F10">
-        <v>0.9995166996116464</v>
+        <v>0.9900495050774873</v>
       </c>
       <c r="G10">
-        <v>1.000155771425269</v>
+        <v>1.039802002935248</v>
       </c>
       <c r="H10">
-        <v>0.9997309074414664</v>
+        <v>1.008552469678005</v>
       </c>
       <c r="I10">
-        <v>0.9995166996116464</v>
+        <v>0.9852258585922004</v>
       </c>
       <c r="J10">
-        <v>1.000724947124803</v>
+        <v>0.973465344839459</v>
       </c>
       <c r="K10">
-        <v>1.000144988460501</v>
+        <v>0.973465344839459</v>
       </c>
       <c r="L10">
-        <v>0.9998187662600204</v>
+        <v>1.025879485879852</v>
       </c>
       <c r="M10">
-        <v>1.000471362883419</v>
+        <v>0.9900495050774873</v>
       </c>
       <c r="N10">
-        <v>0.9995166996116464</v>
+        <v>0.973465344839459</v>
       </c>
       <c r="O10">
-        <v>0.9998187662600204</v>
+        <v>0.9900495050774873</v>
       </c>
       <c r="P10">
-        <v>1.000271856692412</v>
+        <v>1.014925754006367</v>
       </c>
       <c r="Q10">
-        <v>0.9999872688426445</v>
+        <v>0.9993009873777463</v>
       </c>
       <c r="R10">
-        <v>1.00002013766549</v>
+        <v>1.001105617617398</v>
       </c>
       <c r="S10">
-        <v>1.000233161603364</v>
+        <v>1.012801325896913</v>
       </c>
       <c r="T10">
-        <v>1.00002013766549</v>
+        <v>1.001105617617398</v>
       </c>
       <c r="U10">
-        <v>1.000054046105435</v>
+        <v>1.00296733063255</v>
       </c>
       <c r="V10">
-        <v>0.9999465768066772</v>
+        <v>0.9970669334739316</v>
       </c>
       <c r="W10">
-        <v>1.000047776183393</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43">
+        <v>1.002623072957773</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1329,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9991760273710237</v>
+        <v>1.005954357766428</v>
       </c>
       <c r="D11">
-        <v>1.001235954736644</v>
+        <v>1.001190868205289</v>
       </c>
       <c r="E11">
-        <v>0.9996910144593807</v>
+        <v>0.996030426214723</v>
       </c>
       <c r="F11">
-        <v>0.9991760273710237</v>
+        <v>0.9985114139144162</v>
       </c>
       <c r="G11">
-        <v>1.000265574663741</v>
+        <v>1.005954357766428</v>
       </c>
       <c r="H11">
-        <v>0.9995412273058324</v>
+        <v>1.001279447256714</v>
       </c>
       <c r="I11">
-        <v>0.9991760273710237</v>
+        <v>0.9977897987363592</v>
       </c>
       <c r="J11">
-        <v>1.001235954736644</v>
+        <v>0.996030426214723</v>
       </c>
       <c r="K11">
-        <v>1.00024718993476</v>
+        <v>0.996030426214723</v>
       </c>
       <c r="L11">
-        <v>0.9996910144593807</v>
+        <v>1.003871560185935</v>
       </c>
       <c r="M11">
-        <v>1.000803623153731</v>
+        <v>0.9985114139144162</v>
       </c>
       <c r="N11">
-        <v>0.9991760273710237</v>
+        <v>0.996030426214723</v>
       </c>
       <c r="O11">
-        <v>0.9996910144593807</v>
+        <v>0.9985114139144162</v>
       </c>
       <c r="P11">
-        <v>1.000463484598012</v>
+        <v>1.002232885840422</v>
       </c>
       <c r="Q11">
-        <v>0.9999782945615606</v>
+        <v>0.9998954305855652</v>
       </c>
       <c r="R11">
-        <v>1.000034332189016</v>
+        <v>1.000165399298522</v>
       </c>
       <c r="S11">
-        <v>1.000397514619922</v>
+        <v>1.001915072979186</v>
       </c>
       <c r="T11">
-        <v>1.000034332189016</v>
+        <v>1.000165399298522</v>
       </c>
       <c r="U11">
-        <v>1.000092142807697</v>
+        <v>1.00044391128807</v>
       </c>
       <c r="V11">
-        <v>0.9999089197203626</v>
+        <v>0.9995612142734007</v>
       </c>
       <c r="W11">
-        <v>1.000081453260562</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43">
+        <v>1.000392410774285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1400,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.00843735622691</v>
+        <v>1.012034556242108</v>
       </c>
       <c r="D12">
-        <v>0.9873439627911564</v>
+        <v>1.002406914000002</v>
       </c>
       <c r="E12">
-        <v>1.003164008499625</v>
+        <v>0.9919769637684198</v>
       </c>
       <c r="F12">
-        <v>1.00843735622691</v>
+        <v>0.9969913631052594</v>
       </c>
       <c r="G12">
-        <v>0.9972805176581907</v>
+        <v>1.012034556242108</v>
       </c>
       <c r="H12">
-        <v>1.004697815197374</v>
+        <v>1.002585933368419</v>
       </c>
       <c r="I12">
-        <v>1.00843735622691</v>
+        <v>0.9955328812105243</v>
       </c>
       <c r="J12">
-        <v>0.9873439627911564</v>
+        <v>0.9919769637684198</v>
       </c>
       <c r="K12">
-        <v>0.9974687961789362</v>
+        <v>0.9919769637684198</v>
       </c>
       <c r="L12">
-        <v>1.003164008499625</v>
+        <v>1.007824935505265</v>
       </c>
       <c r="M12">
-        <v>0.9917709682328282</v>
+        <v>0.9969913631052594</v>
       </c>
       <c r="N12">
-        <v>1.00843735622691</v>
+        <v>0.9919769637684198</v>
       </c>
       <c r="O12">
-        <v>1.003164008499625</v>
+        <v>0.9969913631052594</v>
       </c>
       <c r="P12">
-        <v>0.9952539856453909</v>
+        <v>1.004512959673684</v>
       </c>
       <c r="Q12">
-        <v>1.000222263078908</v>
+        <v>0.999788648236839</v>
       </c>
       <c r="R12">
-        <v>0.9996484425058973</v>
+        <v>1.000334294371929</v>
       </c>
       <c r="S12">
-        <v>0.9959294963163242</v>
+        <v>1.003870617571929</v>
       </c>
       <c r="T12">
-        <v>0.9996484425058973</v>
+        <v>1.000334294371929</v>
       </c>
       <c r="U12">
-        <v>0.9990564612939707</v>
+        <v>1.000897204121052</v>
       </c>
       <c r="V12">
-        <v>1.000932640280559</v>
+        <v>0.9991131560505252</v>
       </c>
       <c r="W12">
-        <v>0.9991659291605808</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43">
+        <v>1.000793113788157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1471,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.002184013118497</v>
+        <v>0.9921719782575983</v>
       </c>
       <c r="D13">
-        <v>0.9967239804633086</v>
+        <v>0.9984343958665108</v>
       </c>
       <c r="E13">
-        <v>1.000819011752151</v>
+        <v>1.005218679116787</v>
       </c>
       <c r="F13">
-        <v>1.002184013118497</v>
+        <v>1.001957007172716</v>
       </c>
       <c r="G13">
-        <v>0.9992960646984418</v>
+        <v>0.9921719782575983</v>
       </c>
       <c r="H13">
-        <v>1.00121603445019</v>
+        <v>0.9983179441364178</v>
       </c>
       <c r="I13">
-        <v>1.002184013118497</v>
+        <v>1.002905692205327</v>
       </c>
       <c r="J13">
-        <v>0.9967239804633086</v>
+        <v>1.005218679116787</v>
       </c>
       <c r="K13">
-        <v>0.9993447955034405</v>
+        <v>1.005218679116787</v>
       </c>
       <c r="L13">
-        <v>1.000819011752151</v>
+        <v>0.9949101734731235</v>
       </c>
       <c r="M13">
-        <v>0.9978699118088455</v>
+        <v>1.001957007172716</v>
       </c>
       <c r="N13">
-        <v>1.002184013118497</v>
+        <v>1.005218679116787</v>
       </c>
       <c r="O13">
-        <v>1.000819011752151</v>
+        <v>1.001957007172716</v>
       </c>
       <c r="P13">
-        <v>0.9987714961077296</v>
+        <v>0.9970644927151571</v>
       </c>
       <c r="Q13">
-        <v>1.000057538225296</v>
+        <v>1.000137475654567</v>
       </c>
       <c r="R13">
-        <v>0.9999090017779855</v>
+        <v>0.9997825548490339</v>
       </c>
       <c r="S13">
-        <v>0.9989463523046337</v>
+        <v>0.9974823098555774</v>
       </c>
       <c r="T13">
-        <v>0.9999090017779855</v>
+        <v>0.9997825548490339</v>
       </c>
       <c r="U13">
-        <v>0.9997557675080996</v>
+        <v>0.9994164021708798</v>
       </c>
       <c r="V13">
-        <v>1.000241416630179</v>
+        <v>1.000576857560061</v>
       </c>
       <c r="W13">
-        <v>0.9997841029433781</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43">
+        <v>0.9994841096751496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1542,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.0035781878889</v>
+        <v>1.068766400000001</v>
       </c>
       <c r="D14">
-        <v>0.9946327119583072</v>
+        <v>1.0137533</v>
       </c>
       <c r="E14">
-        <v>1.00134182536628</v>
+        <v>0.9541557599999997</v>
       </c>
       <c r="F14">
-        <v>1.0035781878889</v>
+        <v>0.9828084099999992</v>
       </c>
       <c r="G14">
-        <v>0.9988466944165735</v>
+        <v>1.068766400000001</v>
       </c>
       <c r="H14">
-        <v>1.001992287703666</v>
+        <v>1.0147762</v>
       </c>
       <c r="I14">
-        <v>1.0035781878889</v>
+        <v>0.9744745400000012</v>
       </c>
       <c r="J14">
-        <v>0.9946327119583072</v>
+        <v>0.9541557599999997</v>
       </c>
       <c r="K14">
-        <v>0.9989265358908339</v>
+        <v>0.9541557599999997</v>
       </c>
       <c r="L14">
-        <v>1.00134182536628</v>
+        <v>1.0447123</v>
       </c>
       <c r="M14">
-        <v>0.9965101501423791</v>
+        <v>0.9828084099999992</v>
       </c>
       <c r="N14">
-        <v>1.0035781878889</v>
+        <v>0.9541557599999997</v>
       </c>
       <c r="O14">
-        <v>1.00134182536628</v>
+        <v>0.9828084099999992</v>
       </c>
       <c r="P14">
-        <v>0.9979872686622936</v>
+        <v>1.025787405</v>
       </c>
       <c r="Q14">
-        <v>1.000094259891427</v>
+        <v>0.9987923049999996</v>
       </c>
       <c r="R14">
-        <v>0.9998509084044959</v>
+        <v>1.00191019</v>
       </c>
       <c r="S14">
-        <v>0.9982737439137201</v>
+        <v>1.022117003333333</v>
       </c>
       <c r="T14">
-        <v>0.9998509084044959</v>
+        <v>1.00191019</v>
       </c>
       <c r="U14">
-        <v>0.9995998549075152</v>
+        <v>1.0051266925</v>
       </c>
       <c r="V14">
-        <v>1.000395521503792</v>
+        <v>0.9949325059999998</v>
       </c>
       <c r="W14">
-        <v>0.9996462773416526</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43">
+        <v>1.004531915</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1613,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.000918247480899</v>
+        <v>1.0687664</v>
       </c>
       <c r="D15">
-        <v>0.9986226192190829</v>
+        <v>1.0137533</v>
       </c>
       <c r="E15">
-        <v>1.000344344972705</v>
+        <v>0.95415576</v>
       </c>
       <c r="F15">
-        <v>1.000918247480899</v>
+        <v>0.98280841</v>
       </c>
       <c r="G15">
-        <v>0.9997040311847858</v>
+        <v>1.0687664</v>
       </c>
       <c r="H15">
-        <v>1.000511271096169</v>
+        <v>1.0147762</v>
       </c>
       <c r="I15">
-        <v>1.000918247480899</v>
+        <v>0.9744745399999999</v>
       </c>
       <c r="J15">
-        <v>0.9986226192190829</v>
+        <v>0.95415576</v>
       </c>
       <c r="K15">
-        <v>0.9997245284344218</v>
+        <v>0.95415576</v>
       </c>
       <c r="L15">
-        <v>1.000344344972705</v>
+        <v>1.0447123</v>
       </c>
       <c r="M15">
-        <v>0.9991044140848517</v>
+        <v>0.98280841</v>
       </c>
       <c r="N15">
-        <v>1.000918247480899</v>
+        <v>0.95415576</v>
       </c>
       <c r="O15">
-        <v>1.000344344972705</v>
+        <v>0.98280841</v>
       </c>
       <c r="P15">
-        <v>0.9994834820958938</v>
+        <v>1.025787405</v>
       </c>
       <c r="Q15">
-        <v>1.000024188078745</v>
+        <v>0.998792305</v>
       </c>
       <c r="R15">
-        <v>0.9999617372242288</v>
+        <v>1.00191019</v>
       </c>
       <c r="S15">
-        <v>0.9995569984588578</v>
+        <v>1.022117003333333</v>
       </c>
       <c r="T15">
-        <v>0.999961737224229</v>
+        <v>1.00191019</v>
       </c>
       <c r="U15">
-        <v>0.9998973107143682</v>
+        <v>1.0051266925</v>
       </c>
       <c r="V15">
-        <v>1.000101498067674</v>
+        <v>0.9949325059999999</v>
       </c>
       <c r="W15">
-        <v>0.9999092251807025</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43">
+        <v>1.004531915</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1684,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999969220982911</v>
+        <v>1.0687664</v>
       </c>
       <c r="D16">
-        <v>1.000004613886372</v>
+        <v>1.0137533</v>
       </c>
       <c r="E16">
-        <v>0.9999988494603973</v>
+        <v>0.95415576</v>
       </c>
       <c r="F16">
-        <v>0.9999969220982911</v>
+        <v>0.98280841</v>
       </c>
       <c r="G16">
-        <v>1.000000990030841</v>
+        <v>1.0687664</v>
       </c>
       <c r="H16">
-        <v>0.9999982897816313</v>
+        <v>1.0147762</v>
       </c>
       <c r="I16">
-        <v>0.9999969220982911</v>
+        <v>0.9744745399999999</v>
       </c>
       <c r="J16">
-        <v>1.000004613886372</v>
+        <v>0.95415576</v>
       </c>
       <c r="K16">
-        <v>1.000000921008864</v>
+        <v>0.95415576</v>
       </c>
       <c r="L16">
-        <v>0.9999988494603973</v>
+        <v>1.0447123</v>
       </c>
       <c r="M16">
-        <v>1.000002999217713</v>
+        <v>0.98280841</v>
       </c>
       <c r="N16">
-        <v>0.9999969220982911</v>
+        <v>0.95415576</v>
       </c>
       <c r="O16">
-        <v>0.9999988494603973</v>
+        <v>0.98280841</v>
       </c>
       <c r="P16">
-        <v>1.000001731673385</v>
+        <v>1.025787405</v>
       </c>
       <c r="Q16">
-        <v>0.9999999197456192</v>
+        <v>0.998792305</v>
       </c>
       <c r="R16">
-        <v>1.000000128481687</v>
+        <v>1.00191019</v>
       </c>
       <c r="S16">
-        <v>1.000001484459204</v>
+        <v>1.022117003333333</v>
       </c>
       <c r="T16">
-        <v>1.000000128481687</v>
+        <v>1.00191019</v>
       </c>
       <c r="U16">
-        <v>1.000000343868975</v>
+        <v>1.0051266925</v>
       </c>
       <c r="V16">
-        <v>0.9999996595148385</v>
+        <v>0.9949325059999999</v>
       </c>
       <c r="W16">
-        <v>1.000000304368063</v>
+        <v>1.004531915</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1755,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9999348569032939</v>
+        <v>1.0042979</v>
       </c>
       <c r="D17">
-        <v>1.000097711816528</v>
+        <v>1.0008596</v>
       </c>
       <c r="E17">
-        <v>0.9999755749687521</v>
+        <v>0.99713473</v>
       </c>
       <c r="F17">
-        <v>0.9999348569032939</v>
+        <v>0.99892553</v>
       </c>
       <c r="G17">
-        <v>1.000020994524105</v>
+        <v>1.0042979</v>
       </c>
       <c r="H17">
-        <v>0.9999637325669929</v>
+        <v>1.0009235</v>
       </c>
       <c r="I17">
-        <v>0.9999348569032939</v>
+        <v>0.9984046600000001</v>
       </c>
       <c r="J17">
-        <v>1.000097711816528</v>
+        <v>0.99713473</v>
       </c>
       <c r="K17">
-        <v>1.000019540491773</v>
+        <v>0.99713473</v>
       </c>
       <c r="L17">
-        <v>0.9999755749687521</v>
+        <v>1.0027945</v>
       </c>
       <c r="M17">
-        <v>1.000063532211507</v>
+        <v>0.99892553</v>
       </c>
       <c r="N17">
-        <v>0.9999348569032939</v>
+        <v>0.99713473</v>
       </c>
       <c r="O17">
-        <v>0.9999755749687521</v>
+        <v>0.99892553</v>
       </c>
       <c r="P17">
-        <v>1.00003664339264</v>
+        <v>1.001611715</v>
       </c>
       <c r="Q17">
-        <v>0.9999982847464286</v>
+        <v>0.999924515</v>
       </c>
       <c r="R17">
-        <v>1.000002714562858</v>
+        <v>1.000119386666667</v>
       </c>
       <c r="S17">
-        <v>1.000031427103129</v>
+        <v>1.00138231</v>
       </c>
       <c r="T17">
-        <v>1.000002714562858</v>
+        <v>1.000119386666667</v>
       </c>
       <c r="U17">
-        <v>1.00000728455317</v>
+        <v>1.000320415</v>
       </c>
       <c r="V17">
-        <v>0.9999927990231946</v>
+        <v>0.999683278</v>
       </c>
       <c r="W17">
-        <v>1.000006439806463</v>
+        <v>1.00028324375</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1826,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9997706555826523</v>
+        <v>1.02637614739726</v>
       </c>
       <c r="D18">
-        <v>1.000344012999799</v>
+        <v>1.005275226575343</v>
       </c>
       <c r="E18">
-        <v>0.9999139965417267</v>
+        <v>0.9824159068493157</v>
       </c>
       <c r="F18">
-        <v>0.9997706555826523</v>
+        <v>0.9934059645205481</v>
       </c>
       <c r="G18">
-        <v>1.000073919242542</v>
+        <v>1.02637614739726</v>
       </c>
       <c r="H18">
-        <v>0.9998723063523839</v>
+        <v>1.005667598356165</v>
       </c>
       <c r="I18">
-        <v>0.9997706555826523</v>
+        <v>0.9902094199999997</v>
       </c>
       <c r="J18">
-        <v>1.000344012999799</v>
+        <v>0.9824159068493157</v>
       </c>
       <c r="K18">
-        <v>1.000068800474582</v>
+        <v>0.9824159068493157</v>
       </c>
       <c r="L18">
-        <v>0.9999139965417267</v>
+        <v>1.017149922465754</v>
       </c>
       <c r="M18">
-        <v>1.000223676240592</v>
+        <v>0.9934059645205481</v>
       </c>
       <c r="N18">
-        <v>0.9997706555826523</v>
+        <v>0.9824159068493157</v>
       </c>
       <c r="O18">
-        <v>0.9999139965417267</v>
+        <v>0.9934059645205481</v>
       </c>
       <c r="P18">
-        <v>1.000129004770763</v>
+        <v>1.009891055958904</v>
       </c>
       <c r="Q18">
-        <v>0.9999939578921344</v>
+        <v>0.9995367814383564</v>
       </c>
       <c r="R18">
-        <v>1.000009555041393</v>
+        <v>1.000732672922375</v>
       </c>
       <c r="S18">
-        <v>1.000110642928023</v>
+        <v>1.008483236757991</v>
       </c>
       <c r="T18">
-        <v>1.000009555041393</v>
+        <v>1.000732672922375</v>
       </c>
       <c r="U18">
-        <v>1.00002564609168</v>
+        <v>1.001966404280822</v>
       </c>
       <c r="V18">
-        <v>0.9999746479898745</v>
+        <v>0.9980563047945207</v>
       </c>
       <c r="W18">
-        <v>1.000022670497001</v>
+        <v>1.001738268835616</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1897,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9994627166128837</v>
+        <v>1.028049446842105</v>
       </c>
       <c r="D19">
-        <v>1.000805921519318</v>
+        <v>1.005609887368421</v>
       </c>
       <c r="E19">
-        <v>0.9997985223496175</v>
+        <v>0.9813003747368423</v>
       </c>
       <c r="F19">
-        <v>0.9994627166128837</v>
+        <v>0.9929876399999998</v>
       </c>
       <c r="G19">
-        <v>1.000173171557616</v>
+        <v>1.028049446842105</v>
       </c>
       <c r="H19">
-        <v>0.9997008504952984</v>
+        <v>1.006027148421053</v>
       </c>
       <c r="I19">
-        <v>0.9994627166128837</v>
+        <v>0.9895883063157895</v>
       </c>
       <c r="J19">
-        <v>1.000805921519318</v>
+        <v>0.9813003747368423</v>
       </c>
       <c r="K19">
-        <v>1.000161179635682</v>
+        <v>0.9813003747368423</v>
       </c>
       <c r="L19">
-        <v>0.9997985223496175</v>
+        <v>1.018237911052632</v>
       </c>
       <c r="M19">
-        <v>1.00052401507648</v>
+        <v>0.9929876399999998</v>
       </c>
       <c r="N19">
-        <v>0.9994627166128837</v>
+        <v>0.9813003747368423</v>
       </c>
       <c r="O19">
-        <v>0.9997985223496175</v>
+        <v>0.9929876399999998</v>
       </c>
       <c r="P19">
-        <v>1.000302221934468</v>
+        <v>1.010518543421052</v>
       </c>
       <c r="Q19">
-        <v>0.9999858469536167</v>
+        <v>0.9995073942105261</v>
       </c>
       <c r="R19">
-        <v>1.000022386827273</v>
+        <v>1.000779153859649</v>
       </c>
       <c r="S19">
-        <v>1.000259205142184</v>
+        <v>1.009021411754386</v>
       </c>
       <c r="T19">
-        <v>1.000022386827273</v>
+        <v>1.000779153859649</v>
       </c>
       <c r="U19">
-        <v>1.000060083009859</v>
+        <v>1.0020911525</v>
       </c>
       <c r="V19">
-        <v>0.9999406097304639</v>
+        <v>0.9979329969473685</v>
       </c>
       <c r="W19">
-        <v>1.000053112449564</v>
+        <v>1.001848544342105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.028049446842105</v>
+      </c>
+      <c r="D20">
+        <v>1.005609887368421</v>
+      </c>
+      <c r="E20">
+        <v>0.9813003747368423</v>
+      </c>
+      <c r="F20">
+        <v>0.9929876399999998</v>
+      </c>
+      <c r="G20">
+        <v>1.028049446842105</v>
+      </c>
+      <c r="H20">
+        <v>1.006027148421053</v>
+      </c>
+      <c r="I20">
+        <v>0.9895883063157895</v>
+      </c>
+      <c r="J20">
+        <v>0.9813003747368423</v>
+      </c>
+      <c r="K20">
+        <v>0.9813003747368423</v>
+      </c>
+      <c r="L20">
+        <v>1.018237911052632</v>
+      </c>
+      <c r="M20">
+        <v>0.9929876399999998</v>
+      </c>
+      <c r="N20">
+        <v>0.9813003747368423</v>
+      </c>
+      <c r="O20">
+        <v>0.9929876399999998</v>
+      </c>
+      <c r="P20">
+        <v>1.010518543421052</v>
+      </c>
+      <c r="Q20">
+        <v>0.9995073942105261</v>
+      </c>
+      <c r="R20">
+        <v>1.000779153859649</v>
+      </c>
+      <c r="S20">
+        <v>1.009021411754386</v>
+      </c>
+      <c r="T20">
+        <v>1.000779153859649</v>
+      </c>
+      <c r="U20">
+        <v>1.0020911525</v>
+      </c>
+      <c r="V20">
+        <v>0.9979329969473685</v>
+      </c>
+      <c r="W20">
+        <v>1.001848544342105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9946327119583072</v>
+      </c>
+      <c r="D21">
+        <v>0.9989265358908339</v>
+      </c>
+      <c r="E21">
+        <v>1.0035781878889</v>
+      </c>
+      <c r="F21">
+        <v>1.00134182536628</v>
+      </c>
+      <c r="G21">
+        <v>0.9946327119583072</v>
+      </c>
+      <c r="H21">
+        <v>0.9988466944165735</v>
+      </c>
+      <c r="I21">
+        <v>1.001992287703666</v>
+      </c>
+      <c r="J21">
+        <v>1.0035781878889</v>
+      </c>
+      <c r="K21">
+        <v>1.0035781878889</v>
+      </c>
+      <c r="L21">
+        <v>0.9965101501423791</v>
+      </c>
+      <c r="M21">
+        <v>1.00134182536628</v>
+      </c>
+      <c r="N21">
+        <v>1.0035781878889</v>
+      </c>
+      <c r="O21">
+        <v>1.00134182536628</v>
+      </c>
+      <c r="P21">
+        <v>0.9979872686622936</v>
+      </c>
+      <c r="Q21">
+        <v>1.000094259891427</v>
+      </c>
+      <c r="R21">
+        <v>0.9998509084044956</v>
+      </c>
+      <c r="S21">
+        <v>0.9982737439137201</v>
+      </c>
+      <c r="T21">
+        <v>0.9998509084044956</v>
+      </c>
+      <c r="U21">
+        <v>0.9995998549075151</v>
+      </c>
+      <c r="V21">
+        <v>1.000395521503792</v>
+      </c>
+      <c r="W21">
+        <v>0.9996462773416525</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9986226192190829</v>
+      </c>
+      <c r="D22">
+        <v>0.9997245284344218</v>
+      </c>
+      <c r="E22">
+        <v>1.000918247480899</v>
+      </c>
+      <c r="F22">
+        <v>1.000344344972705</v>
+      </c>
+      <c r="G22">
+        <v>0.9986226192190829</v>
+      </c>
+      <c r="H22">
+        <v>0.9997040311847858</v>
+      </c>
+      <c r="I22">
+        <v>1.000511271096169</v>
+      </c>
+      <c r="J22">
+        <v>1.000918247480899</v>
+      </c>
+      <c r="K22">
+        <v>1.000918247480899</v>
+      </c>
+      <c r="L22">
+        <v>0.9991044140848516</v>
+      </c>
+      <c r="M22">
+        <v>1.000344344972705</v>
+      </c>
+      <c r="N22">
+        <v>1.000918247480899</v>
+      </c>
+      <c r="O22">
+        <v>1.000344344972705</v>
+      </c>
+      <c r="P22">
+        <v>0.9994834820958938</v>
+      </c>
+      <c r="Q22">
+        <v>1.000024188078745</v>
+      </c>
+      <c r="R22">
+        <v>0.9999617372242288</v>
+      </c>
+      <c r="S22">
+        <v>0.9995569984588578</v>
+      </c>
+      <c r="T22">
+        <v>0.999961737224229</v>
+      </c>
+      <c r="U22">
+        <v>0.9998973107143682</v>
+      </c>
+      <c r="V22">
+        <v>1.000101498067674</v>
+      </c>
+      <c r="W22">
+        <v>0.9999092251807025</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9873439627911561</v>
+      </c>
+      <c r="D23">
+        <v>0.9974687961789362</v>
+      </c>
+      <c r="E23">
+        <v>1.00843735622691</v>
+      </c>
+      <c r="F23">
+        <v>1.003164008499625</v>
+      </c>
+      <c r="G23">
+        <v>0.9873439627911561</v>
+      </c>
+      <c r="H23">
+        <v>0.9972805176581907</v>
+      </c>
+      <c r="I23">
+        <v>1.004697815197374</v>
+      </c>
+      <c r="J23">
+        <v>1.00843735622691</v>
+      </c>
+      <c r="K23">
+        <v>1.00843735622691</v>
+      </c>
+      <c r="L23">
+        <v>0.9917709682328282</v>
+      </c>
+      <c r="M23">
+        <v>1.003164008499625</v>
+      </c>
+      <c r="N23">
+        <v>1.00843735622691</v>
+      </c>
+      <c r="O23">
+        <v>1.003164008499625</v>
+      </c>
+      <c r="P23">
+        <v>0.9952539856453908</v>
+      </c>
+      <c r="Q23">
+        <v>1.000222263078908</v>
+      </c>
+      <c r="R23">
+        <v>0.9996484425058972</v>
+      </c>
+      <c r="S23">
+        <v>0.995929496316324</v>
+      </c>
+      <c r="T23">
+        <v>0.9996484425058972</v>
+      </c>
+      <c r="U23">
+        <v>0.9990564612939705</v>
+      </c>
+      <c r="V23">
+        <v>1.000932640280559</v>
+      </c>
+      <c r="W23">
+        <v>0.9991659291605808</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9967239804633086</v>
+      </c>
+      <c r="D24">
+        <v>0.9993447955034405</v>
+      </c>
+      <c r="E24">
+        <v>1.002184013118497</v>
+      </c>
+      <c r="F24">
+        <v>1.000819011752151</v>
+      </c>
+      <c r="G24">
+        <v>0.9967239804633086</v>
+      </c>
+      <c r="H24">
+        <v>0.9992960646984418</v>
+      </c>
+      <c r="I24">
+        <v>1.00121603445019</v>
+      </c>
+      <c r="J24">
+        <v>1.002184013118497</v>
+      </c>
+      <c r="K24">
+        <v>1.002184013118497</v>
+      </c>
+      <c r="L24">
+        <v>0.9978699118088455</v>
+      </c>
+      <c r="M24">
+        <v>1.000819011752151</v>
+      </c>
+      <c r="N24">
+        <v>1.002184013118497</v>
+      </c>
+      <c r="O24">
+        <v>1.000819011752151</v>
+      </c>
+      <c r="P24">
+        <v>0.9987714961077296</v>
+      </c>
+      <c r="Q24">
+        <v>1.000057538225296</v>
+      </c>
+      <c r="R24">
+        <v>0.9999090017779855</v>
+      </c>
+      <c r="S24">
+        <v>0.9989463523046337</v>
+      </c>
+      <c r="T24">
+        <v>0.9999090017779855</v>
+      </c>
+      <c r="U24">
+        <v>0.9997557675080996</v>
+      </c>
+      <c r="V24">
+        <v>1.000241416630179</v>
+      </c>
+      <c r="W24">
+        <v>0.9997841029433781</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.994632711958307</v>
+      </c>
+      <c r="D25">
+        <v>0.9989265358908339</v>
+      </c>
+      <c r="E25">
+        <v>1.0035781878889</v>
+      </c>
+      <c r="F25">
+        <v>1.00134182536628</v>
+      </c>
+      <c r="G25">
+        <v>0.994632711958307</v>
+      </c>
+      <c r="H25">
+        <v>0.9988466944165735</v>
+      </c>
+      <c r="I25">
+        <v>1.001992287703666</v>
+      </c>
+      <c r="J25">
+        <v>1.0035781878889</v>
+      </c>
+      <c r="K25">
+        <v>1.0035781878889</v>
+      </c>
+      <c r="L25">
+        <v>0.9965101501423793</v>
+      </c>
+      <c r="M25">
+        <v>1.00134182536628</v>
+      </c>
+      <c r="N25">
+        <v>1.0035781878889</v>
+      </c>
+      <c r="O25">
+        <v>1.00134182536628</v>
+      </c>
+      <c r="P25">
+        <v>0.9979872686622937</v>
+      </c>
+      <c r="Q25">
+        <v>1.000094259891427</v>
+      </c>
+      <c r="R25">
+        <v>0.9998509084044959</v>
+      </c>
+      <c r="S25">
+        <v>0.9982737439137203</v>
+      </c>
+      <c r="T25">
+        <v>0.9998509084044959</v>
+      </c>
+      <c r="U25">
+        <v>0.9995998549075152</v>
+      </c>
+      <c r="V25">
+        <v>1.000395521503792</v>
+      </c>
+      <c r="W25">
+        <v>0.9996462773416526</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9986226192190829</v>
+      </c>
+      <c r="D26">
+        <v>0.9997245284344218</v>
+      </c>
+      <c r="E26">
+        <v>1.000918247480899</v>
+      </c>
+      <c r="F26">
+        <v>1.000344344972705</v>
+      </c>
+      <c r="G26">
+        <v>0.9986226192190829</v>
+      </c>
+      <c r="H26">
+        <v>0.9997040311847858</v>
+      </c>
+      <c r="I26">
+        <v>1.000511271096169</v>
+      </c>
+      <c r="J26">
+        <v>1.000918247480899</v>
+      </c>
+      <c r="K26">
+        <v>1.000918247480899</v>
+      </c>
+      <c r="L26">
+        <v>0.9991044140848517</v>
+      </c>
+      <c r="M26">
+        <v>1.000344344972705</v>
+      </c>
+      <c r="N26">
+        <v>1.000918247480899</v>
+      </c>
+      <c r="O26">
+        <v>1.000344344972705</v>
+      </c>
+      <c r="P26">
+        <v>0.9994834820958938</v>
+      </c>
+      <c r="Q26">
+        <v>1.000024188078745</v>
+      </c>
+      <c r="R26">
+        <v>0.9999617372242288</v>
+      </c>
+      <c r="S26">
+        <v>0.9995569984588578</v>
+      </c>
+      <c r="T26">
+        <v>0.999961737224229</v>
+      </c>
+      <c r="U26">
+        <v>0.9998973107143682</v>
+      </c>
+      <c r="V26">
+        <v>1.000101498067674</v>
+      </c>
+      <c r="W26">
+        <v>0.9999092251807025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.004098485138982</v>
+      </c>
+      <c r="D27">
+        <v>1.000819698316698</v>
+      </c>
+      <c r="E27">
+        <v>0.9972676747452834</v>
+      </c>
+      <c r="F27">
+        <v>0.9989753743605644</v>
+      </c>
+      <c r="G27">
+        <v>1.004098485138982</v>
+      </c>
+      <c r="H27">
+        <v>1.000880669294817</v>
+      </c>
+      <c r="I27">
+        <v>0.9984786669942904</v>
+      </c>
+      <c r="J27">
+        <v>0.9972676747452834</v>
+      </c>
+      <c r="K27">
+        <v>0.9972676747452834</v>
+      </c>
+      <c r="L27">
+        <v>1.002664847293176</v>
+      </c>
+      <c r="M27">
+        <v>0.9989753743605644</v>
+      </c>
+      <c r="N27">
+        <v>0.9972676747452834</v>
+      </c>
+      <c r="O27">
+        <v>0.9989753743605644</v>
+      </c>
+      <c r="P27">
+        <v>1.001536929749773</v>
+      </c>
+      <c r="Q27">
+        <v>0.9999280218276905</v>
+      </c>
+      <c r="R27">
+        <v>1.000113844748276</v>
+      </c>
+      <c r="S27">
+        <v>1.001318176264787</v>
+      </c>
+      <c r="T27">
+        <v>1.000113844748276</v>
+      </c>
+      <c r="U27">
+        <v>1.000305550884911</v>
+      </c>
+      <c r="V27">
+        <v>0.9996979756569859</v>
+      </c>
+      <c r="W27">
+        <v>1.000270098813047</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.001978783283727</v>
+      </c>
+      <c r="D28">
+        <v>1.000395750918011</v>
+      </c>
+      <c r="E28">
+        <v>0.9986808108107365</v>
+      </c>
+      <c r="F28">
+        <v>0.9995053056578024</v>
+      </c>
+      <c r="G28">
+        <v>1.001978783283727</v>
+      </c>
+      <c r="H28">
+        <v>1.00042518843661</v>
+      </c>
+      <c r="I28">
+        <v>0.9992654995169133</v>
+      </c>
+      <c r="J28">
+        <v>0.9986808108107365</v>
+      </c>
+      <c r="K28">
+        <v>0.9986808108107365</v>
+      </c>
+      <c r="L28">
+        <v>1.001286617167218</v>
+      </c>
+      <c r="M28">
+        <v>0.9995053056578024</v>
+      </c>
+      <c r="N28">
+        <v>0.9986808108107365</v>
+      </c>
+      <c r="O28">
+        <v>0.9995053056578024</v>
+      </c>
+      <c r="P28">
+        <v>1.000742044470765</v>
+      </c>
+      <c r="Q28">
+        <v>0.999965247047206</v>
+      </c>
+      <c r="R28">
+        <v>1.000054966584089</v>
+      </c>
+      <c r="S28">
+        <v>1.000636425792713</v>
+      </c>
+      <c r="T28">
+        <v>1.000054966584089</v>
+      </c>
+      <c r="U28">
+        <v>1.000147522047219</v>
+      </c>
+      <c r="V28">
+        <v>0.9998541797999223</v>
+      </c>
+      <c r="W28">
+        <v>1.000130407681103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9894268714140213</v>
+      </c>
+      <c r="D29">
+        <v>0.9978853748173386</v>
+      </c>
+      <c r="E29">
+        <v>1.007048744954431</v>
+      </c>
+      <c r="F29">
+        <v>1.002643277067397</v>
+      </c>
+      <c r="G29">
+        <v>0.9894268714140213</v>
+      </c>
+      <c r="H29">
+        <v>0.9977280799462068</v>
+      </c>
+      <c r="I29">
+        <v>1.003924653046512</v>
+      </c>
+      <c r="J29">
+        <v>1.007048744954431</v>
+      </c>
+      <c r="K29">
+        <v>1.007048744954431</v>
+      </c>
+      <c r="L29">
+        <v>0.9931252986543658</v>
+      </c>
+      <c r="M29">
+        <v>1.002643277067397</v>
+      </c>
+      <c r="N29">
+        <v>1.007048744954431</v>
+      </c>
+      <c r="O29">
+        <v>1.002643277067397</v>
+      </c>
+      <c r="P29">
+        <v>0.9960350742407089</v>
+      </c>
+      <c r="Q29">
+        <v>1.000185678506802</v>
+      </c>
+      <c r="R29">
+        <v>0.9997062978119494</v>
+      </c>
+      <c r="S29">
+        <v>0.9965994094758749</v>
+      </c>
+      <c r="T29">
+        <v>0.9997062978119494</v>
+      </c>
+      <c r="U29">
+        <v>0.9992117433455138</v>
+      </c>
+      <c r="V29">
+        <v>1.000779143667297</v>
+      </c>
+      <c r="W29">
+        <v>0.9993031971209585</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CubeA-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.009764912397486</v>
+        <v>1.009624877535278</v>
       </c>
       <c r="D4">
-        <v>1.001952979711264</v>
+        <v>1.001924975542349</v>
       </c>
       <c r="E4">
-        <v>0.9934900563986926</v>
+        <v>0.9935834144274149</v>
       </c>
       <c r="F4">
-        <v>0.997558774477715</v>
+        <v>0.9975937829828518</v>
       </c>
       <c r="G4">
-        <v>1.009764912397486</v>
+        <v>1.009624877535278</v>
       </c>
       <c r="H4">
-        <v>1.002098244865618</v>
+        <v>1.002068153422516</v>
       </c>
       <c r="I4">
-        <v>0.9963753533517995</v>
+        <v>0.9964273327619747</v>
       </c>
       <c r="J4">
-        <v>0.9934900563986926</v>
+        <v>0.9935834144274149</v>
       </c>
       <c r="K4">
-        <v>0.9934900563986926</v>
+        <v>0.9935834144274149</v>
       </c>
       <c r="L4">
-        <v>1.006349204019797</v>
+        <v>1.006258149453336</v>
       </c>
       <c r="M4">
-        <v>0.997558774477715</v>
+        <v>0.9975937829828518</v>
       </c>
       <c r="N4">
-        <v>0.9934900563986926</v>
+        <v>0.9935834144274149</v>
       </c>
       <c r="O4">
-        <v>0.997558774477715</v>
+        <v>0.9975937829828518</v>
       </c>
       <c r="P4">
-        <v>1.003661843437601</v>
+        <v>1.003609330259065</v>
       </c>
       <c r="Q4">
-        <v>0.9998285096716664</v>
+        <v>0.9998309682026839</v>
       </c>
       <c r="R4">
-        <v>1.000271247757965</v>
+        <v>1.000267358315182</v>
       </c>
       <c r="S4">
-        <v>1.003140643913606</v>
+        <v>1.003095604646882</v>
       </c>
       <c r="T4">
-        <v>1.000271247757965</v>
+        <v>1.000267358315182</v>
       </c>
       <c r="U4">
-        <v>1.000727997034878</v>
+        <v>1.000717557092015</v>
       </c>
       <c r="V4">
-        <v>0.9992804089076408</v>
+        <v>0.9992907285590953</v>
       </c>
       <c r="W4">
-        <v>1.000643537462511</v>
+        <v>1.000634308638572</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.011915211909221</v>
+        <v>1.023842959247761</v>
       </c>
       <c r="D5">
-        <v>1.002383042824209</v>
+        <v>1.004768587579409</v>
       </c>
       <c r="E5">
-        <v>0.9920565257348735</v>
+        <v>0.9841046986416804</v>
       </c>
       <c r="F5">
-        <v>0.9970211995461081</v>
+        <v>0.9940392612833668</v>
       </c>
       <c r="G5">
-        <v>1.011915211909221</v>
+        <v>1.023842959247761</v>
       </c>
       <c r="H5">
-        <v>1.002560290100867</v>
+        <v>1.005123278364535</v>
       </c>
       <c r="I5">
-        <v>0.9955771817002884</v>
+        <v>0.9911497173144447</v>
       </c>
       <c r="J5">
-        <v>0.9920565257348735</v>
+        <v>0.9841046986416804</v>
       </c>
       <c r="K5">
-        <v>0.9920565257348735</v>
+        <v>0.9841046986416804</v>
       </c>
       <c r="L5">
-        <v>1.007747337961099</v>
+        <v>1.015502828629463</v>
       </c>
       <c r="M5">
-        <v>0.9970211995461081</v>
+        <v>0.9940392612833668</v>
       </c>
       <c r="N5">
-        <v>0.9920565257348735</v>
+        <v>0.9841046986416804</v>
       </c>
       <c r="O5">
-        <v>0.9970211995461081</v>
+        <v>0.9940392612833668</v>
       </c>
       <c r="P5">
-        <v>1.004468205727664</v>
+        <v>1.008941110265564</v>
       </c>
       <c r="Q5">
-        <v>0.9997907448234873</v>
+        <v>0.9995812698239511</v>
       </c>
       <c r="R5">
-        <v>1.000330979063401</v>
+        <v>1.000662306390936</v>
       </c>
       <c r="S5">
-        <v>1.003832233852065</v>
+        <v>1.007668499631888</v>
       </c>
       <c r="T5">
-        <v>1.000330979063401</v>
+        <v>1.000662306390936</v>
       </c>
       <c r="U5">
-        <v>1.000888306822767</v>
+        <v>1.001777549384336</v>
       </c>
       <c r="V5">
-        <v>0.9991219506051884</v>
+        <v>0.9982429792358047</v>
       </c>
       <c r="W5">
-        <v>1.000785248665347</v>
+        <v>1.001571324043003</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.039218849714411</v>
+        <v>1.009764912397486</v>
       </c>
       <c r="D6">
-        <v>1.007843779964604</v>
+        <v>1.001952979711264</v>
       </c>
       <c r="E6">
-        <v>0.9738541131248407</v>
+        <v>0.9934900563986926</v>
       </c>
       <c r="F6">
-        <v>0.9901952937104423</v>
+        <v>0.997558774477715</v>
       </c>
       <c r="G6">
-        <v>1.039218849714411</v>
+        <v>1.009764912397486</v>
       </c>
       <c r="H6">
-        <v>1.008427164265263</v>
+        <v>1.002098244865618</v>
       </c>
       <c r="I6">
-        <v>0.9854423205980047</v>
+        <v>0.9963753533517995</v>
       </c>
       <c r="J6">
-        <v>0.9738541131248407</v>
+        <v>0.9934900563986926</v>
       </c>
       <c r="K6">
-        <v>0.9738541131248407</v>
+        <v>0.9934900563986926</v>
       </c>
       <c r="L6">
-        <v>1.025500316748198</v>
+        <v>1.006349204019797</v>
       </c>
       <c r="M6">
-        <v>0.9901952937104423</v>
+        <v>0.997558774477715</v>
       </c>
       <c r="N6">
-        <v>0.9738541131248407</v>
+        <v>0.9934900563986926</v>
       </c>
       <c r="O6">
-        <v>0.9901952937104423</v>
+        <v>0.997558774477715</v>
       </c>
       <c r="P6">
-        <v>1.014707071712427</v>
+        <v>1.003661843437601</v>
       </c>
       <c r="Q6">
-        <v>0.9993112289878529</v>
+        <v>0.9998285096716664</v>
       </c>
       <c r="R6">
-        <v>1.001089418849898</v>
+        <v>1.000271247757965</v>
       </c>
       <c r="S6">
-        <v>1.012613769230039</v>
+        <v>1.003140643913606</v>
       </c>
       <c r="T6">
-        <v>1.001089418849898</v>
+        <v>1.000271247757965</v>
       </c>
       <c r="U6">
-        <v>1.002923855203739</v>
+        <v>1.000727997034878</v>
       </c>
       <c r="V6">
-        <v>0.9971099067879596</v>
+        <v>0.9992804089076408</v>
       </c>
       <c r="W6">
-        <v>1.002584641479526</v>
+        <v>1.000643537462511</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.001285646909956</v>
+        <v>1.011915211909221</v>
       </c>
       <c r="D7">
-        <v>1.000257126618411</v>
+        <v>1.002383042824209</v>
       </c>
       <c r="E7">
-        <v>0.9991428999464292</v>
+        <v>0.9920565257348735</v>
       </c>
       <c r="F7">
-        <v>0.9996785910858943</v>
+        <v>0.9970211995461081</v>
       </c>
       <c r="G7">
-        <v>1.001285646909956</v>
+        <v>1.011915211909221</v>
       </c>
       <c r="H7">
-        <v>1.000276252940215</v>
+        <v>1.002560290100867</v>
       </c>
       <c r="I7">
-        <v>0.9995227818760649</v>
+        <v>0.9955771817002884</v>
       </c>
       <c r="J7">
-        <v>0.9991428999464292</v>
+        <v>0.9920565257348735</v>
       </c>
       <c r="K7">
-        <v>0.9991428999464292</v>
+        <v>0.9920565257348735</v>
       </c>
       <c r="L7">
-        <v>1.000835934056134</v>
+        <v>1.007747337961099</v>
       </c>
       <c r="M7">
-        <v>0.9996785910858943</v>
+        <v>0.9970211995461081</v>
       </c>
       <c r="N7">
-        <v>0.9991428999464292</v>
+        <v>0.9920565257348735</v>
       </c>
       <c r="O7">
-        <v>0.9996785910858943</v>
+        <v>0.9970211995461081</v>
       </c>
       <c r="P7">
-        <v>1.000482118997925</v>
+        <v>1.004468205727664</v>
       </c>
       <c r="Q7">
-        <v>0.9999774220130548</v>
+        <v>0.9997907448234873</v>
       </c>
       <c r="R7">
-        <v>1.000035712647427</v>
+        <v>1.000330979063401</v>
       </c>
       <c r="S7">
-        <v>1.000413496978689</v>
+        <v>1.003832233852065</v>
       </c>
       <c r="T7">
-        <v>1.000035712647427</v>
+        <v>1.000330979063401</v>
       </c>
       <c r="U7">
-        <v>1.000095847720624</v>
+        <v>1.000888306822767</v>
       </c>
       <c r="V7">
-        <v>0.999905258165785</v>
+        <v>0.9991219506051884</v>
       </c>
       <c r="W7">
-        <v>1.000084728064875</v>
+        <v>1.000785248665347</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000097711816528</v>
+        <v>1.039218849714411</v>
       </c>
       <c r="D8">
-        <v>1.000019540491772</v>
+        <v>1.007843779964604</v>
       </c>
       <c r="E8">
-        <v>0.9999348569032939</v>
+        <v>0.9738541131248407</v>
       </c>
       <c r="F8">
-        <v>0.9999755749687521</v>
+        <v>0.9901952937104423</v>
       </c>
       <c r="G8">
-        <v>1.000097711816528</v>
+        <v>1.039218849714411</v>
       </c>
       <c r="H8">
-        <v>1.000020994524105</v>
+        <v>1.008427164265263</v>
       </c>
       <c r="I8">
-        <v>0.9999637325669929</v>
+        <v>0.9854423205980047</v>
       </c>
       <c r="J8">
-        <v>0.9999348569032939</v>
+        <v>0.9738541131248407</v>
       </c>
       <c r="K8">
-        <v>0.9999348569032939</v>
+        <v>0.9738541131248407</v>
       </c>
       <c r="L8">
-        <v>1.000063532211507</v>
+        <v>1.025500316748198</v>
       </c>
       <c r="M8">
-        <v>0.9999755749687521</v>
+        <v>0.9901952937104423</v>
       </c>
       <c r="N8">
-        <v>0.9999348569032939</v>
+        <v>0.9738541131248407</v>
       </c>
       <c r="O8">
-        <v>0.9999755749687521</v>
+        <v>0.9901952937104423</v>
       </c>
       <c r="P8">
-        <v>1.00003664339264</v>
+        <v>1.014707071712427</v>
       </c>
       <c r="Q8">
-        <v>0.9999982847464286</v>
+        <v>0.9993112289878529</v>
       </c>
       <c r="R8">
-        <v>1.000002714562858</v>
+        <v>1.001089418849898</v>
       </c>
       <c r="S8">
-        <v>1.000031427103129</v>
+        <v>1.012613769230039</v>
       </c>
       <c r="T8">
-        <v>1.000002714562858</v>
+        <v>1.001089418849898</v>
       </c>
       <c r="U8">
-        <v>1.00000728455317</v>
+        <v>1.002923855203739</v>
       </c>
       <c r="V8">
-        <v>0.9999927990231946</v>
+        <v>0.9971099067879596</v>
       </c>
       <c r="W8">
-        <v>1.000006439806463</v>
+        <v>1.002584641479526</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.002156976731692</v>
+        <v>1.001285646909956</v>
       </c>
       <c r="D9">
-        <v>1.000431392782545</v>
+        <v>1.000257126618411</v>
       </c>
       <c r="E9">
-        <v>0.9985620138899624</v>
+        <v>0.9991428999464292</v>
       </c>
       <c r="F9">
-        <v>0.99946075864978</v>
+        <v>0.9996785910858943</v>
       </c>
       <c r="G9">
-        <v>1.002156976731692</v>
+        <v>1.001285646909956</v>
       </c>
       <c r="H9">
-        <v>1.000463479947358</v>
+        <v>1.000276252940215</v>
       </c>
       <c r="I9">
-        <v>0.999199352759446</v>
+        <v>0.9995227818760649</v>
       </c>
       <c r="J9">
-        <v>0.9985620138899624</v>
+        <v>0.9991428999464292</v>
       </c>
       <c r="K9">
-        <v>0.9985620138899624</v>
+        <v>0.9991428999464292</v>
       </c>
       <c r="L9">
-        <v>1.001402478836755</v>
+        <v>1.000835934056134</v>
       </c>
       <c r="M9">
-        <v>0.99946075864978</v>
+        <v>0.9996785910858943</v>
       </c>
       <c r="N9">
-        <v>0.9985620138899624</v>
+        <v>0.9991428999464292</v>
       </c>
       <c r="O9">
-        <v>0.99946075864978</v>
+        <v>0.9996785910858943</v>
       </c>
       <c r="P9">
-        <v>1.000808867690736</v>
+        <v>1.000482118997925</v>
       </c>
       <c r="Q9">
-        <v>0.9999621192985688</v>
+        <v>0.9999774220130548</v>
       </c>
       <c r="R9">
-        <v>1.000059916423812</v>
+        <v>1.000035712647427</v>
       </c>
       <c r="S9">
-        <v>1.000693738442943</v>
+        <v>1.000413496978689</v>
       </c>
       <c r="T9">
-        <v>1.000059916423812</v>
+        <v>1.000035712647427</v>
       </c>
       <c r="U9">
-        <v>1.000160807304698</v>
+        <v>1.000095847720624</v>
       </c>
       <c r="V9">
-        <v>0.999841048621751</v>
+        <v>0.999905258165785</v>
       </c>
       <c r="W9">
-        <v>1.000142151530915</v>
+        <v>1.000084728064875</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.039802002935248</v>
+        <v>1.000097711816528</v>
       </c>
       <c r="D10">
-        <v>1.007960411582449</v>
+        <v>1.000019540491772</v>
       </c>
       <c r="E10">
-        <v>0.973465344839459</v>
+        <v>0.9999348569032939</v>
       </c>
       <c r="F10">
-        <v>0.9900495050774873</v>
+        <v>0.9999755749687521</v>
       </c>
       <c r="G10">
-        <v>1.039802002935248</v>
+        <v>1.000097711816528</v>
       </c>
       <c r="H10">
-        <v>1.008552469678005</v>
+        <v>1.000020994524105</v>
       </c>
       <c r="I10">
-        <v>0.9852258585922004</v>
+        <v>0.9999637325669929</v>
       </c>
       <c r="J10">
-        <v>0.973465344839459</v>
+        <v>0.9999348569032939</v>
       </c>
       <c r="K10">
-        <v>0.973465344839459</v>
+        <v>0.9999348569032939</v>
       </c>
       <c r="L10">
-        <v>1.025879485879852</v>
+        <v>1.000063532211507</v>
       </c>
       <c r="M10">
-        <v>0.9900495050774873</v>
+        <v>0.9999755749687521</v>
       </c>
       <c r="N10">
-        <v>0.973465344839459</v>
+        <v>0.9999348569032939</v>
       </c>
       <c r="O10">
-        <v>0.9900495050774873</v>
+        <v>0.9999755749687521</v>
       </c>
       <c r="P10">
-        <v>1.014925754006367</v>
+        <v>1.00003664339264</v>
       </c>
       <c r="Q10">
-        <v>0.9993009873777463</v>
+        <v>0.9999982847464286</v>
       </c>
       <c r="R10">
-        <v>1.001105617617398</v>
+        <v>1.000002714562858</v>
       </c>
       <c r="S10">
-        <v>1.012801325896913</v>
+        <v>1.000031427103129</v>
       </c>
       <c r="T10">
-        <v>1.001105617617398</v>
+        <v>1.000002714562858</v>
       </c>
       <c r="U10">
-        <v>1.00296733063255</v>
+        <v>1.00000728455317</v>
       </c>
       <c r="V10">
-        <v>0.9970669334739316</v>
+        <v>0.9999927990231946</v>
       </c>
       <c r="W10">
-        <v>1.002623072957773</v>
+        <v>1.000006439806463</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.005954357766428</v>
+        <v>1.002156976731692</v>
       </c>
       <c r="D11">
-        <v>1.001190868205289</v>
+        <v>1.000431392782545</v>
       </c>
       <c r="E11">
-        <v>0.996030426214723</v>
+        <v>0.9985620138899624</v>
       </c>
       <c r="F11">
-        <v>0.9985114139144162</v>
+        <v>0.99946075864978</v>
       </c>
       <c r="G11">
-        <v>1.005954357766428</v>
+        <v>1.002156976731692</v>
       </c>
       <c r="H11">
-        <v>1.001279447256714</v>
+        <v>1.000463479947358</v>
       </c>
       <c r="I11">
-        <v>0.9977897987363592</v>
+        <v>0.999199352759446</v>
       </c>
       <c r="J11">
-        <v>0.996030426214723</v>
+        <v>0.9985620138899624</v>
       </c>
       <c r="K11">
-        <v>0.996030426214723</v>
+        <v>0.9985620138899624</v>
       </c>
       <c r="L11">
-        <v>1.003871560185935</v>
+        <v>1.001402478836755</v>
       </c>
       <c r="M11">
-        <v>0.9985114139144162</v>
+        <v>0.99946075864978</v>
       </c>
       <c r="N11">
-        <v>0.996030426214723</v>
+        <v>0.9985620138899624</v>
       </c>
       <c r="O11">
-        <v>0.9985114139144162</v>
+        <v>0.99946075864978</v>
       </c>
       <c r="P11">
-        <v>1.002232885840422</v>
+        <v>1.000808867690736</v>
       </c>
       <c r="Q11">
-        <v>0.9998954305855652</v>
+        <v>0.9999621192985688</v>
       </c>
       <c r="R11">
-        <v>1.000165399298522</v>
+        <v>1.000059916423812</v>
       </c>
       <c r="S11">
-        <v>1.001915072979186</v>
+        <v>1.000693738442943</v>
       </c>
       <c r="T11">
-        <v>1.000165399298522</v>
+        <v>1.000059916423812</v>
       </c>
       <c r="U11">
-        <v>1.00044391128807</v>
+        <v>1.000160807304698</v>
       </c>
       <c r="V11">
-        <v>0.9995612142734007</v>
+        <v>0.999841048621751</v>
       </c>
       <c r="W11">
-        <v>1.000392410774285</v>
+        <v>1.000142151530915</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.012034556242108</v>
+        <v>1.039802002935248</v>
       </c>
       <c r="D12">
-        <v>1.002406914000002</v>
+        <v>1.007960411582449</v>
       </c>
       <c r="E12">
-        <v>0.9919769637684198</v>
+        <v>0.973465344839459</v>
       </c>
       <c r="F12">
-        <v>0.9969913631052594</v>
+        <v>0.9900495050774873</v>
       </c>
       <c r="G12">
-        <v>1.012034556242108</v>
+        <v>1.039802002935248</v>
       </c>
       <c r="H12">
-        <v>1.002585933368419</v>
+        <v>1.008552469678005</v>
       </c>
       <c r="I12">
-        <v>0.9955328812105243</v>
+        <v>0.9852258585922004</v>
       </c>
       <c r="J12">
-        <v>0.9919769637684198</v>
+        <v>0.973465344839459</v>
       </c>
       <c r="K12">
-        <v>0.9919769637684198</v>
+        <v>0.973465344839459</v>
       </c>
       <c r="L12">
-        <v>1.007824935505265</v>
+        <v>1.025879485879852</v>
       </c>
       <c r="M12">
-        <v>0.9969913631052594</v>
+        <v>0.9900495050774873</v>
       </c>
       <c r="N12">
-        <v>0.9919769637684198</v>
+        <v>0.973465344839459</v>
       </c>
       <c r="O12">
-        <v>0.9969913631052594</v>
+        <v>0.9900495050774873</v>
       </c>
       <c r="P12">
-        <v>1.004512959673684</v>
+        <v>1.014925754006367</v>
       </c>
       <c r="Q12">
-        <v>0.999788648236839</v>
+        <v>0.9993009873777463</v>
       </c>
       <c r="R12">
-        <v>1.000334294371929</v>
+        <v>1.001105617617398</v>
       </c>
       <c r="S12">
-        <v>1.003870617571929</v>
+        <v>1.012801325896913</v>
       </c>
       <c r="T12">
-        <v>1.000334294371929</v>
+        <v>1.001105617617398</v>
       </c>
       <c r="U12">
-        <v>1.000897204121052</v>
+        <v>1.00296733063255</v>
       </c>
       <c r="V12">
-        <v>0.9991131560505252</v>
+        <v>0.9970669334739316</v>
       </c>
       <c r="W12">
-        <v>1.000793113788157</v>
+        <v>1.002623072957773</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9921719782575983</v>
+        <v>1.005954357766428</v>
       </c>
       <c r="D13">
-        <v>0.9984343958665108</v>
+        <v>1.001190868205289</v>
       </c>
       <c r="E13">
-        <v>1.005218679116787</v>
+        <v>0.996030426214723</v>
       </c>
       <c r="F13">
-        <v>1.001957007172716</v>
+        <v>0.9985114139144162</v>
       </c>
       <c r="G13">
-        <v>0.9921719782575983</v>
+        <v>1.005954357766428</v>
       </c>
       <c r="H13">
-        <v>0.9983179441364178</v>
+        <v>1.001279447256714</v>
       </c>
       <c r="I13">
-        <v>1.002905692205327</v>
+        <v>0.9977897987363592</v>
       </c>
       <c r="J13">
-        <v>1.005218679116787</v>
+        <v>0.996030426214723</v>
       </c>
       <c r="K13">
-        <v>1.005218679116787</v>
+        <v>0.996030426214723</v>
       </c>
       <c r="L13">
-        <v>0.9949101734731235</v>
+        <v>1.003871560185935</v>
       </c>
       <c r="M13">
-        <v>1.001957007172716</v>
+        <v>0.9985114139144162</v>
       </c>
       <c r="N13">
-        <v>1.005218679116787</v>
+        <v>0.996030426214723</v>
       </c>
       <c r="O13">
-        <v>1.001957007172716</v>
+        <v>0.9985114139144162</v>
       </c>
       <c r="P13">
-        <v>0.9970644927151571</v>
+        <v>1.002232885840422</v>
       </c>
       <c r="Q13">
-        <v>1.000137475654567</v>
+        <v>0.9998954305855652</v>
       </c>
       <c r="R13">
-        <v>0.9997825548490339</v>
+        <v>1.000165399298522</v>
       </c>
       <c r="S13">
-        <v>0.9974823098555774</v>
+        <v>1.001915072979186</v>
       </c>
       <c r="T13">
-        <v>0.9997825548490339</v>
+        <v>1.000165399298522</v>
       </c>
       <c r="U13">
-        <v>0.9994164021708798</v>
+        <v>1.00044391128807</v>
       </c>
       <c r="V13">
-        <v>1.000576857560061</v>
+        <v>0.9995612142734007</v>
       </c>
       <c r="W13">
-        <v>0.9994841096751496</v>
+        <v>1.000392410774285</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.068766400000001</v>
+        <v>1.012034556242108</v>
       </c>
       <c r="D14">
-        <v>1.0137533</v>
+        <v>1.002406914000002</v>
       </c>
       <c r="E14">
-        <v>0.9541557599999997</v>
+        <v>0.9919769637684198</v>
       </c>
       <c r="F14">
-        <v>0.9828084099999992</v>
+        <v>0.9969913631052594</v>
       </c>
       <c r="G14">
-        <v>1.068766400000001</v>
+        <v>1.012034556242108</v>
       </c>
       <c r="H14">
-        <v>1.0147762</v>
+        <v>1.002585933368419</v>
       </c>
       <c r="I14">
-        <v>0.9744745400000012</v>
+        <v>0.9955328812105243</v>
       </c>
       <c r="J14">
-        <v>0.9541557599999997</v>
+        <v>0.9919769637684198</v>
       </c>
       <c r="K14">
-        <v>0.9541557599999997</v>
+        <v>0.9919769637684198</v>
       </c>
       <c r="L14">
-        <v>1.0447123</v>
+        <v>1.007824935505265</v>
       </c>
       <c r="M14">
-        <v>0.9828084099999992</v>
+        <v>0.9969913631052594</v>
       </c>
       <c r="N14">
-        <v>0.9541557599999997</v>
+        <v>0.9919769637684198</v>
       </c>
       <c r="O14">
-        <v>0.9828084099999992</v>
+        <v>0.9969913631052594</v>
       </c>
       <c r="P14">
-        <v>1.025787405</v>
+        <v>1.004512959673684</v>
       </c>
       <c r="Q14">
-        <v>0.9987923049999996</v>
+        <v>0.999788648236839</v>
       </c>
       <c r="R14">
-        <v>1.00191019</v>
+        <v>1.000334294371929</v>
       </c>
       <c r="S14">
-        <v>1.022117003333333</v>
+        <v>1.003870617571929</v>
       </c>
       <c r="T14">
-        <v>1.00191019</v>
+        <v>1.000334294371929</v>
       </c>
       <c r="U14">
-        <v>1.0051266925</v>
+        <v>1.000897204121052</v>
       </c>
       <c r="V14">
-        <v>0.9949325059999998</v>
+        <v>0.9991131560505252</v>
       </c>
       <c r="W14">
-        <v>1.004531915</v>
+        <v>1.000793113788157</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0687664</v>
+        <v>0.9921719782575983</v>
       </c>
       <c r="D15">
-        <v>1.0137533</v>
+        <v>0.9984343958665108</v>
       </c>
       <c r="E15">
-        <v>0.95415576</v>
+        <v>1.005218679116787</v>
       </c>
       <c r="F15">
-        <v>0.98280841</v>
+        <v>1.001957007172716</v>
       </c>
       <c r="G15">
-        <v>1.0687664</v>
+        <v>0.9921719782575983</v>
       </c>
       <c r="H15">
-        <v>1.0147762</v>
+        <v>0.9983179441364178</v>
       </c>
       <c r="I15">
-        <v>0.9744745399999999</v>
+        <v>1.002905692205327</v>
       </c>
       <c r="J15">
-        <v>0.95415576</v>
+        <v>1.005218679116787</v>
       </c>
       <c r="K15">
-        <v>0.95415576</v>
+        <v>1.005218679116787</v>
       </c>
       <c r="L15">
-        <v>1.0447123</v>
+        <v>0.9949101734731235</v>
       </c>
       <c r="M15">
-        <v>0.98280841</v>
+        <v>1.001957007172716</v>
       </c>
       <c r="N15">
-        <v>0.95415576</v>
+        <v>1.005218679116787</v>
       </c>
       <c r="O15">
-        <v>0.98280841</v>
+        <v>1.001957007172716</v>
       </c>
       <c r="P15">
-        <v>1.025787405</v>
+        <v>0.9970644927151571</v>
       </c>
       <c r="Q15">
-        <v>0.998792305</v>
+        <v>1.000137475654567</v>
       </c>
       <c r="R15">
-        <v>1.00191019</v>
+        <v>0.9997825548490339</v>
       </c>
       <c r="S15">
-        <v>1.022117003333333</v>
+        <v>0.9974823098555774</v>
       </c>
       <c r="T15">
-        <v>1.00191019</v>
+        <v>0.9997825548490339</v>
       </c>
       <c r="U15">
-        <v>1.0051266925</v>
+        <v>0.9994164021708798</v>
       </c>
       <c r="V15">
-        <v>0.9949325059999999</v>
+        <v>1.000576857560061</v>
       </c>
       <c r="W15">
-        <v>1.004531915</v>
+        <v>0.9994841096751496</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,49 +1600,49 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0687664</v>
+        <v>1.068766400000001</v>
       </c>
       <c r="D16">
         <v>1.0137533</v>
       </c>
       <c r="E16">
-        <v>0.95415576</v>
+        <v>0.9541557599999997</v>
       </c>
       <c r="F16">
-        <v>0.98280841</v>
+        <v>0.9828084099999992</v>
       </c>
       <c r="G16">
-        <v>1.0687664</v>
+        <v>1.068766400000001</v>
       </c>
       <c r="H16">
         <v>1.0147762</v>
       </c>
       <c r="I16">
-        <v>0.9744745399999999</v>
+        <v>0.9744745400000012</v>
       </c>
       <c r="J16">
-        <v>0.95415576</v>
+        <v>0.9541557599999997</v>
       </c>
       <c r="K16">
-        <v>0.95415576</v>
+        <v>0.9541557599999997</v>
       </c>
       <c r="L16">
         <v>1.0447123</v>
       </c>
       <c r="M16">
-        <v>0.98280841</v>
+        <v>0.9828084099999992</v>
       </c>
       <c r="N16">
-        <v>0.95415576</v>
+        <v>0.9541557599999997</v>
       </c>
       <c r="O16">
-        <v>0.98280841</v>
+        <v>0.9828084099999992</v>
       </c>
       <c r="P16">
         <v>1.025787405</v>
       </c>
       <c r="Q16">
-        <v>0.998792305</v>
+        <v>0.9987923049999996</v>
       </c>
       <c r="R16">
         <v>1.00191019</v>
@@ -1651,7 +1657,7 @@
         <v>1.0051266925</v>
       </c>
       <c r="V16">
-        <v>0.9949325059999999</v>
+        <v>0.9949325059999998</v>
       </c>
       <c r="W16">
         <v>1.004531915</v>
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.0042979</v>
+        <v>1.0687664</v>
       </c>
       <c r="D17">
-        <v>1.0008596</v>
+        <v>1.0137533</v>
       </c>
       <c r="E17">
-        <v>0.99713473</v>
+        <v>0.95415576</v>
       </c>
       <c r="F17">
-        <v>0.99892553</v>
+        <v>0.98280841</v>
       </c>
       <c r="G17">
-        <v>1.0042979</v>
+        <v>1.0687664</v>
       </c>
       <c r="H17">
-        <v>1.0009235</v>
+        <v>1.0147762</v>
       </c>
       <c r="I17">
-        <v>0.9984046600000001</v>
+        <v>0.9744745399999999</v>
       </c>
       <c r="J17">
-        <v>0.99713473</v>
+        <v>0.95415576</v>
       </c>
       <c r="K17">
-        <v>0.99713473</v>
+        <v>0.95415576</v>
       </c>
       <c r="L17">
-        <v>1.0027945</v>
+        <v>1.0447123</v>
       </c>
       <c r="M17">
-        <v>0.99892553</v>
+        <v>0.98280841</v>
       </c>
       <c r="N17">
-        <v>0.99713473</v>
+        <v>0.95415576</v>
       </c>
       <c r="O17">
-        <v>0.99892553</v>
+        <v>0.98280841</v>
       </c>
       <c r="P17">
-        <v>1.001611715</v>
+        <v>1.025787405</v>
       </c>
       <c r="Q17">
-        <v>0.999924515</v>
+        <v>0.998792305</v>
       </c>
       <c r="R17">
-        <v>1.000119386666667</v>
+        <v>1.00191019</v>
       </c>
       <c r="S17">
-        <v>1.00138231</v>
+        <v>1.022117003333333</v>
       </c>
       <c r="T17">
-        <v>1.000119386666667</v>
+        <v>1.00191019</v>
       </c>
       <c r="U17">
-        <v>1.000320415</v>
+        <v>1.0051266925</v>
       </c>
       <c r="V17">
-        <v>0.999683278</v>
+        <v>0.9949325059999999</v>
       </c>
       <c r="W17">
-        <v>1.00028324375</v>
+        <v>1.004531915</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.02637614739726</v>
+        <v>1.0687664</v>
       </c>
       <c r="D18">
-        <v>1.005275226575343</v>
+        <v>1.0137533</v>
       </c>
       <c r="E18">
-        <v>0.9824159068493157</v>
+        <v>0.95415576</v>
       </c>
       <c r="F18">
-        <v>0.9934059645205481</v>
+        <v>0.98280841</v>
       </c>
       <c r="G18">
-        <v>1.02637614739726</v>
+        <v>1.0687664</v>
       </c>
       <c r="H18">
-        <v>1.005667598356165</v>
+        <v>1.0147762</v>
       </c>
       <c r="I18">
-        <v>0.9902094199999997</v>
+        <v>0.9744745399999999</v>
       </c>
       <c r="J18">
-        <v>0.9824159068493157</v>
+        <v>0.95415576</v>
       </c>
       <c r="K18">
-        <v>0.9824159068493157</v>
+        <v>0.95415576</v>
       </c>
       <c r="L18">
-        <v>1.017149922465754</v>
+        <v>1.0447123</v>
       </c>
       <c r="M18">
-        <v>0.9934059645205481</v>
+        <v>0.98280841</v>
       </c>
       <c r="N18">
-        <v>0.9824159068493157</v>
+        <v>0.95415576</v>
       </c>
       <c r="O18">
-        <v>0.9934059645205481</v>
+        <v>0.98280841</v>
       </c>
       <c r="P18">
-        <v>1.009891055958904</v>
+        <v>1.025787405</v>
       </c>
       <c r="Q18">
-        <v>0.9995367814383564</v>
+        <v>0.998792305</v>
       </c>
       <c r="R18">
-        <v>1.000732672922375</v>
+        <v>1.00191019</v>
       </c>
       <c r="S18">
-        <v>1.008483236757991</v>
+        <v>1.022117003333333</v>
       </c>
       <c r="T18">
-        <v>1.000732672922375</v>
+        <v>1.00191019</v>
       </c>
       <c r="U18">
-        <v>1.001966404280822</v>
+        <v>1.0051266925</v>
       </c>
       <c r="V18">
-        <v>0.9980563047945207</v>
+        <v>0.9949325059999999</v>
       </c>
       <c r="W18">
-        <v>1.001738268835616</v>
+        <v>1.004531915</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.028049446842105</v>
+        <v>1.0042979</v>
       </c>
       <c r="D19">
-        <v>1.005609887368421</v>
+        <v>1.0008596</v>
       </c>
       <c r="E19">
-        <v>0.9813003747368423</v>
+        <v>0.99713473</v>
       </c>
       <c r="F19">
-        <v>0.9929876399999998</v>
+        <v>0.99892553</v>
       </c>
       <c r="G19">
-        <v>1.028049446842105</v>
+        <v>1.0042979</v>
       </c>
       <c r="H19">
-        <v>1.006027148421053</v>
+        <v>1.0009235</v>
       </c>
       <c r="I19">
-        <v>0.9895883063157895</v>
+        <v>0.9984046600000001</v>
       </c>
       <c r="J19">
-        <v>0.9813003747368423</v>
+        <v>0.99713473</v>
       </c>
       <c r="K19">
-        <v>0.9813003747368423</v>
+        <v>0.99713473</v>
       </c>
       <c r="L19">
-        <v>1.018237911052632</v>
+        <v>1.0027945</v>
       </c>
       <c r="M19">
-        <v>0.9929876399999998</v>
+        <v>0.99892553</v>
       </c>
       <c r="N19">
-        <v>0.9813003747368423</v>
+        <v>0.99713473</v>
       </c>
       <c r="O19">
-        <v>0.9929876399999998</v>
+        <v>0.99892553</v>
       </c>
       <c r="P19">
-        <v>1.010518543421052</v>
+        <v>1.001611715</v>
       </c>
       <c r="Q19">
-        <v>0.9995073942105261</v>
+        <v>0.999924515</v>
       </c>
       <c r="R19">
-        <v>1.000779153859649</v>
+        <v>1.000119386666667</v>
       </c>
       <c r="S19">
-        <v>1.009021411754386</v>
+        <v>1.00138231</v>
       </c>
       <c r="T19">
-        <v>1.000779153859649</v>
+        <v>1.000119386666667</v>
       </c>
       <c r="U19">
-        <v>1.0020911525</v>
+        <v>1.000320415</v>
       </c>
       <c r="V19">
-        <v>0.9979329969473685</v>
+        <v>0.999683278</v>
       </c>
       <c r="W19">
-        <v>1.001848544342105</v>
+        <v>1.00028324375</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.028049446842105</v>
+        <v>1.02637614739726</v>
       </c>
       <c r="D20">
-        <v>1.005609887368421</v>
+        <v>1.005275226575343</v>
       </c>
       <c r="E20">
-        <v>0.9813003747368423</v>
+        <v>0.9824159068493157</v>
       </c>
       <c r="F20">
-        <v>0.9929876399999998</v>
+        <v>0.9934059645205481</v>
       </c>
       <c r="G20">
-        <v>1.028049446842105</v>
+        <v>1.02637614739726</v>
       </c>
       <c r="H20">
-        <v>1.006027148421053</v>
+        <v>1.005667598356165</v>
       </c>
       <c r="I20">
-        <v>0.9895883063157895</v>
+        <v>0.9902094199999997</v>
       </c>
       <c r="J20">
-        <v>0.9813003747368423</v>
+        <v>0.9824159068493157</v>
       </c>
       <c r="K20">
-        <v>0.9813003747368423</v>
+        <v>0.9824159068493157</v>
       </c>
       <c r="L20">
-        <v>1.018237911052632</v>
+        <v>1.017149922465754</v>
       </c>
       <c r="M20">
-        <v>0.9929876399999998</v>
+        <v>0.9934059645205481</v>
       </c>
       <c r="N20">
-        <v>0.9813003747368423</v>
+        <v>0.9824159068493157</v>
       </c>
       <c r="O20">
-        <v>0.9929876399999998</v>
+        <v>0.9934059645205481</v>
       </c>
       <c r="P20">
-        <v>1.010518543421052</v>
+        <v>1.009891055958904</v>
       </c>
       <c r="Q20">
-        <v>0.9995073942105261</v>
+        <v>0.9995367814383564</v>
       </c>
       <c r="R20">
-        <v>1.000779153859649</v>
+        <v>1.000732672922375</v>
       </c>
       <c r="S20">
-        <v>1.009021411754386</v>
+        <v>1.008483236757991</v>
       </c>
       <c r="T20">
-        <v>1.000779153859649</v>
+        <v>1.000732672922375</v>
       </c>
       <c r="U20">
-        <v>1.0020911525</v>
+        <v>1.001966404280822</v>
       </c>
       <c r="V20">
-        <v>0.9979329969473685</v>
+        <v>0.9980563047945207</v>
       </c>
       <c r="W20">
-        <v>1.001848544342105</v>
+        <v>1.001738268835616</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9946327119583072</v>
+        <v>1.028049446842105</v>
       </c>
       <c r="D21">
-        <v>0.9989265358908339</v>
+        <v>1.005609887368421</v>
       </c>
       <c r="E21">
-        <v>1.0035781878889</v>
+        <v>0.9813003747368423</v>
       </c>
       <c r="F21">
-        <v>1.00134182536628</v>
+        <v>0.9929876399999998</v>
       </c>
       <c r="G21">
-        <v>0.9946327119583072</v>
+        <v>1.028049446842105</v>
       </c>
       <c r="H21">
-        <v>0.9988466944165735</v>
+        <v>1.006027148421053</v>
       </c>
       <c r="I21">
-        <v>1.001992287703666</v>
+        <v>0.9895883063157895</v>
       </c>
       <c r="J21">
-        <v>1.0035781878889</v>
+        <v>0.9813003747368423</v>
       </c>
       <c r="K21">
-        <v>1.0035781878889</v>
+        <v>0.9813003747368423</v>
       </c>
       <c r="L21">
-        <v>0.9965101501423791</v>
+        <v>1.018237911052632</v>
       </c>
       <c r="M21">
-        <v>1.00134182536628</v>
+        <v>0.9929876399999998</v>
       </c>
       <c r="N21">
-        <v>1.0035781878889</v>
+        <v>0.9813003747368423</v>
       </c>
       <c r="O21">
-        <v>1.00134182536628</v>
+        <v>0.9929876399999998</v>
       </c>
       <c r="P21">
-        <v>0.9979872686622936</v>
+        <v>1.010518543421052</v>
       </c>
       <c r="Q21">
-        <v>1.000094259891427</v>
+        <v>0.9995073942105261</v>
       </c>
       <c r="R21">
-        <v>0.9998509084044956</v>
+        <v>1.000779153859649</v>
       </c>
       <c r="S21">
-        <v>0.9982737439137201</v>
+        <v>1.009021411754386</v>
       </c>
       <c r="T21">
-        <v>0.9998509084044956</v>
+        <v>1.000779153859649</v>
       </c>
       <c r="U21">
-        <v>0.9995998549075151</v>
+        <v>1.0020911525</v>
       </c>
       <c r="V21">
-        <v>1.000395521503792</v>
+        <v>0.9979329969473685</v>
       </c>
       <c r="W21">
-        <v>0.9996462773416525</v>
+        <v>1.001848544342105</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9986226192190829</v>
+        <v>1.028049446842105</v>
       </c>
       <c r="D22">
-        <v>0.9997245284344218</v>
+        <v>1.005609887368421</v>
       </c>
       <c r="E22">
-        <v>1.000918247480899</v>
+        <v>0.9813003747368423</v>
       </c>
       <c r="F22">
-        <v>1.000344344972705</v>
+        <v>0.9929876399999998</v>
       </c>
       <c r="G22">
-        <v>0.9986226192190829</v>
+        <v>1.028049446842105</v>
       </c>
       <c r="H22">
-        <v>0.9997040311847858</v>
+        <v>1.006027148421053</v>
       </c>
       <c r="I22">
-        <v>1.000511271096169</v>
+        <v>0.9895883063157895</v>
       </c>
       <c r="J22">
-        <v>1.000918247480899</v>
+        <v>0.9813003747368423</v>
       </c>
       <c r="K22">
-        <v>1.000918247480899</v>
+        <v>0.9813003747368423</v>
       </c>
       <c r="L22">
-        <v>0.9991044140848516</v>
+        <v>1.018237911052632</v>
       </c>
       <c r="M22">
-        <v>1.000344344972705</v>
+        <v>0.9929876399999998</v>
       </c>
       <c r="N22">
-        <v>1.000918247480899</v>
+        <v>0.9813003747368423</v>
       </c>
       <c r="O22">
-        <v>1.000344344972705</v>
+        <v>0.9929876399999998</v>
       </c>
       <c r="P22">
-        <v>0.9994834820958938</v>
+        <v>1.010518543421052</v>
       </c>
       <c r="Q22">
-        <v>1.000024188078745</v>
+        <v>0.9995073942105261</v>
       </c>
       <c r="R22">
-        <v>0.9999617372242288</v>
+        <v>1.000779153859649</v>
       </c>
       <c r="S22">
-        <v>0.9995569984588578</v>
+        <v>1.009021411754386</v>
       </c>
       <c r="T22">
-        <v>0.999961737224229</v>
+        <v>1.000779153859649</v>
       </c>
       <c r="U22">
-        <v>0.9998973107143682</v>
+        <v>1.0020911525</v>
       </c>
       <c r="V22">
-        <v>1.000101498067674</v>
+        <v>0.9979329969473685</v>
       </c>
       <c r="W22">
-        <v>0.9999092251807025</v>
+        <v>1.001848544342105</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9873439627911561</v>
+        <v>0.9946327119583072</v>
       </c>
       <c r="D23">
-        <v>0.9974687961789362</v>
+        <v>0.9989265358908339</v>
       </c>
       <c r="E23">
-        <v>1.00843735622691</v>
+        <v>1.0035781878889</v>
       </c>
       <c r="F23">
-        <v>1.003164008499625</v>
+        <v>1.00134182536628</v>
       </c>
       <c r="G23">
-        <v>0.9873439627911561</v>
+        <v>0.9946327119583072</v>
       </c>
       <c r="H23">
-        <v>0.9972805176581907</v>
+        <v>0.9988466944165735</v>
       </c>
       <c r="I23">
-        <v>1.004697815197374</v>
+        <v>1.001992287703666</v>
       </c>
       <c r="J23">
-        <v>1.00843735622691</v>
+        <v>1.0035781878889</v>
       </c>
       <c r="K23">
-        <v>1.00843735622691</v>
+        <v>1.0035781878889</v>
       </c>
       <c r="L23">
-        <v>0.9917709682328282</v>
+        <v>0.9965101501423791</v>
       </c>
       <c r="M23">
-        <v>1.003164008499625</v>
+        <v>1.00134182536628</v>
       </c>
       <c r="N23">
-        <v>1.00843735622691</v>
+        <v>1.0035781878889</v>
       </c>
       <c r="O23">
-        <v>1.003164008499625</v>
+        <v>1.00134182536628</v>
       </c>
       <c r="P23">
-        <v>0.9952539856453908</v>
+        <v>0.9979872686622936</v>
       </c>
       <c r="Q23">
-        <v>1.000222263078908</v>
+        <v>1.000094259891427</v>
       </c>
       <c r="R23">
-        <v>0.9996484425058972</v>
+        <v>0.9998509084044956</v>
       </c>
       <c r="S23">
-        <v>0.995929496316324</v>
+        <v>0.9982737439137201</v>
       </c>
       <c r="T23">
-        <v>0.9996484425058972</v>
+        <v>0.9998509084044956</v>
       </c>
       <c r="U23">
-        <v>0.9990564612939705</v>
+        <v>0.9995998549075151</v>
       </c>
       <c r="V23">
-        <v>1.000932640280559</v>
+        <v>1.000395521503792</v>
       </c>
       <c r="W23">
-        <v>0.9991659291605808</v>
+        <v>0.9996462773416525</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9967239804633086</v>
+        <v>0.9986226192190829</v>
       </c>
       <c r="D24">
-        <v>0.9993447955034405</v>
+        <v>0.9997245284344218</v>
       </c>
       <c r="E24">
-        <v>1.002184013118497</v>
+        <v>1.000918247480899</v>
       </c>
       <c r="F24">
-        <v>1.000819011752151</v>
+        <v>1.000344344972705</v>
       </c>
       <c r="G24">
-        <v>0.9967239804633086</v>
+        <v>0.9986226192190829</v>
       </c>
       <c r="H24">
-        <v>0.9992960646984418</v>
+        <v>0.9997040311847858</v>
       </c>
       <c r="I24">
-        <v>1.00121603445019</v>
+        <v>1.000511271096169</v>
       </c>
       <c r="J24">
-        <v>1.002184013118497</v>
+        <v>1.000918247480899</v>
       </c>
       <c r="K24">
-        <v>1.002184013118497</v>
+        <v>1.000918247480899</v>
       </c>
       <c r="L24">
-        <v>0.9978699118088455</v>
+        <v>0.9991044140848516</v>
       </c>
       <c r="M24">
-        <v>1.000819011752151</v>
+        <v>1.000344344972705</v>
       </c>
       <c r="N24">
-        <v>1.002184013118497</v>
+        <v>1.000918247480899</v>
       </c>
       <c r="O24">
-        <v>1.000819011752151</v>
+        <v>1.000344344972705</v>
       </c>
       <c r="P24">
-        <v>0.9987714961077296</v>
+        <v>0.9994834820958938</v>
       </c>
       <c r="Q24">
-        <v>1.000057538225296</v>
+        <v>1.000024188078745</v>
       </c>
       <c r="R24">
-        <v>0.9999090017779855</v>
+        <v>0.9999617372242288</v>
       </c>
       <c r="S24">
-        <v>0.9989463523046337</v>
+        <v>0.9995569984588578</v>
       </c>
       <c r="T24">
-        <v>0.9999090017779855</v>
+        <v>0.999961737224229</v>
       </c>
       <c r="U24">
-        <v>0.9997557675080996</v>
+        <v>0.9998973107143682</v>
       </c>
       <c r="V24">
-        <v>1.000241416630179</v>
+        <v>1.000101498067674</v>
       </c>
       <c r="W24">
-        <v>0.9997841029433781</v>
+        <v>0.9999092251807025</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.994632711958307</v>
+        <v>0.9873439627911561</v>
       </c>
       <c r="D25">
-        <v>0.9989265358908339</v>
+        <v>0.9974687961789362</v>
       </c>
       <c r="E25">
-        <v>1.0035781878889</v>
+        <v>1.00843735622691</v>
       </c>
       <c r="F25">
-        <v>1.00134182536628</v>
+        <v>1.003164008499625</v>
       </c>
       <c r="G25">
-        <v>0.994632711958307</v>
+        <v>0.9873439627911561</v>
       </c>
       <c r="H25">
-        <v>0.9988466944165735</v>
+        <v>0.9972805176581907</v>
       </c>
       <c r="I25">
-        <v>1.001992287703666</v>
+        <v>1.004697815197374</v>
       </c>
       <c r="J25">
-        <v>1.0035781878889</v>
+        <v>1.00843735622691</v>
       </c>
       <c r="K25">
-        <v>1.0035781878889</v>
+        <v>1.00843735622691</v>
       </c>
       <c r="L25">
-        <v>0.9965101501423793</v>
+        <v>0.9917709682328282</v>
       </c>
       <c r="M25">
-        <v>1.00134182536628</v>
+        <v>1.003164008499625</v>
       </c>
       <c r="N25">
-        <v>1.0035781878889</v>
+        <v>1.00843735622691</v>
       </c>
       <c r="O25">
-        <v>1.00134182536628</v>
+        <v>1.003164008499625</v>
       </c>
       <c r="P25">
-        <v>0.9979872686622937</v>
+        <v>0.9952539856453908</v>
       </c>
       <c r="Q25">
-        <v>1.000094259891427</v>
+        <v>1.000222263078908</v>
       </c>
       <c r="R25">
-        <v>0.9998509084044959</v>
+        <v>0.9996484425058972</v>
       </c>
       <c r="S25">
-        <v>0.9982737439137203</v>
+        <v>0.995929496316324</v>
       </c>
       <c r="T25">
-        <v>0.9998509084044959</v>
+        <v>0.9996484425058972</v>
       </c>
       <c r="U25">
-        <v>0.9995998549075152</v>
+        <v>0.9990564612939705</v>
       </c>
       <c r="V25">
-        <v>1.000395521503792</v>
+        <v>1.000932640280559</v>
       </c>
       <c r="W25">
-        <v>0.9996462773416526</v>
+        <v>0.9991659291605808</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9986226192190829</v>
+        <v>0.9967239804633086</v>
       </c>
       <c r="D26">
-        <v>0.9997245284344218</v>
+        <v>0.9993447955034405</v>
       </c>
       <c r="E26">
-        <v>1.000918247480899</v>
+        <v>1.002184013118497</v>
       </c>
       <c r="F26">
-        <v>1.000344344972705</v>
+        <v>1.000819011752151</v>
       </c>
       <c r="G26">
-        <v>0.9986226192190829</v>
+        <v>0.9967239804633086</v>
       </c>
       <c r="H26">
-        <v>0.9997040311847858</v>
+        <v>0.9992960646984418</v>
       </c>
       <c r="I26">
-        <v>1.000511271096169</v>
+        <v>1.00121603445019</v>
       </c>
       <c r="J26">
-        <v>1.000918247480899</v>
+        <v>1.002184013118497</v>
       </c>
       <c r="K26">
-        <v>1.000918247480899</v>
+        <v>1.002184013118497</v>
       </c>
       <c r="L26">
-        <v>0.9991044140848517</v>
+        <v>0.9978699118088455</v>
       </c>
       <c r="M26">
-        <v>1.000344344972705</v>
+        <v>1.000819011752151</v>
       </c>
       <c r="N26">
-        <v>1.000918247480899</v>
+        <v>1.002184013118497</v>
       </c>
       <c r="O26">
-        <v>1.000344344972705</v>
+        <v>1.000819011752151</v>
       </c>
       <c r="P26">
-        <v>0.9994834820958938</v>
+        <v>0.9987714961077296</v>
       </c>
       <c r="Q26">
-        <v>1.000024188078745</v>
+        <v>1.000057538225296</v>
       </c>
       <c r="R26">
-        <v>0.9999617372242288</v>
+        <v>0.9999090017779855</v>
       </c>
       <c r="S26">
-        <v>0.9995569984588578</v>
+        <v>0.9989463523046337</v>
       </c>
       <c r="T26">
-        <v>0.999961737224229</v>
+        <v>0.9999090017779855</v>
       </c>
       <c r="U26">
-        <v>0.9998973107143682</v>
+        <v>0.9997557675080996</v>
       </c>
       <c r="V26">
-        <v>1.000101498067674</v>
+        <v>1.000241416630179</v>
       </c>
       <c r="W26">
-        <v>0.9999092251807025</v>
+        <v>0.9997841029433781</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.004098485138982</v>
+        <v>0.994632711958307</v>
       </c>
       <c r="D27">
-        <v>1.000819698316698</v>
+        <v>0.9989265358908339</v>
       </c>
       <c r="E27">
-        <v>0.9972676747452834</v>
+        <v>1.0035781878889</v>
       </c>
       <c r="F27">
-        <v>0.9989753743605644</v>
+        <v>1.00134182536628</v>
       </c>
       <c r="G27">
-        <v>1.004098485138982</v>
+        <v>0.994632711958307</v>
       </c>
       <c r="H27">
-        <v>1.000880669294817</v>
+        <v>0.9988466944165735</v>
       </c>
       <c r="I27">
-        <v>0.9984786669942904</v>
+        <v>1.001992287703666</v>
       </c>
       <c r="J27">
-        <v>0.9972676747452834</v>
+        <v>1.0035781878889</v>
       </c>
       <c r="K27">
-        <v>0.9972676747452834</v>
+        <v>1.0035781878889</v>
       </c>
       <c r="L27">
-        <v>1.002664847293176</v>
+        <v>0.9965101501423793</v>
       </c>
       <c r="M27">
-        <v>0.9989753743605644</v>
+        <v>1.00134182536628</v>
       </c>
       <c r="N27">
-        <v>0.9972676747452834</v>
+        <v>1.0035781878889</v>
       </c>
       <c r="O27">
-        <v>0.9989753743605644</v>
+        <v>1.00134182536628</v>
       </c>
       <c r="P27">
-        <v>1.001536929749773</v>
+        <v>0.9979872686622937</v>
       </c>
       <c r="Q27">
-        <v>0.9999280218276905</v>
+        <v>1.000094259891427</v>
       </c>
       <c r="R27">
-        <v>1.000113844748276</v>
+        <v>0.9998509084044959</v>
       </c>
       <c r="S27">
-        <v>1.001318176264787</v>
+        <v>0.9982737439137203</v>
       </c>
       <c r="T27">
-        <v>1.000113844748276</v>
+        <v>0.9998509084044959</v>
       </c>
       <c r="U27">
-        <v>1.000305550884911</v>
+        <v>0.9995998549075152</v>
       </c>
       <c r="V27">
-        <v>0.9996979756569859</v>
+        <v>1.000395521503792</v>
       </c>
       <c r="W27">
-        <v>1.000270098813047</v>
+        <v>0.9996462773416526</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.001978783283727</v>
+        <v>0.9986226192190829</v>
       </c>
       <c r="D28">
-        <v>1.000395750918011</v>
+        <v>0.9997245284344218</v>
       </c>
       <c r="E28">
-        <v>0.9986808108107365</v>
+        <v>1.000918247480899</v>
       </c>
       <c r="F28">
-        <v>0.9995053056578024</v>
+        <v>1.000344344972705</v>
       </c>
       <c r="G28">
-        <v>1.001978783283727</v>
+        <v>0.9986226192190829</v>
       </c>
       <c r="H28">
-        <v>1.00042518843661</v>
+        <v>0.9997040311847858</v>
       </c>
       <c r="I28">
-        <v>0.9992654995169133</v>
+        <v>1.000511271096169</v>
       </c>
       <c r="J28">
-        <v>0.9986808108107365</v>
+        <v>1.000918247480899</v>
       </c>
       <c r="K28">
-        <v>0.9986808108107365</v>
+        <v>1.000918247480899</v>
       </c>
       <c r="L28">
-        <v>1.001286617167218</v>
+        <v>0.9991044140848517</v>
       </c>
       <c r="M28">
-        <v>0.9995053056578024</v>
+        <v>1.000344344972705</v>
       </c>
       <c r="N28">
-        <v>0.9986808108107365</v>
+        <v>1.000918247480899</v>
       </c>
       <c r="O28">
-        <v>0.9995053056578024</v>
+        <v>1.000344344972705</v>
       </c>
       <c r="P28">
-        <v>1.000742044470765</v>
+        <v>0.9994834820958938</v>
       </c>
       <c r="Q28">
-        <v>0.999965247047206</v>
+        <v>1.000024188078745</v>
       </c>
       <c r="R28">
-        <v>1.000054966584089</v>
+        <v>0.9999617372242288</v>
       </c>
       <c r="S28">
-        <v>1.000636425792713</v>
+        <v>0.9995569984588578</v>
       </c>
       <c r="T28">
-        <v>1.000054966584089</v>
+        <v>0.999961737224229</v>
       </c>
       <c r="U28">
-        <v>1.000147522047219</v>
+        <v>0.9998973107143682</v>
       </c>
       <c r="V28">
-        <v>0.9998541797999223</v>
+        <v>1.000101498067674</v>
       </c>
       <c r="W28">
-        <v>1.000130407681103</v>
+        <v>0.9999092251807025</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.004098485138982</v>
+      </c>
+      <c r="D29">
+        <v>1.000819698316698</v>
+      </c>
+      <c r="E29">
+        <v>0.9972676747452834</v>
+      </c>
+      <c r="F29">
+        <v>0.9989753743605644</v>
+      </c>
+      <c r="G29">
+        <v>1.004098485138982</v>
+      </c>
+      <c r="H29">
+        <v>1.000880669294817</v>
+      </c>
+      <c r="I29">
+        <v>0.9984786669942904</v>
+      </c>
+      <c r="J29">
+        <v>0.9972676747452834</v>
+      </c>
+      <c r="K29">
+        <v>0.9972676747452834</v>
+      </c>
+      <c r="L29">
+        <v>1.002664847293176</v>
+      </c>
+      <c r="M29">
+        <v>0.9989753743605644</v>
+      </c>
+      <c r="N29">
+        <v>0.9972676747452834</v>
+      </c>
+      <c r="O29">
+        <v>0.9989753743605644</v>
+      </c>
+      <c r="P29">
+        <v>1.001536929749773</v>
+      </c>
+      <c r="Q29">
+        <v>0.9999280218276905</v>
+      </c>
+      <c r="R29">
+        <v>1.000113844748276</v>
+      </c>
+      <c r="S29">
+        <v>1.001318176264787</v>
+      </c>
+      <c r="T29">
+        <v>1.000113844748276</v>
+      </c>
+      <c r="U29">
+        <v>1.000305550884911</v>
+      </c>
+      <c r="V29">
+        <v>0.9996979756569859</v>
+      </c>
+      <c r="W29">
+        <v>1.000270098813047</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.001978783283727</v>
+      </c>
+      <c r="D30">
+        <v>1.000395750918011</v>
+      </c>
+      <c r="E30">
+        <v>0.9986808108107365</v>
+      </c>
+      <c r="F30">
+        <v>0.9995053056578024</v>
+      </c>
+      <c r="G30">
+        <v>1.001978783283727</v>
+      </c>
+      <c r="H30">
+        <v>1.00042518843661</v>
+      </c>
+      <c r="I30">
+        <v>0.9992654995169133</v>
+      </c>
+      <c r="J30">
+        <v>0.9986808108107365</v>
+      </c>
+      <c r="K30">
+        <v>0.9986808108107365</v>
+      </c>
+      <c r="L30">
+        <v>1.001286617167218</v>
+      </c>
+      <c r="M30">
+        <v>0.9995053056578024</v>
+      </c>
+      <c r="N30">
+        <v>0.9986808108107365</v>
+      </c>
+      <c r="O30">
+        <v>0.9995053056578024</v>
+      </c>
+      <c r="P30">
+        <v>1.000742044470765</v>
+      </c>
+      <c r="Q30">
+        <v>0.999965247047206</v>
+      </c>
+      <c r="R30">
+        <v>1.000054966584089</v>
+      </c>
+      <c r="S30">
+        <v>1.000636425792713</v>
+      </c>
+      <c r="T30">
+        <v>1.000054966584089</v>
+      </c>
+      <c r="U30">
+        <v>1.000147522047219</v>
+      </c>
+      <c r="V30">
+        <v>0.9998541797999223</v>
+      </c>
+      <c r="W30">
+        <v>1.000130407681103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9894268714140213</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9978853748173386</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.007048744954431</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.002643277067397</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9894268714140213</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9977280799462068</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.003924653046512</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.007048744954431</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.007048744954431</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9931252986543658</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.002643277067397</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.007048744954431</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.002643277067397</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9960350742407089</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.000185678506802</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9997062978119494</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.9965994094758749</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9997062978119494</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>0.9992117433455138</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>1.000779143667297</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>0.9993031971209585</v>
       </c>
     </row>
